--- a/all.xlsx
+++ b/all.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B5C6EA-8DAC-4AC3-9F61-20FA29FE83A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3C12E3-48D8-4E50-9F4C-B5E16F5D83A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="950">
   <si>
     <t>Примечание</t>
   </si>
@@ -1241,18 +1241,12 @@
     <t>VOLKSWAGEN POLO</t>
   </si>
   <si>
-    <t>Срок действия пропуска</t>
-  </si>
-  <si>
     <t>ФИО</t>
   </si>
   <si>
     <t>Должность</t>
   </si>
   <si>
-    <t>Номер телефона</t>
-  </si>
-  <si>
     <t>АБК 13</t>
   </si>
   <si>
@@ -1787,9 +1781,6 @@
     <t>Фельдшер МЦ</t>
   </si>
   <si>
-    <t>8 922 675 06 26</t>
-  </si>
-  <si>
     <t>Хенде XD ELANTRA</t>
   </si>
   <si>
@@ -1847,9 +1838,6 @@
     <t>7600 КО 23</t>
   </si>
   <si>
-    <t>8 928 245 74 12</t>
-  </si>
-  <si>
     <t>KIA SHUMA 11</t>
   </si>
   <si>
@@ -2102,18 +2090,12 @@
     <t>Герасина Марина Анатольевна</t>
   </si>
   <si>
-    <t>№ пропуска</t>
-  </si>
-  <si>
     <t>№ парковки</t>
   </si>
   <si>
     <t>Тип/модель</t>
   </si>
   <si>
-    <t>14.12.21 31.12.22</t>
-  </si>
-  <si>
     <t>Мерседес А 200</t>
   </si>
   <si>
@@ -2126,9 +2108,6 @@
     <t>Катричук Алексей Александрович</t>
   </si>
   <si>
-    <t>Государ-ственный номер</t>
-  </si>
-  <si>
     <t>С 474 ВК 193</t>
   </si>
   <si>
@@ -2198,75 +2177,15 @@
     <t>Русаков Андрей Юрьевич</t>
   </si>
   <si>
-    <t>10.01.22 31.12.22</t>
-  </si>
-  <si>
-    <t>13.01.22 31.12.22</t>
-  </si>
-  <si>
-    <t>18.02.22 до выс. Сезона</t>
-  </si>
-  <si>
-    <t>23.03.22 31.12.22</t>
-  </si>
-  <si>
-    <t>25.03.22 31.12.22</t>
-  </si>
-  <si>
-    <t>29.03.22 до выс. сезона</t>
-  </si>
-  <si>
     <t>БФ сменный</t>
   </si>
   <si>
-    <t>08.04.22 31.12.22 замена пр. №16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.04.22 31.12.22 </t>
-  </si>
-  <si>
-    <t>11.04.22 31.12.22</t>
-  </si>
-  <si>
-    <t>12.04.22 31.12.22</t>
-  </si>
-  <si>
-    <t>18.04.22 31.12.22</t>
-  </si>
-  <si>
-    <t>30.05.22 31.12.22</t>
-  </si>
-  <si>
-    <t>19.07.22 31.12.22</t>
-  </si>
-  <si>
-    <t>27.07.22 31.12.22</t>
-  </si>
-  <si>
-    <t>01.08.22 31.08.22</t>
-  </si>
-  <si>
-    <t>16.08.22 31.12.22</t>
-  </si>
-  <si>
     <t>Х 886 ТХ 123</t>
   </si>
   <si>
     <t>В 562 МС 156</t>
   </si>
   <si>
-    <t>31.02.22 31.12.22</t>
-  </si>
-  <si>
-    <t>21.12.21 31.12.22</t>
-  </si>
-  <si>
-    <t>14.03.22 31.12.22</t>
-  </si>
-  <si>
-    <t>11.03.22 31.12.22</t>
-  </si>
-  <si>
     <t>Плетнев Алексей Владимирович</t>
   </si>
   <si>
@@ -2429,15 +2348,6 @@
     <t>ООО «ПрофСекью-рити»</t>
   </si>
   <si>
-    <t>17.12.21 31.12.22</t>
-  </si>
-  <si>
-    <t>02.02.22 31.12.22</t>
-  </si>
-  <si>
-    <t>9/1</t>
-  </si>
-  <si>
     <t>АБК 6</t>
   </si>
   <si>
@@ -2486,299 +2396,488 @@
     <t>Чеботаев Владимир Юрьевич. Чеботаева Наиля Фидаиловна</t>
   </si>
   <si>
-    <t>03.03.22 до выс. сезона</t>
-  </si>
-  <si>
-    <t>10.03.22 до выс. сезона</t>
-  </si>
-  <si>
-    <t>8 928 457 34 41. 8 988 282 38 80</t>
-  </si>
-  <si>
-    <t>8 928 457 08 22. 8 928 259 02 37</t>
-  </si>
-  <si>
-    <t>8 988 403 76 21</t>
-  </si>
-  <si>
-    <t>8 928 850 17 95. 8 918 104 19 66</t>
-  </si>
-  <si>
-    <t>8 918 905 56 95</t>
-  </si>
-  <si>
     <t xml:space="preserve">Въезд КПП 5 возле поля   </t>
   </si>
   <si>
-    <t>8 989 160 39 02</t>
-  </si>
-  <si>
-    <t>8 988 188 27 52</t>
-  </si>
-  <si>
-    <t>8 928 259 78 28</t>
-  </si>
-  <si>
-    <t>8 928 457 72 20</t>
-  </si>
-  <si>
-    <t>8 989 754 61 60</t>
-  </si>
-  <si>
-    <t>8 988 507 67 48</t>
-  </si>
-  <si>
-    <t>8 928 459 74 87. 8 905 885 97 91</t>
-  </si>
-  <si>
     <t xml:space="preserve">КПП 5 возле поля   </t>
   </si>
   <si>
-    <t>8 918 303 63 87</t>
-  </si>
-  <si>
-    <t>8 918 604 62 62</t>
-  </si>
-  <si>
-    <t>8 938 463 18 77</t>
+    <t xml:space="preserve">БФ   </t>
+  </si>
+  <si>
+    <t>Номер-телефона</t>
+  </si>
+  <si>
+    <t>8-988-403-76-21</t>
+  </si>
+  <si>
+    <t>8-918-905-56-95</t>
+  </si>
+  <si>
+    <t>8-989-160-39-02</t>
+  </si>
+  <si>
+    <t>8-988-188-27-52</t>
+  </si>
+  <si>
+    <t>8-928-259-78-28</t>
+  </si>
+  <si>
+    <t>8-928-457-72-20</t>
+  </si>
+  <si>
+    <t>8-989-754-61-60</t>
+  </si>
+  <si>
+    <t>8-988-507-67-48</t>
+  </si>
+  <si>
+    <t>8-918-303-63-87</t>
+  </si>
+  <si>
+    <t>8-918-604-62-62</t>
+  </si>
+  <si>
+    <t>8-938-463-18-77</t>
+  </si>
+  <si>
+    <t>8-918-406-17-82</t>
+  </si>
+  <si>
+    <t>8-918-305-04-73</t>
+  </si>
+  <si>
+    <t>8-999-656-26-76</t>
+  </si>
+  <si>
+    <t>8-989-751-64-80</t>
+  </si>
+  <si>
+    <t>8-918-106-39-35</t>
+  </si>
+  <si>
+    <t>8-918-409-28-22</t>
+  </si>
+  <si>
+    <t>8-902-407-87-65</t>
+  </si>
+  <si>
+    <t>8-967-316-51-88</t>
+  </si>
+  <si>
+    <t>8-928-457-45-60</t>
+  </si>
+  <si>
+    <t>8-922-718-40-33</t>
+  </si>
+  <si>
+    <t>8-928-377-00-80</t>
+  </si>
+  <si>
+    <t>8-989-083-78-12</t>
+  </si>
+  <si>
+    <t>8-988-189-20-56</t>
+  </si>
+  <si>
+    <t>8-928-457-98-09</t>
+  </si>
+  <si>
+    <t>8-968-261-02-22</t>
+  </si>
+  <si>
+    <t>8-918-406-90-14</t>
+  </si>
+  <si>
+    <t>8-928-459-94-85</t>
+  </si>
+  <si>
+    <t>8-918-903-77-31</t>
+  </si>
+  <si>
+    <t>8-900-001-94-34</t>
+  </si>
+  <si>
+    <t>8-918-418-71-80</t>
+  </si>
+  <si>
+    <t>8-918-608-77-70</t>
+  </si>
+  <si>
+    <t>8-918-455-06-56</t>
+  </si>
+  <si>
+    <t>8-925-327-18-33</t>
+  </si>
+  <si>
+    <t>8-988-152-16-78</t>
+  </si>
+  <si>
+    <t>8-913-801-38-10</t>
+  </si>
+  <si>
+    <t>8-964-942-11-76</t>
+  </si>
+  <si>
+    <t>8-988-925-04-80</t>
+  </si>
+  <si>
+    <t>8-988-288-06-99</t>
+  </si>
+  <si>
+    <t>8-918-300-30-93</t>
+  </si>
+  <si>
+    <t>8-938-870-60-50</t>
+  </si>
+  <si>
+    <t>8-989-757-42-94</t>
+  </si>
+  <si>
+    <t>8-903-479-19-45</t>
+  </si>
+  <si>
+    <t>8-918-420-40-03</t>
+  </si>
+  <si>
+    <t>8-967-305-23-16</t>
+  </si>
+  <si>
+    <t>8-953-114-61-57</t>
+  </si>
+  <si>
+    <t>8-989-162-15-85</t>
+  </si>
+  <si>
+    <t>8-938-439-67-52</t>
+  </si>
+  <si>
+    <t>8-962-882-88-50</t>
+  </si>
+  <si>
+    <t>8-967-646-41-00</t>
+  </si>
+  <si>
+    <t>8-918-401-00-63</t>
+  </si>
+  <si>
+    <t>8-922-675-06-26</t>
+  </si>
+  <si>
+    <t>8-988-069-95-12</t>
+  </si>
+  <si>
+    <t>8-918-600-06-24</t>
+  </si>
+  <si>
+    <t>8-918-05-07-02</t>
+  </si>
+  <si>
+    <t>8-977-345-48-78</t>
+  </si>
+  <si>
+    <t>8-921-693-97-01</t>
+  </si>
+  <si>
+    <t>8-960-48-48-096</t>
+  </si>
+  <si>
+    <t>8-928-245-74-12</t>
+  </si>
+  <si>
+    <t>8-950-966-11-19</t>
+  </si>
+  <si>
+    <t>8-964-946-49-46</t>
+  </si>
+  <si>
+    <t>8-960-019-18-19</t>
+  </si>
+  <si>
+    <t>8-999-656-46-96</t>
+  </si>
+  <si>
+    <t>8-918-109-08-86</t>
+  </si>
+  <si>
+    <t>8-918-004-22-35</t>
+  </si>
+  <si>
+    <t>9-902-260-29-88</t>
+  </si>
+  <si>
+    <t>8-977-700-09-99</t>
+  </si>
+  <si>
+    <t>8-988-504-47-24</t>
+  </si>
+  <si>
+    <t>8-996-405-60-91</t>
+  </si>
+  <si>
+    <t>8-918-106-60-18</t>
+  </si>
+  <si>
+    <t>8-918-000-49-48</t>
+  </si>
+  <si>
+    <t>8-918-100-05-58</t>
+  </si>
+  <si>
+    <t>8-918-407-49-58</t>
+  </si>
+  <si>
+    <t>8-919-123-18-03</t>
+  </si>
+  <si>
+    <t>8-918-908-77-56</t>
+  </si>
+  <si>
+    <t>8-988-161-74-11</t>
+  </si>
+  <si>
+    <t>8-999-795-13-35</t>
+  </si>
+  <si>
+    <t>8-953-087-69-87</t>
+  </si>
+  <si>
+    <t>8-918-402-76-61</t>
+  </si>
+  <si>
+    <t>8-989-085-91-31</t>
+  </si>
+  <si>
+    <t>8-928-259-79-57</t>
+  </si>
+  <si>
+    <t>8-988-237-10-37</t>
+  </si>
+  <si>
+    <t>8-988-281-74-47</t>
+  </si>
+  <si>
+    <t>8-905-954-40-55</t>
+  </si>
+  <si>
+    <t>8-918-497-37-33</t>
+  </si>
+  <si>
+    <t>8-967-319-42-28</t>
+  </si>
+  <si>
+    <t>8-918-359-96-98 Евгений 8-989-160-60-99 Юлия Парамок</t>
+  </si>
+  <si>
+    <t>Государственный номер</t>
+  </si>
+  <si>
+    <t>Гл. инженер</t>
+  </si>
+  <si>
+    <t>Руководитель ОП</t>
+  </si>
+  <si>
+    <t>Руководитель ОС</t>
+  </si>
+  <si>
+    <t>8 977 700 09 99</t>
+  </si>
+  <si>
+    <t>Рук.санаторно-курортного направления</t>
+  </si>
+  <si>
+    <t>8 928 457 98 09</t>
+  </si>
+  <si>
+    <t>Главный врач</t>
+  </si>
+  <si>
+    <t>Вед.спец.по ПБ</t>
+  </si>
+  <si>
+    <t>8 921 693 97 01</t>
+  </si>
+  <si>
+    <t>8 989 754 61 60</t>
+  </si>
+  <si>
+    <t>8 922 718 40 33</t>
+  </si>
+  <si>
+    <t>Менеджер по орг. мероприятий</t>
+  </si>
+  <si>
+    <t>Т 256 МХ</t>
+  </si>
+  <si>
+    <t>Спец.отд. бронирования</t>
   </si>
   <si>
     <t>8 918 406 17 82</t>
   </si>
   <si>
-    <t>8 918 305 04 73</t>
-  </si>
-  <si>
-    <t>8 999 656 26 76</t>
-  </si>
-  <si>
-    <t>8 989 751 64 80</t>
-  </si>
-  <si>
-    <t>8 918 106 39 35</t>
-  </si>
-  <si>
-    <t>8 918 108 20 19. 8 989 750 67 78</t>
-  </si>
-  <si>
-    <t>8 918 409 28 22</t>
-  </si>
-  <si>
-    <t>8 902 407 87 65</t>
-  </si>
-  <si>
-    <t>8 967 316 51 88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 953 087 69 87 </t>
-  </si>
-  <si>
-    <t>8 928 457 45 60</t>
-  </si>
-  <si>
-    <t>8 922 718 40 33</t>
-  </si>
-  <si>
-    <t>8 928 377 00 80</t>
-  </si>
-  <si>
-    <t>8 989 083 78 12</t>
-  </si>
-  <si>
-    <t>8 988 189 20 56</t>
-  </si>
-  <si>
-    <t>8 928 457 98 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БФ   </t>
-  </si>
-  <si>
-    <t>8 968 261 02 22</t>
-  </si>
-  <si>
-    <t>8 918 406 90 14</t>
-  </si>
-  <si>
-    <t>8 928 459 94 85</t>
-  </si>
-  <si>
-    <t>8 918 903 77 31</t>
-  </si>
-  <si>
-    <t>8 900 001 94 34</t>
-  </si>
-  <si>
-    <t>8 918 418 71 80</t>
-  </si>
-  <si>
-    <t>8 918 608 77 70</t>
-  </si>
-  <si>
-    <t>8 918 455 06 56</t>
-  </si>
-  <si>
-    <t>8 925 327 18 33</t>
-  </si>
-  <si>
-    <t>8 988 152 16 78</t>
-  </si>
-  <si>
-    <t>8 913 801 38 10</t>
-  </si>
-  <si>
-    <t>8 964 942 11 76</t>
-  </si>
-  <si>
-    <t>8 988 925 04 80</t>
-  </si>
-  <si>
-    <t>8 988 288 06 99</t>
-  </si>
-  <si>
-    <t>8 918 300 30 93</t>
-  </si>
-  <si>
-    <t>8 938 870 60 50</t>
-  </si>
-  <si>
-    <t>8 989 757 42 94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 918 402 76 61 </t>
-  </si>
-  <si>
-    <t>8 903 479 19 45</t>
-  </si>
-  <si>
-    <t>8 918 420 40 03</t>
-  </si>
-  <si>
-    <t>8 967 305 23 16</t>
-  </si>
-  <si>
-    <t>8 953 114 61 57</t>
-  </si>
-  <si>
-    <t>8 989 162 15 85</t>
-  </si>
-  <si>
-    <t>8 938 439 67 52</t>
-  </si>
-  <si>
-    <t>8 962 882 88 50</t>
-  </si>
-  <si>
-    <t>8 967 646 41 00</t>
-  </si>
-  <si>
-    <t>8 918 401 00 63</t>
-  </si>
-  <si>
-    <t>8 988 069 95 12</t>
-  </si>
-  <si>
-    <t>8 918 600 06 24</t>
-  </si>
-  <si>
-    <t>8 918 05 07 02</t>
-  </si>
-  <si>
-    <t>8 977 345 48 78</t>
-  </si>
-  <si>
-    <t>8 921 693 97 01</t>
-  </si>
-  <si>
-    <t>8 960 48 48 096</t>
-  </si>
-  <si>
-    <t>8 950 966 11 19</t>
-  </si>
-  <si>
-    <t>8 964 946 49 46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 928 259 79 57                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 988 237 10 37                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 988 281 74 47                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 905 954 40 55                                     </t>
-  </si>
-  <si>
-    <t>8 960 019 18 19</t>
-  </si>
-  <si>
-    <t>8 999 656 46 96</t>
-  </si>
-  <si>
-    <t>8 918 109 08 86</t>
-  </si>
-  <si>
-    <t>8 918 004 22 35</t>
-  </si>
-  <si>
-    <t>9 902 260 29 88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 918 497 37 33                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 967 319 42 28                                                   </t>
-  </si>
-  <si>
-    <t>8 977 700 09 99</t>
-  </si>
-  <si>
-    <t>8 988 504 47 24</t>
-  </si>
-  <si>
-    <t>8 996 405 60 91</t>
-  </si>
-  <si>
-    <t>8 918 106 60 18</t>
-  </si>
-  <si>
-    <t>8 918 359 96 98 Евгений  8 989 160 60 99 Юлия Парамок</t>
-  </si>
-  <si>
-    <t>8 918 000 49 48</t>
-  </si>
-  <si>
-    <t>8 918 100 05 58</t>
-  </si>
-  <si>
-    <t>8 918 407 49 58</t>
-  </si>
-  <si>
-    <t>8 919 123 18 03</t>
-  </si>
-  <si>
-    <t>8 918 908 77 56</t>
-  </si>
-  <si>
-    <t>8 988 161 74 11</t>
-  </si>
-  <si>
-    <t>8 902 895 11 27  8 904 815 00 30</t>
-  </si>
-  <si>
-    <t>8 902 895 11 27  8 904 815 00 31</t>
-  </si>
-  <si>
-    <t>8 999 795 13 35</t>
+    <t>Заместитель главного врача</t>
+  </si>
+  <si>
+    <t>8 989 751 64 80</t>
+  </si>
+  <si>
+    <t>М 897 УУ123</t>
+  </si>
+  <si>
+    <t>8 918 401 00 63</t>
+  </si>
+  <si>
+    <t>Х 796 ООО 123</t>
+  </si>
+  <si>
+    <t>Руководитель направления по работе с туристическими компаниями</t>
+  </si>
+  <si>
+    <t>8 928 457 34 41  8 988 282 38 80</t>
+  </si>
+  <si>
+    <t>Ведущий менеджер по управлению номерным фондом</t>
+  </si>
+  <si>
+    <t>8 928 259 78 28</t>
+  </si>
+  <si>
+    <t>Сокурова Анакстасия Эдуардовна</t>
+  </si>
+  <si>
+    <t>АБК 1</t>
+  </si>
+  <si>
+    <t>АБК 2</t>
+  </si>
+  <si>
+    <t>АБК 5</t>
+  </si>
+  <si>
+    <t>АБК 9</t>
+  </si>
+  <si>
+    <t>АБК 10</t>
+  </si>
+  <si>
+    <t>Тойта Камри</t>
+  </si>
+  <si>
+    <t>К 202 ХО 123</t>
+  </si>
+  <si>
+    <t>Ниссан Тиида</t>
+  </si>
+  <si>
+    <t>К 979 СУ 93</t>
+  </si>
+  <si>
+    <t>КИА Селтос</t>
+  </si>
+  <si>
+    <t>А 366 АУ193</t>
+  </si>
+  <si>
+    <t>Т 940 ОУ 750</t>
+  </si>
+  <si>
+    <t>Нисан Сима</t>
+  </si>
+  <si>
+    <t>Х 991 МР 27</t>
+  </si>
+  <si>
+    <t>Афов Анзор Алисагович</t>
+  </si>
+  <si>
+    <t>Ященко Ирина Иозовна</t>
+  </si>
+  <si>
+    <t>Забарянская Татьяна Николаевна</t>
+  </si>
+  <si>
+    <t>Богатырева Ольга Александровна</t>
+  </si>
+  <si>
+    <t>Сигов Григорий Олегович</t>
+  </si>
+  <si>
+    <t>БФ 1</t>
+  </si>
+  <si>
+    <t>БФ 2</t>
+  </si>
+  <si>
+    <t>БФ 3</t>
+  </si>
+  <si>
+    <t>БФ 4</t>
+  </si>
+  <si>
+    <t>БФ 5</t>
+  </si>
+  <si>
+    <t>БФ 6</t>
+  </si>
+  <si>
+    <t>БФ 7</t>
+  </si>
+  <si>
+    <t>БФ 8</t>
+  </si>
+  <si>
+    <t>БФ 9</t>
+  </si>
+  <si>
+    <t>БФ 10</t>
+  </si>
+  <si>
+    <t>БФ 11</t>
+  </si>
+  <si>
+    <t>БФ 12</t>
+  </si>
+  <si>
+    <t>8 928 457 72 20</t>
+  </si>
+  <si>
+    <t>Рябов Юрий Николаевич</t>
+  </si>
+  <si>
+    <t>8 918 409 28 22</t>
+  </si>
+  <si>
+    <t>8 928 666 99 39  8 918 111 26 61</t>
+  </si>
+  <si>
+    <t>8-902-895-11-27  8-904-815-00-30</t>
+  </si>
+  <si>
+    <t>8-902-895-11-27  8-904-815-00-31</t>
+  </si>
+  <si>
+    <t>8-918-108-20-19  8-989-750-67-78</t>
+  </si>
+  <si>
+    <t>8-928-459-74-87  8-905-885-97-91</t>
+  </si>
+  <si>
+    <t>8-928-850-17-95  8-918-104-19-66</t>
+  </si>
+  <si>
+    <t>8-928-457-08-22  8-928-259-02-37</t>
+  </si>
+  <si>
+    <t>8-928-457-34-41  8-988-282-38-80</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2802,6 +2901,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2831,7 +2936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2846,9 +2951,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3159,4027 +3261,3333 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:F183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="36.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="24" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E3" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="E4" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="E10" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>309</v>
+      </c>
+      <c r="C98" t="s">
+        <v>325</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>310</v>
+      </c>
+      <c r="C99" t="s">
+        <v>326</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>311</v>
+      </c>
+      <c r="C100" t="s">
+        <v>327</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>312</v>
+      </c>
+      <c r="C101" t="s">
+        <v>328</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>313</v>
+      </c>
+      <c r="C102" t="s">
+        <v>329</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>310</v>
+      </c>
+      <c r="C103" t="s">
+        <v>330</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>314</v>
+      </c>
+      <c r="C104" t="s">
+        <v>331</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>314</v>
+      </c>
+      <c r="C105" t="s">
+        <v>332</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>315</v>
+      </c>
+      <c r="C106" t="s">
+        <v>333</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>316</v>
+      </c>
+      <c r="C107" t="s">
+        <v>334</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>317</v>
+      </c>
+      <c r="C108" t="s">
+        <v>335</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>314</v>
+      </c>
+      <c r="C109" t="s">
+        <v>336</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>318</v>
+      </c>
+      <c r="C110" t="s">
+        <v>337</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>319</v>
+      </c>
+      <c r="C111" t="s">
+        <v>338</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>320</v>
+      </c>
+      <c r="C112" t="s">
+        <v>339</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>320</v>
+      </c>
+      <c r="C113" t="s">
+        <v>340</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>321</v>
+      </c>
+      <c r="C114" t="s">
+        <v>341</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>322</v>
+      </c>
+      <c r="C115" t="s">
+        <v>342</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>323</v>
+      </c>
+      <c r="C116" t="s">
+        <v>343</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>323</v>
+      </c>
+      <c r="C117" t="s">
+        <v>344</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>323</v>
+      </c>
+      <c r="C118" t="s">
+        <v>345</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>324</v>
+      </c>
+      <c r="C119" t="s">
+        <v>346</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>312</v>
+      </c>
+      <c r="C120" t="s">
+        <v>369</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>404</v>
+      </c>
+      <c r="C121" t="s">
+        <v>370</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>404</v>
+      </c>
+      <c r="C122" t="s">
+        <v>371</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>314</v>
+      </c>
+      <c r="C123" t="s">
+        <v>372</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>404</v>
+      </c>
+      <c r="C124" t="s">
+        <v>373</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>404</v>
+      </c>
+      <c r="C125" t="s">
+        <v>374</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>405</v>
+      </c>
+      <c r="C126" t="s">
+        <v>375</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>350</v>
+      </c>
+      <c r="C127" t="s">
+        <v>376</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>350</v>
+      </c>
+      <c r="C128" t="s">
+        <v>377</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>350</v>
+      </c>
+      <c r="C129" t="s">
+        <v>378</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>350</v>
+      </c>
+      <c r="C130" t="s">
+        <v>379</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>351</v>
+      </c>
+      <c r="C131" t="s">
+        <v>380</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>352</v>
+      </c>
+      <c r="C132" t="s">
+        <v>381</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>353</v>
+      </c>
+      <c r="C133" t="s">
+        <v>382</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>354</v>
+      </c>
+      <c r="C134" t="s">
+        <v>383</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>355</v>
+      </c>
+      <c r="C135" t="s">
+        <v>384</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>356</v>
+      </c>
+      <c r="C136" t="s">
+        <v>385</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>357</v>
+      </c>
+      <c r="C137" t="s">
+        <v>386</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>358</v>
+      </c>
+      <c r="C138" t="s">
+        <v>387</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>359</v>
+      </c>
+      <c r="C139" t="s">
+        <v>388</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>351</v>
+      </c>
+      <c r="C140" t="s">
+        <v>389</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>360</v>
+      </c>
+      <c r="C141" t="s">
+        <v>390</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>361</v>
+      </c>
+      <c r="C142" t="s">
+        <v>391</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>362</v>
+      </c>
+      <c r="C143" t="s">
+        <v>392</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>349</v>
+      </c>
+      <c r="C144" t="s">
+        <v>393</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>363</v>
+      </c>
+      <c r="C145" t="s">
+        <v>394</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>361</v>
+      </c>
+      <c r="C146" t="s">
+        <v>395</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>364</v>
+      </c>
+      <c r="C147" t="s">
+        <v>396</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>355</v>
+      </c>
+      <c r="C148" t="s">
+        <v>397</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>363</v>
+      </c>
+      <c r="C149" t="s">
+        <v>398</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>365</v>
+      </c>
+      <c r="C150" t="s">
+        <v>399</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>366</v>
+      </c>
+      <c r="C151" t="s">
+        <v>400</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>367</v>
+      </c>
+      <c r="C152" t="s">
+        <v>401</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>368</v>
+      </c>
+      <c r="C153" t="s">
+        <v>402</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>348</v>
+      </c>
+      <c r="C154" t="s">
+        <v>403</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="B167" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D168" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="E168" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B181" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="C181" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>14</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>15</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>17</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="D181" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D182" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B183" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="D183" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>18</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>19</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>20</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>21</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>25</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>26</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>27</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>28</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>30</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>31</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>33</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>34</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>37</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>39</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>40</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>42</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>43</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>856</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>44</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>49</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>50</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>51</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>53</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>764</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>55</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>56</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>59</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>62</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>64</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>65</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>66</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>67</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>68</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <v>69</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>70</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>72</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>73</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>74</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>75</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>76</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <v>78</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>79</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>80</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>82</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>83</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>84</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>85</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>87</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
-        <v>89</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>812</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
-        <v>91</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="H64" s="7">
-        <v>89890859131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
-        <v>92</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>814</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
-        <v>93</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
-        <v>94</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
-        <v>97</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
-        <v>99</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>816</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>817</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
-        <v>100</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>816</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>822</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>818</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
-        <v>101</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
-        <v>102</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
-        <v>103</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
-        <v>104</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>729</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
-        <v>105</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>818</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
-        <v>106</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>819</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
-        <v>107</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>683</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>819</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
-        <v>108</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>684</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
-        <v>109</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>809</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
-        <v>110</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
-        <v>111</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>687</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
-        <v>112</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
-        <v>114</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
-        <v>115</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
-        <v>116</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
-        <v>117</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
-        <v>1</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>770</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>771</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>772</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
-        <v>2</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>771</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>772</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
-        <v>3</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>775</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>776</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>778</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
-        <v>4</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>779</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>778</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
-        <v>5</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>784</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
-        <v>6</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>786</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
-        <v>7</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>789</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
-        <v>8</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>793</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>794</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
-        <v>9</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>820</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>797</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>820</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
-        <v>10</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="H97" s="5" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D98" t="s">
-        <v>309</v>
-      </c>
-      <c r="E98" t="s">
-        <v>325</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D99" t="s">
-        <v>310</v>
-      </c>
-      <c r="E99" t="s">
-        <v>326</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H99" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D100" t="s">
-        <v>311</v>
-      </c>
-      <c r="E100" t="s">
-        <v>327</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H100" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D101" t="s">
-        <v>312</v>
-      </c>
-      <c r="E101" t="s">
-        <v>328</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D102" t="s">
-        <v>313</v>
-      </c>
-      <c r="E102" t="s">
-        <v>329</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H102" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D103" t="s">
-        <v>310</v>
-      </c>
-      <c r="E103" t="s">
-        <v>330</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D104" t="s">
-        <v>314</v>
-      </c>
-      <c r="E104" t="s">
-        <v>331</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H104" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D105" t="s">
-        <v>314</v>
-      </c>
-      <c r="E105" t="s">
-        <v>332</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D106" t="s">
-        <v>315</v>
-      </c>
-      <c r="E106" t="s">
-        <v>333</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D107" t="s">
-        <v>316</v>
-      </c>
-      <c r="E107" t="s">
-        <v>334</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D108" t="s">
-        <v>317</v>
-      </c>
-      <c r="E108" t="s">
-        <v>335</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D109" t="s">
-        <v>314</v>
-      </c>
-      <c r="E109" t="s">
-        <v>336</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D110" t="s">
-        <v>318</v>
-      </c>
-      <c r="E110" t="s">
-        <v>337</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D111" t="s">
-        <v>319</v>
-      </c>
-      <c r="E111" t="s">
-        <v>338</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D112" t="s">
-        <v>320</v>
-      </c>
-      <c r="E112" t="s">
-        <v>339</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D113" t="s">
-        <v>320</v>
-      </c>
-      <c r="E113" t="s">
-        <v>340</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D114" t="s">
-        <v>321</v>
-      </c>
-      <c r="E114" t="s">
-        <v>341</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D115" t="s">
-        <v>322</v>
-      </c>
-      <c r="E115" t="s">
-        <v>342</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D116" t="s">
-        <v>323</v>
-      </c>
-      <c r="E116" t="s">
-        <v>343</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G116" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D117" t="s">
-        <v>323</v>
-      </c>
-      <c r="E117" t="s">
-        <v>344</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D118" t="s">
-        <v>323</v>
-      </c>
-      <c r="E118" t="s">
-        <v>345</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D119" t="s">
-        <v>324</v>
-      </c>
-      <c r="E119" t="s">
-        <v>346</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D120" t="s">
-        <v>312</v>
-      </c>
-      <c r="E120" t="s">
-        <v>369</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D121" t="s">
-        <v>404</v>
-      </c>
-      <c r="E121" t="s">
-        <v>370</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D122" t="s">
-        <v>404</v>
-      </c>
-      <c r="E122" t="s">
-        <v>371</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D123" t="s">
-        <v>314</v>
-      </c>
-      <c r="E123" t="s">
-        <v>372</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D124" t="s">
-        <v>404</v>
-      </c>
-      <c r="E124" t="s">
-        <v>373</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D125" t="s">
-        <v>404</v>
-      </c>
-      <c r="E125" t="s">
-        <v>374</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D126" t="s">
-        <v>405</v>
-      </c>
-      <c r="E126" t="s">
-        <v>375</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G126" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D127" t="s">
-        <v>350</v>
-      </c>
-      <c r="E127" t="s">
-        <v>376</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H127" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D128" t="s">
-        <v>350</v>
-      </c>
-      <c r="E128" t="s">
-        <v>377</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H128" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D129" t="s">
-        <v>350</v>
-      </c>
-      <c r="E129" t="s">
-        <v>378</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D130" t="s">
-        <v>350</v>
-      </c>
-      <c r="E130" t="s">
-        <v>379</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H130" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D131" t="s">
-        <v>351</v>
-      </c>
-      <c r="E131" t="s">
-        <v>380</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G131" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H131" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D132" t="s">
-        <v>352</v>
-      </c>
-      <c r="E132" t="s">
-        <v>381</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H132" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D133" t="s">
-        <v>353</v>
-      </c>
-      <c r="E133" t="s">
-        <v>382</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G133" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H133" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D134" t="s">
-        <v>354</v>
-      </c>
-      <c r="E134" t="s">
-        <v>383</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G134" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H134" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D135" t="s">
-        <v>355</v>
-      </c>
-      <c r="E135" t="s">
-        <v>384</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H135" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D136" t="s">
-        <v>356</v>
-      </c>
-      <c r="E136" t="s">
-        <v>385</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H136" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D137" t="s">
-        <v>357</v>
-      </c>
-      <c r="E137" t="s">
-        <v>386</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G137" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H137" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D138" t="s">
-        <v>358</v>
-      </c>
-      <c r="E138" t="s">
-        <v>387</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G138" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H138" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D139" t="s">
-        <v>359</v>
-      </c>
-      <c r="E139" t="s">
-        <v>388</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H139" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D140" t="s">
-        <v>351</v>
-      </c>
-      <c r="E140" t="s">
-        <v>389</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G140" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H140" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D141" t="s">
-        <v>360</v>
-      </c>
-      <c r="E141" t="s">
-        <v>390</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G141" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H141" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D142" t="s">
-        <v>361</v>
-      </c>
-      <c r="E142" t="s">
-        <v>391</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G142" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H142" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D143" t="s">
-        <v>362</v>
-      </c>
-      <c r="E143" t="s">
-        <v>392</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G143" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H143" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D144" t="s">
-        <v>349</v>
-      </c>
-      <c r="E144" t="s">
-        <v>393</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G144" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H144" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D145" t="s">
-        <v>363</v>
-      </c>
-      <c r="E145" t="s">
-        <v>394</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G145" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H145" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D146" t="s">
-        <v>361</v>
-      </c>
-      <c r="E146" t="s">
-        <v>395</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G146" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H146" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D147" t="s">
-        <v>364</v>
-      </c>
-      <c r="E147" t="s">
-        <v>396</v>
-      </c>
-      <c r="F147" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G147" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H147" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D148" t="s">
-        <v>355</v>
-      </c>
-      <c r="E148" t="s">
-        <v>397</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G148" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H148" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D149" t="s">
-        <v>363</v>
-      </c>
-      <c r="E149" t="s">
-        <v>398</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G149" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H149" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D150" t="s">
-        <v>365</v>
-      </c>
-      <c r="E150" t="s">
-        <v>399</v>
-      </c>
-      <c r="F150" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G150" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H150" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D151" t="s">
-        <v>366</v>
-      </c>
-      <c r="E151" t="s">
-        <v>400</v>
-      </c>
-      <c r="F151" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G151" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H151" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D152" t="s">
-        <v>367</v>
-      </c>
-      <c r="E152" t="s">
-        <v>401</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G152" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H152" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D153" t="s">
-        <v>368</v>
-      </c>
-      <c r="E153" t="s">
-        <v>402</v>
-      </c>
-      <c r="F153" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G153" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H153" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D154" t="s">
-        <v>348</v>
-      </c>
-      <c r="E154" t="s">
-        <v>403</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="G154" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="H154" s="5" t="s">
-        <v>806</v>
+      <c r="F183" s="5" t="s">
+        <v>941</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/all.xlsx
+++ b/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3C12E3-48D8-4E50-9F4C-B5E16F5D83A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E428FBEA-3246-447A-B2BE-D78D9A6E2AEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2684,18 +2684,12 @@
     <t>8 977 700 09 99</t>
   </si>
   <si>
-    <t>Рук.санаторно-курортного направления</t>
-  </si>
-  <si>
     <t>8 928 457 98 09</t>
   </si>
   <si>
     <t>Главный врач</t>
   </si>
   <si>
-    <t>Вед.спец.по ПБ</t>
-  </si>
-  <si>
     <t>8 921 693 97 01</t>
   </si>
   <si>
@@ -2871,6 +2865,12 @@
   </si>
   <si>
     <t>8-928-457-34-41  8-988-282-38-80</t>
+  </si>
+  <si>
+    <t>Рук. санаторно-курортного направления</t>
+  </si>
+  <si>
+    <t>Вед.спец. по ПБ</t>
   </si>
 </sst>
 </file>
@@ -3263,10 +3263,10 @@
   </sheetPr>
   <dimension ref="A1:F183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3317,7 +3317,7 @@
         <v>410</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3337,7 +3337,7 @@
         <v>413</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3377,7 +3377,7 @@
         <v>413</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3537,7 +3537,7 @@
         <v>444</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3717,7 +3717,7 @@
         <v>472</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5177,7 +5177,7 @@
         <v>761</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -5194,7 +5194,7 @@
         <v>790</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -6188,7 +6188,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>883</v>
@@ -6196,7 +6196,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>884</v>
@@ -6236,18 +6236,18 @@
         <v>732</v>
       </c>
       <c r="E158" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="F158" s="5" t="s">
         <v>887</v>
-      </c>
-      <c r="F158" s="5" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -6264,10 +6264,10 @@
         <v>669</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>890</v>
+        <v>949</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -6287,7 +6287,7 @@
         <v>438</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -6307,35 +6307,35 @@
         <v>491</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>455</v>
       </c>
       <c r="C164" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="F164" s="5" t="s">
         <v>895</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>907</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>896</v>
-      </c>
-      <c r="F164" s="5" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -6352,10 +6352,10 @@
         <v>711</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -6366,7 +6366,7 @@
         <v>580</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>662</v>
@@ -6375,7 +6375,7 @@
         <v>582</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -6386,16 +6386,16 @@
         <v>691</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>692</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -6412,48 +6412,48 @@
         <v>700</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>608</v>
@@ -6467,21 +6467,21 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>625</v>
@@ -6495,45 +6495,45 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>554</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>425</v>
@@ -6547,7 +6547,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -6561,15 +6561,15 @@
         <v>701</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D182" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="F182" s="5" t="s">
         <v>940</v>
-      </c>
-      <c r="F182" s="5" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -6583,7 +6583,7 @@
         <v>714</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
   </sheetData>

--- a/all.xlsx
+++ b/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E428FBEA-3246-447A-B2BE-D78D9A6E2AEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C53EDE9-5501-4F3D-AAA5-8EB318D50F27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="939">
   <si>
     <t>Примечание</t>
   </si>
@@ -2666,9 +2666,6 @@
     <t>8-967-319-42-28</t>
   </si>
   <si>
-    <t>8-918-359-96-98 Евгений 8-989-160-60-99 Юлия Парамок</t>
-  </si>
-  <si>
     <t>Государственный номер</t>
   </si>
   <si>
@@ -2681,24 +2678,9 @@
     <t>Руководитель ОС</t>
   </si>
   <si>
-    <t>8 977 700 09 99</t>
-  </si>
-  <si>
-    <t>8 928 457 98 09</t>
-  </si>
-  <si>
     <t>Главный врач</t>
   </si>
   <si>
-    <t>8 921 693 97 01</t>
-  </si>
-  <si>
-    <t>8 989 754 61 60</t>
-  </si>
-  <si>
-    <t>8 922 718 40 33</t>
-  </si>
-  <si>
     <t>Менеджер по орг. мероприятий</t>
   </si>
   <si>
@@ -2708,36 +2690,21 @@
     <t>Спец.отд. бронирования</t>
   </si>
   <si>
-    <t>8 918 406 17 82</t>
-  </si>
-  <si>
     <t>Заместитель главного врача</t>
   </si>
   <si>
-    <t>8 989 751 64 80</t>
-  </si>
-  <si>
     <t>М 897 УУ123</t>
   </si>
   <si>
-    <t>8 918 401 00 63</t>
-  </si>
-  <si>
     <t>Х 796 ООО 123</t>
   </si>
   <si>
     <t>Руководитель направления по работе с туристическими компаниями</t>
   </si>
   <si>
-    <t>8 928 457 34 41  8 988 282 38 80</t>
-  </si>
-  <si>
     <t>Ведущий менеджер по управлению номерным фондом</t>
   </si>
   <si>
-    <t>8 928 259 78 28</t>
-  </si>
-  <si>
     <t>Сокурова Анакстасия Эдуардовна</t>
   </si>
   <si>
@@ -2834,18 +2801,9 @@
     <t>БФ 12</t>
   </si>
   <si>
-    <t>8 928 457 72 20</t>
-  </si>
-  <si>
     <t>Рябов Юрий Николаевич</t>
   </si>
   <si>
-    <t>8 918 409 28 22</t>
-  </si>
-  <si>
-    <t>8 928 666 99 39  8 918 111 26 61</t>
-  </si>
-  <si>
     <t>8-902-895-11-27  8-904-815-00-30</t>
   </si>
   <si>
@@ -2871,6 +2829,15 @@
   </si>
   <si>
     <t>Вед.спец. по ПБ</t>
+  </si>
+  <si>
+    <t>8-928-457-34-41--8-988-282-38-80</t>
+  </si>
+  <si>
+    <t>8-928-666-99-39--8-918-111-26-61</t>
+  </si>
+  <si>
+    <t>8-918-359-96-98 Евгений  8-989-160-60-99 Юлия Парамок</t>
   </si>
 </sst>
 </file>
@@ -3263,10 +3230,10 @@
   </sheetPr>
   <dimension ref="A1:F183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3288,7 +3255,7 @@
         <v>690</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>406</v>
@@ -3317,7 +3284,7 @@
         <v>410</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>947</v>
+        <v>933</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3337,7 +3304,7 @@
         <v>413</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3377,7 +3344,7 @@
         <v>413</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>945</v>
+        <v>931</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3537,7 +3504,7 @@
         <v>444</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3717,7 +3684,7 @@
         <v>472</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>943</v>
+        <v>929</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5017,7 +4984,7 @@
         <v>745</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>881</v>
+        <v>938</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -5037,7 +5004,7 @@
         <v>745</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>881</v>
+        <v>938</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -5177,7 +5144,7 @@
         <v>761</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -5194,7 +5161,7 @@
         <v>790</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -5230,9 +5197,6 @@
       <c r="E98" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F98" s="5" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
@@ -5247,9 +5211,6 @@
       <c r="E99" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F99" s="5" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
@@ -5264,9 +5225,6 @@
       <c r="E100" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F100" s="5" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
@@ -5281,9 +5239,6 @@
       <c r="E101" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F101" s="5" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
@@ -5298,9 +5253,6 @@
       <c r="E102" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F102" s="5" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
@@ -5315,9 +5267,6 @@
       <c r="E103" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F103" s="5" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
@@ -5332,9 +5281,6 @@
       <c r="E104" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F104" s="5" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
@@ -5349,9 +5295,6 @@
       <c r="E105" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F105" s="5" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
@@ -5366,9 +5309,6 @@
       <c r="E106" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F106" s="5" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
@@ -5383,9 +5323,6 @@
       <c r="E107" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F107" s="5" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
@@ -5400,9 +5337,6 @@
       <c r="E108" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F108" s="5" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
@@ -5417,9 +5351,6 @@
       <c r="E109" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F109" s="5" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
@@ -5434,9 +5365,6 @@
       <c r="E110" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F110" s="5" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
@@ -5451,9 +5379,6 @@
       <c r="E111" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F111" s="5" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
@@ -5468,11 +5393,8 @@
       <c r="E112" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F112" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>320</v>
       </c>
@@ -5485,11 +5407,8 @@
       <c r="E113" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F113" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>321</v>
       </c>
@@ -5502,11 +5421,8 @@
       <c r="E114" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F114" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>322</v>
       </c>
@@ -5519,11 +5435,8 @@
       <c r="E115" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F115" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>323</v>
       </c>
@@ -5536,11 +5449,8 @@
       <c r="E116" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F116" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>323</v>
       </c>
@@ -5553,11 +5463,8 @@
       <c r="E117" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F117" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>323</v>
       </c>
@@ -5570,11 +5477,8 @@
       <c r="E118" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F118" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>324</v>
       </c>
@@ -5587,11 +5491,8 @@
       <c r="E119" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F119" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>312</v>
       </c>
@@ -5604,11 +5505,8 @@
       <c r="E120" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F120" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>404</v>
       </c>
@@ -5621,11 +5519,8 @@
       <c r="E121" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F121" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>404</v>
       </c>
@@ -5638,11 +5533,8 @@
       <c r="E122" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F122" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>314</v>
       </c>
@@ -5655,11 +5547,8 @@
       <c r="E123" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F123" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>404</v>
       </c>
@@ -5672,11 +5561,8 @@
       <c r="E124" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F124" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>404</v>
       </c>
@@ -5689,11 +5575,8 @@
       <c r="E125" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F125" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>405</v>
       </c>
@@ -5706,11 +5589,8 @@
       <c r="E126" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F126" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>350</v>
       </c>
@@ -5723,11 +5603,8 @@
       <c r="E127" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F127" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>350</v>
       </c>
@@ -5740,11 +5617,8 @@
       <c r="E128" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F128" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>350</v>
       </c>
@@ -5757,11 +5631,8 @@
       <c r="E129" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F129" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>350</v>
       </c>
@@ -5774,11 +5645,8 @@
       <c r="E130" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F130" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>351</v>
       </c>
@@ -5791,11 +5659,8 @@
       <c r="E131" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F131" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>352</v>
       </c>
@@ -5808,11 +5673,8 @@
       <c r="E132" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F132" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>353</v>
       </c>
@@ -5825,11 +5687,8 @@
       <c r="E133" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F133" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>354</v>
       </c>
@@ -5842,11 +5701,8 @@
       <c r="E134" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F134" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>355</v>
       </c>
@@ -5859,11 +5715,8 @@
       <c r="E135" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F135" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>356</v>
       </c>
@@ -5876,11 +5729,8 @@
       <c r="E136" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F136" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>357</v>
       </c>
@@ -5893,11 +5743,8 @@
       <c r="E137" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F137" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>358</v>
       </c>
@@ -5910,11 +5757,8 @@
       <c r="E138" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F138" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>359</v>
       </c>
@@ -5927,11 +5771,8 @@
       <c r="E139" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F139" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>351</v>
       </c>
@@ -5944,11 +5785,8 @@
       <c r="E140" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F140" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>360</v>
       </c>
@@ -5961,11 +5799,8 @@
       <c r="E141" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F141" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>361</v>
       </c>
@@ -5978,11 +5813,8 @@
       <c r="E142" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F142" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>362</v>
       </c>
@@ -5995,11 +5827,8 @@
       <c r="E143" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F143" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>349</v>
       </c>
@@ -6011,9 +5840,6 @@
       </c>
       <c r="E144" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -6029,9 +5855,6 @@
       <c r="E145" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F145" s="5" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
@@ -6046,9 +5869,6 @@
       <c r="E146" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F146" s="5" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
@@ -6063,9 +5883,6 @@
       <c r="E147" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F147" s="5" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
@@ -6080,9 +5897,6 @@
       <c r="E148" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F148" s="5" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
@@ -6097,9 +5911,6 @@
       <c r="E149" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F149" s="5" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
@@ -6114,9 +5925,6 @@
       <c r="E150" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F150" s="5" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
@@ -6131,9 +5939,6 @@
       <c r="E151" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F151" s="5" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
@@ -6148,9 +5953,6 @@
       <c r="E152" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F152" s="5" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
@@ -6165,9 +5967,6 @@
       <c r="E153" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F153" s="5" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
@@ -6182,24 +5981,21 @@
       <c r="E154" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F154" s="5" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -6216,10 +6012,10 @@
         <v>685</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -6236,18 +6032,18 @@
         <v>732</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>887</v>
+        <v>819</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -6264,10 +6060,10 @@
         <v>669</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>949</v>
+        <v>935</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>889</v>
+        <v>851</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -6287,7 +6083,7 @@
         <v>438</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>890</v>
+        <v>801</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -6307,35 +6103,35 @@
         <v>491</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>891</v>
+        <v>815</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>455</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>895</v>
+        <v>806</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -6352,10 +6148,10 @@
         <v>711</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>897</v>
+        <v>809</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -6366,7 +6162,7 @@
         <v>580</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>662</v>
@@ -6375,7 +6171,7 @@
         <v>582</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>899</v>
+        <v>845</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -6386,16 +6182,16 @@
         <v>691</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>692</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>902</v>
+        <v>936</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -6412,48 +6208,48 @@
         <v>700</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>608</v>
@@ -6467,21 +6263,21 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>625</v>
@@ -6495,45 +6291,45 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>554</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>425</v>
@@ -6547,7 +6343,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -6561,15 +6357,15 @@
         <v>701</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>937</v>
+        <v>800</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D182" s="5" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -6583,7 +6379,7 @@
         <v>714</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>939</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>

--- a/all.xlsx
+++ b/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C53EDE9-5501-4F3D-AAA5-8EB318D50F27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C719D445-1261-4D3F-9DA8-3AB49093F1EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="939">
   <si>
     <t>Примечание</t>
   </si>
@@ -2351,9 +2351,6 @@
     <t>АБК 6</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Линия 3</t>
   </si>
   <si>
@@ -2831,13 +2828,16 @@
     <t>Вед.спец. по ПБ</t>
   </si>
   <si>
-    <t>8-928-457-34-41--8-988-282-38-80</t>
-  </si>
-  <si>
-    <t>8-928-666-99-39--8-918-111-26-61</t>
-  </si>
-  <si>
     <t>8-918-359-96-98 Евгений  8-989-160-60-99 Юлия Парамок</t>
+  </si>
+  <si>
+    <t>Водитель</t>
+  </si>
+  <si>
+    <t>Сан. Врач</t>
+  </si>
+  <si>
+    <t>8-928-666-99-39  8-918-111-26-61</t>
   </si>
 </sst>
 </file>
@@ -3231,20 +3231,14 @@
   <dimension ref="A1:F183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="24" style="5"/>
+    <col min="1" max="16384" width="31.7109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3255,7 +3249,7 @@
         <v>690</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>406</v>
@@ -3264,7 +3258,7 @@
         <v>407</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3284,7 +3278,7 @@
         <v>410</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3304,7 +3298,7 @@
         <v>413</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3324,7 +3318,7 @@
         <v>416</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3344,7 +3338,7 @@
         <v>413</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3364,12 +3358,12 @@
         <v>420</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>421</v>
@@ -3384,7 +3378,7 @@
         <v>423</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3404,7 +3398,7 @@
         <v>427</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3424,7 +3418,7 @@
         <v>431</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3444,7 +3438,7 @@
         <v>434</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3464,7 +3458,7 @@
         <v>438</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3484,7 +3478,7 @@
         <v>441</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3504,12 +3498,12 @@
         <v>444</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>445</v>
@@ -3524,12 +3518,12 @@
         <v>447</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>448</v>
@@ -3544,12 +3538,12 @@
         <v>450</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>451</v>
@@ -3564,7 +3558,7 @@
         <v>453</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3584,7 +3578,7 @@
         <v>457</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3604,12 +3598,12 @@
         <v>460</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>461</v>
@@ -3624,7 +3618,7 @@
         <v>463</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3644,12 +3638,12 @@
         <v>467</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>468</v>
@@ -3664,7 +3658,7 @@
         <v>470</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3684,7 +3678,7 @@
         <v>472</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3704,12 +3698,12 @@
         <v>476</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>477</v>
@@ -3724,12 +3718,12 @@
         <v>479</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>480</v>
@@ -3744,12 +3738,12 @@
         <v>482</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>483</v>
@@ -3764,7 +3758,7 @@
         <v>485</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3784,7 +3778,7 @@
         <v>231</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -3804,12 +3798,12 @@
         <v>491</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>492</v>
@@ -3824,12 +3818,12 @@
         <v>463</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>494</v>
@@ -3844,12 +3838,12 @@
         <v>496</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>480</v>
@@ -3864,7 +3858,7 @@
         <v>231</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3884,12 +3878,12 @@
         <v>501</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>502</v>
@@ -3904,12 +3898,12 @@
         <v>198</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>436</v>
@@ -3924,7 +3918,7 @@
         <v>505</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3944,12 +3938,12 @@
         <v>508</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>509</v>
@@ -3964,12 +3958,12 @@
         <v>482</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>511</v>
@@ -3984,12 +3978,12 @@
         <v>512</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>513</v>
@@ -4004,12 +3998,12 @@
         <v>515</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>516</v>
@@ -4024,7 +4018,7 @@
         <v>518</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -4044,12 +4038,12 @@
         <v>521</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>522</v>
@@ -4064,12 +4058,12 @@
         <v>524</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>525</v>
@@ -4084,12 +4078,12 @@
         <v>482</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>527</v>
@@ -4104,12 +4098,12 @@
         <v>529</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>530</v>
@@ -4124,12 +4118,12 @@
         <v>532</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>533</v>
@@ -4144,12 +4138,12 @@
         <v>535</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>536</v>
@@ -4164,12 +4158,12 @@
         <v>535</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>538</v>
@@ -4184,7 +4178,7 @@
         <v>540</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -4204,12 +4198,12 @@
         <v>543</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>544</v>
@@ -4224,12 +4218,12 @@
         <v>546</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>547</v>
@@ -4244,7 +4238,7 @@
         <v>549</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -4264,12 +4258,12 @@
         <v>553</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>554</v>
@@ -4284,7 +4278,7 @@
         <v>556</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -4301,15 +4295,15 @@
         <v>655</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>560</v>
@@ -4324,12 +4318,12 @@
         <v>562</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>563</v>
@@ -4344,12 +4338,12 @@
         <v>565</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>566</v>
@@ -4364,7 +4358,7 @@
         <v>568</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -4384,12 +4378,12 @@
         <v>572</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>573</v>
@@ -4404,7 +4398,7 @@
         <v>575</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -4424,7 +4418,7 @@
         <v>578</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -4444,7 +4438,7 @@
         <v>582</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -4464,7 +4458,7 @@
         <v>585</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -4484,12 +4478,12 @@
         <v>588</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>589</v>
@@ -4501,10 +4495,10 @@
         <v>665</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -4521,15 +4515,15 @@
         <v>666</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>593</v>
@@ -4541,15 +4535,15 @@
         <v>667</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>595</v>
@@ -4561,10 +4555,10 @@
         <v>668</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -4584,7 +4578,7 @@
         <v>599</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -4604,12 +4598,12 @@
         <v>602</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>603</v>
@@ -4621,15 +4615,15 @@
         <v>671</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>605</v>
@@ -4641,10 +4635,10 @@
         <v>672</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -4664,12 +4658,12 @@
         <v>610</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>611</v>
@@ -4684,12 +4678,12 @@
         <v>613</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>614</v>
@@ -4704,12 +4698,12 @@
         <v>616</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>597</v>
@@ -4724,12 +4718,12 @@
         <v>618</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>619</v>
@@ -4741,10 +4735,10 @@
         <v>677</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -4761,10 +4755,10 @@
         <v>678</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -4781,10 +4775,10 @@
         <v>679</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -4804,12 +4798,12 @@
         <v>627</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>628</v>
@@ -4824,12 +4818,12 @@
         <v>630</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>631</v>
@@ -4844,12 +4838,12 @@
         <v>633</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>634</v>
@@ -4864,7 +4858,7 @@
         <v>636</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -4884,7 +4878,7 @@
         <v>639</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -4904,12 +4898,12 @@
         <v>642</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>643</v>
@@ -4924,12 +4918,12 @@
         <v>645</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>414</v>
@@ -4944,12 +4938,12 @@
         <v>630</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>647</v>
@@ -4964,12 +4958,12 @@
         <v>649</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>742</v>
@@ -4984,12 +4978,12 @@
         <v>745</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>746</v>
@@ -5004,12 +4998,12 @@
         <v>745</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>748</v>
@@ -5024,12 +5018,12 @@
         <v>751</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>480</v>
@@ -5044,12 +5038,12 @@
         <v>751</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>754</v>
@@ -5064,12 +5058,12 @@
         <v>757</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>758</v>
@@ -5084,12 +5078,12 @@
         <v>761</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>762</v>
@@ -5104,12 +5098,12 @@
         <v>761</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>765</v>
@@ -5124,12 +5118,12 @@
         <v>761</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>754</v>
@@ -5138,18 +5132,18 @@
         <v>768</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>761</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>769</v>
@@ -5158,15 +5152,15 @@
         <v>770</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>771</v>
@@ -5181,10 +5175,13 @@
         <v>774</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B98" t="s">
         <v>309</v>
       </c>
@@ -5192,13 +5189,19 @@
         <v>325</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="F98" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B99" t="s">
         <v>310</v>
       </c>
@@ -5206,13 +5209,19 @@
         <v>326</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="F99" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B100" t="s">
         <v>311</v>
       </c>
@@ -5220,13 +5229,19 @@
         <v>327</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="F100" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B101" t="s">
         <v>312</v>
       </c>
@@ -5234,13 +5249,19 @@
         <v>328</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="F101" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B102" t="s">
         <v>313</v>
       </c>
@@ -5248,13 +5269,19 @@
         <v>329</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="F102" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B103" t="s">
         <v>310</v>
       </c>
@@ -5262,13 +5289,19 @@
         <v>330</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="F103" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B104" t="s">
         <v>314</v>
       </c>
@@ -5276,13 +5309,19 @@
         <v>331</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="F104" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B105" t="s">
         <v>314</v>
       </c>
@@ -5290,13 +5329,19 @@
         <v>332</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="F105" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B106" t="s">
         <v>315</v>
       </c>
@@ -5304,13 +5349,19 @@
         <v>333</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="F106" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B107" t="s">
         <v>316</v>
       </c>
@@ -5318,13 +5369,19 @@
         <v>334</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="F107" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B108" t="s">
         <v>317</v>
       </c>
@@ -5332,13 +5389,19 @@
         <v>335</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="F108" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B109" t="s">
         <v>314</v>
       </c>
@@ -5346,13 +5409,19 @@
         <v>336</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="F109" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B110" t="s">
         <v>318</v>
       </c>
@@ -5360,13 +5429,19 @@
         <v>337</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="F110" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B111" t="s">
         <v>319</v>
       </c>
@@ -5374,13 +5449,19 @@
         <v>338</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="F111" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B112" t="s">
         <v>320</v>
       </c>
@@ -5388,13 +5469,19 @@
         <v>339</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F112" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B113" t="s">
         <v>320</v>
       </c>
@@ -5402,13 +5489,19 @@
         <v>340</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F113" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B114" t="s">
         <v>321</v>
       </c>
@@ -5416,13 +5509,19 @@
         <v>341</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F114" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B115" t="s">
         <v>322</v>
       </c>
@@ -5430,13 +5529,19 @@
         <v>342</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F115" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B116" t="s">
         <v>323</v>
       </c>
@@ -5444,13 +5549,19 @@
         <v>343</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F116" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B117" t="s">
         <v>323</v>
       </c>
@@ -5458,13 +5569,19 @@
         <v>344</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F117" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B118" t="s">
         <v>323</v>
       </c>
@@ -5472,13 +5589,19 @@
         <v>345</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F118" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B119" t="s">
         <v>324</v>
       </c>
@@ -5486,13 +5609,19 @@
         <v>346</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F119" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B120" t="s">
         <v>312</v>
       </c>
@@ -5500,13 +5629,19 @@
         <v>369</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F120" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B121" t="s">
         <v>404</v>
       </c>
@@ -5514,13 +5649,19 @@
         <v>370</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F121" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B122" t="s">
         <v>404</v>
       </c>
@@ -5528,13 +5669,19 @@
         <v>371</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F122" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B123" t="s">
         <v>314</v>
       </c>
@@ -5542,13 +5689,19 @@
         <v>372</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F123" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B124" t="s">
         <v>404</v>
       </c>
@@ -5556,13 +5709,19 @@
         <v>373</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B125" t="s">
         <v>404</v>
       </c>
@@ -5570,13 +5729,19 @@
         <v>374</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F125" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B126" t="s">
         <v>405</v>
       </c>
@@ -5584,13 +5749,19 @@
         <v>375</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F126" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B127" t="s">
         <v>350</v>
       </c>
@@ -5598,13 +5769,19 @@
         <v>376</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F127" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B128" t="s">
         <v>350</v>
       </c>
@@ -5612,13 +5789,19 @@
         <v>377</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F128" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B129" t="s">
         <v>350</v>
       </c>
@@ -5626,13 +5809,19 @@
         <v>378</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F129" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B130" t="s">
         <v>350</v>
       </c>
@@ -5640,13 +5829,19 @@
         <v>379</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F130" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B131" t="s">
         <v>351</v>
       </c>
@@ -5654,13 +5849,19 @@
         <v>380</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B132" t="s">
         <v>352</v>
       </c>
@@ -5668,13 +5869,19 @@
         <v>381</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F132" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B133" t="s">
         <v>353</v>
       </c>
@@ -5682,13 +5889,19 @@
         <v>382</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F133" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B134" t="s">
         <v>354</v>
       </c>
@@ -5696,13 +5909,19 @@
         <v>383</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F134" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B135" t="s">
         <v>355</v>
       </c>
@@ -5710,13 +5929,19 @@
         <v>384</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F135" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B136" t="s">
         <v>356</v>
       </c>
@@ -5724,13 +5949,19 @@
         <v>385</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F136" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B137" t="s">
         <v>357</v>
       </c>
@@ -5738,13 +5969,19 @@
         <v>386</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F137" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B138" t="s">
         <v>358</v>
       </c>
@@ -5752,13 +5989,19 @@
         <v>387</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F138" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B139" t="s">
         <v>359</v>
       </c>
@@ -5766,13 +6009,19 @@
         <v>388</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F139" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B140" t="s">
         <v>351</v>
       </c>
@@ -5780,13 +6029,19 @@
         <v>389</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F140" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B141" t="s">
         <v>360</v>
       </c>
@@ -5794,13 +6049,19 @@
         <v>390</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F141" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B142" t="s">
         <v>361</v>
       </c>
@@ -5808,13 +6069,19 @@
         <v>391</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F142" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B143" t="s">
         <v>362</v>
       </c>
@@ -5822,13 +6089,19 @@
         <v>392</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F143" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B144" t="s">
         <v>349</v>
       </c>
@@ -5836,13 +6109,19 @@
         <v>393</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="F144" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B145" t="s">
         <v>363</v>
       </c>
@@ -5850,13 +6129,19 @@
         <v>394</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="F145" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B146" t="s">
         <v>361</v>
       </c>
@@ -5864,13 +6149,19 @@
         <v>395</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="F146" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B147" t="s">
         <v>364</v>
       </c>
@@ -5878,13 +6169,19 @@
         <v>396</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="F147" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B148" t="s">
         <v>355</v>
       </c>
@@ -5892,13 +6189,19 @@
         <v>397</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="F148" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B149" t="s">
         <v>363</v>
       </c>
@@ -5906,13 +6209,19 @@
         <v>398</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="F149" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B150" t="s">
         <v>365</v>
       </c>
@@ -5920,13 +6229,19 @@
         <v>399</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="F150" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B151" t="s">
         <v>366</v>
       </c>
@@ -5934,13 +6249,19 @@
         <v>400</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="F151" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B152" t="s">
         <v>367</v>
       </c>
@@ -5948,13 +6269,19 @@
         <v>401</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="F152" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B153" t="s">
         <v>368</v>
       </c>
@@ -5962,13 +6289,19 @@
         <v>402</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="F153" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B154" t="s">
         <v>348</v>
       </c>
@@ -5976,26 +6309,53 @@
         <v>403</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>776</v>
+        <v>9</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="F154" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -6012,10 +6372,10 @@
         <v>685</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -6023,7 +6383,7 @@
         <v>498</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>499</v>
+        <v>9</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>500</v>
@@ -6032,18 +6392,30 @@
         <v>732</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -6060,10 +6432,10 @@
         <v>669</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -6083,7 +6455,7 @@
         <v>438</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -6103,35 +6475,47 @@
         <v>491</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>455</v>
       </c>
       <c r="C164" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="E164" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="D164" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>888</v>
-      </c>
       <c r="F164" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -6148,10 +6532,10 @@
         <v>711</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -6162,7 +6546,7 @@
         <v>580</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>662</v>
@@ -6171,7 +6555,7 @@
         <v>582</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -6182,16 +6566,16 @@
         <v>691</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>692</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -6208,48 +6592,75 @@
         <v>700</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B169" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="C169" s="5" t="s">
         <v>900</v>
       </c>
-      <c r="C169" s="5" t="s">
-        <v>901</v>
-      </c>
       <c r="D169" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B171" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>902</v>
       </c>
-      <c r="C171" s="5" t="s">
-        <v>903</v>
-      </c>
       <c r="D171" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>608</v>
@@ -6260,24 +6671,36 @@
       <c r="D172" s="5" t="s">
         <v>673</v>
       </c>
+      <c r="E172" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B173" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="C173" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="C173" s="5" t="s">
-        <v>905</v>
-      </c>
       <c r="D173" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>625</v>
@@ -6288,48 +6711,96 @@
       <c r="D174" s="5" t="s">
         <v>680</v>
       </c>
+      <c r="E174" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>554</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B178" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="C178" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="C178" s="5" t="s">
-        <v>908</v>
-      </c>
       <c r="D178" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>425</v>
@@ -6340,13 +6811,37 @@
       <c r="D179" s="5" t="s">
         <v>650</v>
       </c>
+      <c r="E179" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B181" s="5" t="s">
         <v>421</v>
       </c>
@@ -6356,19 +6851,37 @@
       <c r="D181" s="5" t="s">
         <v>701</v>
       </c>
+      <c r="E181" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="F181" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D182" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>936</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B183" s="5" t="s">
         <v>474</v>
       </c>
@@ -6378,8 +6891,11 @@
       <c r="D183" s="5" t="s">
         <v>714</v>
       </c>
+      <c r="E183" s="5" t="s">
+        <v>937</v>
+      </c>
       <c r="F183" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>

--- a/all.xlsx
+++ b/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C719D445-1261-4D3F-9DA8-3AB49093F1EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AEEDBA-823C-4C5B-959C-476B24F896C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3230,10 +3230,10 @@
   </sheetPr>
   <dimension ref="A1:F183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65:XFD65"/>
+      <selection pane="bottomLeft" activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/all.xlsx
+++ b/all.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AEEDBA-823C-4C5B-959C-476B24F896C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C398D0-6E6E-4D6E-9E72-0CD0CCE719C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1130,111 +1130,6 @@
     <t xml:space="preserve"> MERCEDES - BENZ GLC 250</t>
   </si>
   <si>
-    <t xml:space="preserve"> Е 947 СУ 123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M 168 EC 82</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M 920 MK 82</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> K 024 PK 123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E 065 OH 193</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X 689 УА 123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> в 275 CP 123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> H 336 TH 123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E 935 XX 123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> B 575 OH 193</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> H 221 TH 123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A 625 AA 164</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> K 221 KK 123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M 046 XH 93</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X 900 OX 123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P 717 TT 123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A 422 HT 193</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E 416 EB 193</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> В 584 УВ 123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A 461 HK 43</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P 776 HY 193</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> K 938 ME 193</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0 013 КР 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 36 VD 134</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> O 476 ME 193</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P 779 YX 199</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> O 326 MB 123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A 071 BB 193</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> y 003 EC 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> H 346 PX 123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 71 VF 071</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7546 KO 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> O 494 CA 154</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M 380 HH 124</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M 714 CY 123</t>
-  </si>
-  <si>
     <t>LADA LARGUS</t>
   </si>
   <si>
@@ -1532,9 +1427,6 @@
     <t>БМВ Мини</t>
   </si>
   <si>
-    <t>Р 4160 РАВН</t>
-  </si>
-  <si>
     <t>С 452 ВУ 123</t>
   </si>
   <si>
@@ -1841,9 +1733,6 @@
     <t>KIA SHUMA 11</t>
   </si>
   <si>
-    <t>У318 ЕЕ123</t>
-  </si>
-  <si>
     <t>ГК№4</t>
   </si>
   <si>
@@ -1883,9 +1772,6 @@
     <t>ТОЙОТА РАКТИС</t>
   </si>
   <si>
-    <t>Е136 ВВ 193</t>
-  </si>
-  <si>
     <t>Шкода Октавия</t>
   </si>
   <si>
@@ -2333,9 +2219,6 @@
     <t>Тойота Ланд Крузер</t>
   </si>
   <si>
-    <t>У035 ЕЕ 774</t>
-  </si>
-  <si>
     <t>Форд F250</t>
   </si>
   <si>
@@ -2838,6 +2721,123 @@
   </si>
   <si>
     <t>8-928-666-99-39  8-918-111-26-61</t>
+  </si>
+  <si>
+    <t>У 318 ЕЕ 123</t>
+  </si>
+  <si>
+    <t>Е 136 ВВ 193</t>
+  </si>
+  <si>
+    <t>У 035 ЕЕ 774</t>
+  </si>
+  <si>
+    <t>Е 947 СУ 123</t>
+  </si>
+  <si>
+    <t>M 168 EC 82</t>
+  </si>
+  <si>
+    <t>M 920 MK 82</t>
+  </si>
+  <si>
+    <t>K 024 PK 123</t>
+  </si>
+  <si>
+    <t>E 065 OH 193</t>
+  </si>
+  <si>
+    <t>X 689 УА 123</t>
+  </si>
+  <si>
+    <t>В 275 CP 123</t>
+  </si>
+  <si>
+    <t>M 714 CY 123</t>
+  </si>
+  <si>
+    <t>M 380 HH 124</t>
+  </si>
+  <si>
+    <t>O 494 CA 154</t>
+  </si>
+  <si>
+    <t>7546 KO 23</t>
+  </si>
+  <si>
+    <t>71 VF 071</t>
+  </si>
+  <si>
+    <t>H 346 PX 123</t>
+  </si>
+  <si>
+    <t>A 071 BB 193</t>
+  </si>
+  <si>
+    <t>O 326 MB 123</t>
+  </si>
+  <si>
+    <t>У 003 EC 23</t>
+  </si>
+  <si>
+    <t>P 779 YX 199</t>
+  </si>
+  <si>
+    <t>O 476 ME 193</t>
+  </si>
+  <si>
+    <t>36 VD 134</t>
+  </si>
+  <si>
+    <t>О 013 КР 19</t>
+  </si>
+  <si>
+    <t>K 938 ME 193</t>
+  </si>
+  <si>
+    <t>P 776 HY 193</t>
+  </si>
+  <si>
+    <t>A 461 HK 43</t>
+  </si>
+  <si>
+    <t>В 584 УВ 123</t>
+  </si>
+  <si>
+    <t>E 416 EB 193</t>
+  </si>
+  <si>
+    <t>A 422 HT 193</t>
+  </si>
+  <si>
+    <t>P 717 TT 123</t>
+  </si>
+  <si>
+    <t>X 900 OX 123</t>
+  </si>
+  <si>
+    <t>M 046 XH 93</t>
+  </si>
+  <si>
+    <t>K 221 KK 123</t>
+  </si>
+  <si>
+    <t>A 625 AA 164</t>
+  </si>
+  <si>
+    <t>H 221 TH 123</t>
+  </si>
+  <si>
+    <t>B 575 OH 193</t>
+  </si>
+  <si>
+    <t>E 935 XX 123</t>
+  </si>
+  <si>
+    <t>H 336 TH 123</t>
+  </si>
+  <si>
+    <t>Р 4160 Р АВН</t>
   </si>
 </sst>
 </file>
@@ -3230,10 +3230,10 @@
   </sheetPr>
   <dimension ref="A1:F183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D196" sqref="D196"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3243,62 +3243,62 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>689</v>
+        <v>651</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>690</v>
+        <v>652</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>880</v>
+        <v>841</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>793</v>
+        <v>754</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>691</v>
+        <v>653</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>692</v>
+        <v>654</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>932</v>
+        <v>893</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>695</v>
+        <v>657</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>693</v>
+        <v>655</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>931</v>
+        <v>892</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3306,19 +3306,19 @@
         <v>192</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>694</v>
+        <v>656</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>794</v>
+        <v>755</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3326,19 +3326,19 @@
         <v>192</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>696</v>
+        <v>658</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>697</v>
+        <v>659</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>930</v>
+        <v>891</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3346,119 +3346,119 @@
         <v>192</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>698</v>
+        <v>660</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>795</v>
+        <v>756</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>790</v>
+        <v>751</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>422</v>
+        <v>387</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>699</v>
+        <v>661</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>796</v>
+        <v>757</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>650</v>
+        <v>612</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>797</v>
+        <v>758</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>700</v>
+        <v>662</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>798</v>
+        <v>759</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>701</v>
+        <v>663</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>799</v>
+        <v>760</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>702</v>
+        <v>664</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>800</v>
+        <v>761</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3466,119 +3466,119 @@
         <v>192</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>703</v>
+        <v>665</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>801</v>
+        <v>762</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>720</v>
+        <v>682</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>704</v>
+        <v>666</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>929</v>
+        <v>890</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>791</v>
+        <v>752</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>446</v>
+        <v>411</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>705</v>
+        <v>667</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>802</v>
+        <v>763</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>449</v>
+        <v>414</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>706</v>
+        <v>668</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>803</v>
+        <v>764</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>791</v>
+        <v>752</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>452</v>
+        <v>417</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>707</v>
+        <v>669</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>804</v>
+        <v>765</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>456</v>
+        <v>421</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>708</v>
+        <v>670</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>457</v>
+        <v>422</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>805</v>
+        <v>766</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3586,79 +3586,79 @@
         <v>192</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>458</v>
+        <v>423</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>709</v>
+        <v>671</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>806</v>
+        <v>767</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>461</v>
+        <v>426</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>462</v>
+        <v>427</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>710</v>
+        <v>672</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>807</v>
+        <v>768</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>711</v>
+        <v>673</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>467</v>
+        <v>432</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>808</v>
+        <v>769</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>469</v>
+        <v>434</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>712</v>
+        <v>674</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>470</v>
+        <v>435</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>809</v>
+        <v>770</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3666,99 +3666,99 @@
         <v>192</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>713</v>
+        <v>675</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>928</v>
+        <v>889</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>714</v>
+        <v>676</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>476</v>
+        <v>441</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>810</v>
+        <v>771</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>715</v>
+        <v>677</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>811</v>
+        <v>772</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>480</v>
+        <v>445</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>716</v>
+        <v>678</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>812</v>
+        <v>773</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>484</v>
+        <v>449</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>727</v>
+        <v>689</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>485</v>
+        <v>450</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>871</v>
+        <v>832</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3766,159 +3766,159 @@
         <v>192</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>486</v>
+        <v>451</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>487</v>
+        <v>452</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>728</v>
+        <v>690</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>231</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>813</v>
+        <v>774</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>488</v>
+        <v>453</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>490</v>
+        <v>455</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>729</v>
+        <v>691</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>491</v>
+        <v>456</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>814</v>
+        <v>775</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>776</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>494</v>
+        <v>459</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>495</v>
+        <v>460</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>731</v>
+        <v>693</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>496</v>
+        <v>461</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>816</v>
+        <v>777</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>480</v>
+        <v>445</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>497</v>
+        <v>462</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>717</v>
+        <v>679</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>231</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>817</v>
+        <v>778</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>498</v>
+        <v>463</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>499</v>
+        <v>464</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>732</v>
+        <v>694</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>501</v>
+        <v>466</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>818</v>
+        <v>779</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>792</v>
+        <v>753</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>502</v>
+        <v>467</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>503</v>
+        <v>938</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>733</v>
+        <v>695</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>198</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>819</v>
+        <v>780</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>791</v>
+        <v>752</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>504</v>
+        <v>468</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>734</v>
+        <v>696</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>820</v>
+        <v>781</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3926,99 +3926,99 @@
         <v>192</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>735</v>
+        <v>697</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>508</v>
+        <v>472</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>821</v>
+        <v>782</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>509</v>
+        <v>473</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>726</v>
+        <v>688</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>822</v>
+        <v>783</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>511</v>
+        <v>475</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>719</v>
+        <v>681</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>736</v>
+        <v>698</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>512</v>
+        <v>476</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>823</v>
+        <v>784</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>513</v>
+        <v>477</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>514</v>
+        <v>478</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>737</v>
+        <v>699</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>515</v>
+        <v>479</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>824</v>
+        <v>785</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>517</v>
+        <v>481</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>725</v>
+        <v>687</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>518</v>
+        <v>482</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>825</v>
+        <v>786</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -4026,159 +4026,159 @@
         <v>192</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>724</v>
+        <v>686</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>826</v>
+        <v>787</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>779</v>
+        <v>740</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>522</v>
+        <v>486</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>523</v>
+        <v>487</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>722</v>
+        <v>684</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>524</v>
+        <v>488</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>827</v>
+        <v>788</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>525</v>
+        <v>489</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>526</v>
+        <v>490</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>723</v>
+        <v>685</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>828</v>
+        <v>789</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>528</v>
+        <v>492</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>738</v>
+        <v>700</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>529</v>
+        <v>493</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>829</v>
+        <v>790</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>530</v>
+        <v>494</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>721</v>
+        <v>683</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>830</v>
+        <v>791</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>533</v>
+        <v>497</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>739</v>
+        <v>701</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>535</v>
+        <v>499</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>831</v>
+        <v>792</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>739</v>
+        <v>701</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>535</v>
+        <v>499</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>831</v>
+        <v>792</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>539</v>
+        <v>503</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>740</v>
+        <v>702</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>832</v>
+        <v>793</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -4186,219 +4186,219 @@
         <v>192</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>542</v>
+        <v>506</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>741</v>
+        <v>703</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>833</v>
+        <v>794</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>651</v>
+        <v>613</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>834</v>
+        <v>795</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>652</v>
+        <v>614</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>549</v>
+        <v>513</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>835</v>
+        <v>796</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>551</v>
+        <v>515</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>552</v>
+        <v>516</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>653</v>
+        <v>615</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>553</v>
+        <v>517</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>872</v>
+        <v>833</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>554</v>
+        <v>518</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>555</v>
+        <v>519</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>654</v>
+        <v>616</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>556</v>
+        <v>520</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>836</v>
+        <v>797</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>558</v>
+        <v>522</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>559</v>
+        <v>523</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>655</v>
+        <v>617</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>780</v>
+        <v>741</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>837</v>
+        <v>798</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>560</v>
+        <v>524</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>561</v>
+        <v>525</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>562</v>
+        <v>526</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>838</v>
+        <v>799</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>565</v>
+        <v>529</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>839</v>
+        <v>800</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>566</v>
+        <v>530</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>658</v>
+        <v>620</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>568</v>
+        <v>532</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>840</v>
+        <v>801</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>569</v>
+        <v>533</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>570</v>
+        <v>534</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>659</v>
+        <v>621</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>572</v>
+        <v>536</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>841</v>
+        <v>802</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>573</v>
+        <v>537</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>660</v>
+        <v>622</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>575</v>
+        <v>539</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>842</v>
+        <v>803</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -4406,39 +4406,39 @@
         <v>192</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>577</v>
+        <v>541</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>661</v>
+        <v>623</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>843</v>
+        <v>804</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>579</v>
+        <v>543</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>580</v>
+        <v>544</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>581</v>
+        <v>545</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>662</v>
+        <v>624</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>844</v>
+        <v>805</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -4446,19 +4446,19 @@
         <v>192</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>583</v>
+        <v>547</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>584</v>
+        <v>548</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>663</v>
+        <v>625</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>585</v>
+        <v>549</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>845</v>
+        <v>806</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -4466,39 +4466,39 @@
         <v>192</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>586</v>
+        <v>550</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>587</v>
+        <v>551</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>664</v>
+        <v>626</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>588</v>
+        <v>552</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>846</v>
+        <v>807</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>777</v>
+        <v>738</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>590</v>
+        <v>554</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>665</v>
+        <v>627</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>781</v>
+        <v>742</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>847</v>
+        <v>808</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -4506,79 +4506,79 @@
         <v>192</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>666</v>
+        <v>628</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>782</v>
+        <v>743</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>873</v>
+        <v>834</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>667</v>
+        <v>629</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>783</v>
+        <v>744</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>848</v>
+        <v>809</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>595</v>
+        <v>559</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>668</v>
+        <v>630</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>784</v>
+        <v>745</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>849</v>
+        <v>810</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>775</v>
+        <v>736</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>597</v>
+        <v>561</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>669</v>
+        <v>631</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>599</v>
+        <v>563</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>850</v>
+        <v>811</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -4586,279 +4586,279 @@
         <v>192</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>600</v>
+        <v>564</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>601</v>
+        <v>565</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>670</v>
+        <v>632</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>602</v>
+        <v>566</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>851</v>
+        <v>812</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>785</v>
+        <v>746</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>671</v>
+        <v>633</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>786</v>
+        <v>747</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>852</v>
+        <v>813</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>785</v>
+        <v>746</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>605</v>
+        <v>569</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>606</v>
+        <v>900</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>672</v>
+        <v>634</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>787</v>
+        <v>748</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>853</v>
+        <v>814</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>673</v>
+        <v>635</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>610</v>
+        <v>573</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>854</v>
+        <v>815</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>611</v>
+        <v>574</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>612</v>
+        <v>575</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>674</v>
+        <v>636</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>613</v>
+        <v>576</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>874</v>
+        <v>835</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>614</v>
+        <v>577</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>615</v>
+        <v>578</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>675</v>
+        <v>637</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>616</v>
+        <v>579</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>875</v>
+        <v>836</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>597</v>
+        <v>561</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>617</v>
+        <v>580</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>676</v>
+        <v>638</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>618</v>
+        <v>581</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>876</v>
+        <v>837</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>619</v>
+        <v>582</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>620</v>
+        <v>901</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>677</v>
+        <v>639</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>787</v>
+        <v>748</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>877</v>
+        <v>838</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>718</v>
+        <v>680</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>621</v>
+        <v>583</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>622</v>
+        <v>584</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>678</v>
+        <v>640</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>788</v>
+        <v>749</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>855</v>
+        <v>816</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>718</v>
+        <v>680</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>623</v>
+        <v>585</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>679</v>
+        <v>641</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>788</v>
+        <v>749</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>856</v>
+        <v>817</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>624</v>
+        <v>586</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>625</v>
+        <v>587</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>626</v>
+        <v>588</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>680</v>
+        <v>642</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>627</v>
+        <v>589</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>857</v>
+        <v>818</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>778</v>
+        <v>739</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>629</v>
+        <v>591</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>681</v>
+        <v>643</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>630</v>
+        <v>592</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>858</v>
+        <v>819</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>631</v>
+        <v>593</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>682</v>
+        <v>644</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>859</v>
+        <v>820</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>635</v>
+        <v>597</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>683</v>
+        <v>645</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>636</v>
+        <v>598</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>878</v>
+        <v>839</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -4866,99 +4866,99 @@
         <v>192</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>637</v>
+        <v>599</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>638</v>
+        <v>600</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>684</v>
+        <v>646</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>639</v>
+        <v>601</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>879</v>
+        <v>840</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>640</v>
+        <v>602</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>641</v>
+        <v>603</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>685</v>
+        <v>647</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>642</v>
+        <v>604</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>860</v>
+        <v>821</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>643</v>
+        <v>605</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>644</v>
+        <v>606</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>686</v>
+        <v>648</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>645</v>
+        <v>607</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>861</v>
+        <v>822</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>646</v>
+        <v>608</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>687</v>
+        <v>649</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>630</v>
+        <v>592</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>862</v>
+        <v>823</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>647</v>
+        <v>609</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>648</v>
+        <v>610</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>688</v>
+        <v>650</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>649</v>
+        <v>611</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>863</v>
+        <v>824</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -4966,19 +4966,19 @@
         <v>9</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>742</v>
+        <v>704</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>743</v>
+        <v>705</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>744</v>
+        <v>706</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>745</v>
+        <v>707</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>935</v>
+        <v>896</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -4986,19 +4986,19 @@
         <v>9</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>746</v>
+        <v>708</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>747</v>
+        <v>709</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>744</v>
+        <v>706</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>745</v>
+        <v>707</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>935</v>
+        <v>896</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -5006,19 +5006,19 @@
         <v>9</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>748</v>
+        <v>710</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>749</v>
+        <v>711</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>750</v>
+        <v>712</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>751</v>
+        <v>713</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>864</v>
+        <v>825</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -5026,19 +5026,19 @@
         <v>9</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>480</v>
+        <v>445</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>752</v>
+        <v>714</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>753</v>
+        <v>715</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>751</v>
+        <v>713</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>865</v>
+        <v>826</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -5046,19 +5046,19 @@
         <v>9</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>754</v>
+        <v>716</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>755</v>
+        <v>717</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>756</v>
+        <v>718</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>757</v>
+        <v>719</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>866</v>
+        <v>827</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -5066,19 +5066,19 @@
         <v>9</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>758</v>
+        <v>720</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>759</v>
+        <v>721</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>760</v>
+        <v>722</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>761</v>
+        <v>723</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>867</v>
+        <v>828</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -5086,19 +5086,19 @@
         <v>9</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>762</v>
+        <v>724</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>763</v>
+        <v>725</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>764</v>
+        <v>726</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>761</v>
+        <v>723</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>868</v>
+        <v>829</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -5106,19 +5106,19 @@
         <v>9</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>765</v>
+        <v>727</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>766</v>
+        <v>728</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>767</v>
+        <v>729</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>761</v>
+        <v>723</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>869</v>
+        <v>830</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -5126,19 +5126,19 @@
         <v>9</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>754</v>
+        <v>716</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>768</v>
+        <v>730</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>789</v>
+        <v>750</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>761</v>
+        <v>723</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>926</v>
+        <v>887</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -5146,16 +5146,16 @@
         <v>9</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>769</v>
+        <v>731</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>770</v>
+        <v>902</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>789</v>
+        <v>750</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>927</v>
+        <v>888</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -5163,19 +5163,19 @@
         <v>9</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>771</v>
+        <v>732</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>772</v>
+        <v>733</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>773</v>
+        <v>734</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>774</v>
+        <v>735</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>870</v>
+        <v>831</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -5626,7 +5626,7 @@
         <v>312</v>
       </c>
       <c r="C120" t="s">
-        <v>369</v>
+        <v>903</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>9</v>
@@ -5643,10 +5643,10 @@
         <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="C121" t="s">
-        <v>370</v>
+        <v>904</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>9</v>
@@ -5663,10 +5663,10 @@
         <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="C122" t="s">
-        <v>371</v>
+        <v>905</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>9</v>
@@ -5686,7 +5686,7 @@
         <v>314</v>
       </c>
       <c r="C123" t="s">
-        <v>372</v>
+        <v>906</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>9</v>
@@ -5703,10 +5703,10 @@
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="C124" t="s">
-        <v>373</v>
+        <v>907</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>9</v>
@@ -5723,10 +5723,10 @@
         <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="C125" t="s">
-        <v>374</v>
+        <v>908</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>9</v>
@@ -5743,10 +5743,10 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="C126" t="s">
-        <v>375</v>
+        <v>909</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>9</v>
@@ -5766,7 +5766,7 @@
         <v>350</v>
       </c>
       <c r="C127" t="s">
-        <v>376</v>
+        <v>937</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>9</v>
@@ -5786,7 +5786,7 @@
         <v>350</v>
       </c>
       <c r="C128" t="s">
-        <v>377</v>
+        <v>936</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>9</v>
@@ -5806,7 +5806,7 @@
         <v>350</v>
       </c>
       <c r="C129" t="s">
-        <v>378</v>
+        <v>935</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>9</v>
@@ -5826,7 +5826,7 @@
         <v>350</v>
       </c>
       <c r="C130" t="s">
-        <v>379</v>
+        <v>934</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>9</v>
@@ -5846,7 +5846,7 @@
         <v>351</v>
       </c>
       <c r="C131" t="s">
-        <v>380</v>
+        <v>933</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>9</v>
@@ -5866,7 +5866,7 @@
         <v>352</v>
       </c>
       <c r="C132" t="s">
-        <v>381</v>
+        <v>932</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         <v>353</v>
       </c>
       <c r="C133" t="s">
-        <v>382</v>
+        <v>931</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>9</v>
@@ -5906,7 +5906,7 @@
         <v>354</v>
       </c>
       <c r="C134" t="s">
-        <v>383</v>
+        <v>930</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>9</v>
@@ -5926,7 +5926,7 @@
         <v>355</v>
       </c>
       <c r="C135" t="s">
-        <v>384</v>
+        <v>929</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>9</v>
@@ -5946,7 +5946,7 @@
         <v>356</v>
       </c>
       <c r="C136" t="s">
-        <v>385</v>
+        <v>928</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>9</v>
@@ -5966,7 +5966,7 @@
         <v>357</v>
       </c>
       <c r="C137" t="s">
-        <v>386</v>
+        <v>927</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>9</v>
@@ -5986,7 +5986,7 @@
         <v>358</v>
       </c>
       <c r="C138" t="s">
-        <v>387</v>
+        <v>926</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>9</v>
@@ -6006,7 +6006,7 @@
         <v>359</v>
       </c>
       <c r="C139" t="s">
-        <v>388</v>
+        <v>925</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>9</v>
@@ -6026,7 +6026,7 @@
         <v>351</v>
       </c>
       <c r="C140" t="s">
-        <v>389</v>
+        <v>924</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>9</v>
@@ -6046,7 +6046,7 @@
         <v>360</v>
       </c>
       <c r="C141" t="s">
-        <v>390</v>
+        <v>923</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>9</v>
@@ -6066,7 +6066,7 @@
         <v>361</v>
       </c>
       <c r="C142" t="s">
-        <v>391</v>
+        <v>922</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>9</v>
@@ -6086,7 +6086,7 @@
         <v>362</v>
       </c>
       <c r="C143" t="s">
-        <v>392</v>
+        <v>921</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>9</v>
@@ -6106,7 +6106,7 @@
         <v>349</v>
       </c>
       <c r="C144" t="s">
-        <v>393</v>
+        <v>920</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>9</v>
@@ -6126,7 +6126,7 @@
         <v>363</v>
       </c>
       <c r="C145" t="s">
-        <v>394</v>
+        <v>919</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>9</v>
@@ -6146,7 +6146,7 @@
         <v>361</v>
       </c>
       <c r="C146" t="s">
-        <v>395</v>
+        <v>917</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>9</v>
@@ -6166,7 +6166,7 @@
         <v>364</v>
       </c>
       <c r="C147" t="s">
-        <v>396</v>
+        <v>916</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>9</v>
@@ -6186,7 +6186,7 @@
         <v>355</v>
       </c>
       <c r="C148" t="s">
-        <v>397</v>
+        <v>918</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>9</v>
@@ -6206,7 +6206,7 @@
         <v>363</v>
       </c>
       <c r="C149" t="s">
-        <v>398</v>
+        <v>915</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>9</v>
@@ -6226,7 +6226,7 @@
         <v>365</v>
       </c>
       <c r="C150" t="s">
-        <v>399</v>
+        <v>914</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>9</v>
@@ -6246,7 +6246,7 @@
         <v>366</v>
       </c>
       <c r="C151" t="s">
-        <v>400</v>
+        <v>913</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>9</v>
@@ -6266,7 +6266,7 @@
         <v>367</v>
       </c>
       <c r="C152" t="s">
-        <v>401</v>
+        <v>912</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>9</v>
@@ -6286,7 +6286,7 @@
         <v>368</v>
       </c>
       <c r="C153" t="s">
-        <v>402</v>
+        <v>911</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>9</v>
@@ -6306,7 +6306,7 @@
         <v>348</v>
       </c>
       <c r="C154" t="s">
-        <v>403</v>
+        <v>910</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>9</v>
@@ -6320,7 +6320,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>894</v>
+        <v>855</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>9</v>
@@ -6332,7 +6332,7 @@
         <v>9</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>881</v>
+        <v>842</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>9</v>
@@ -6340,7 +6340,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>895</v>
+        <v>856</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>9</v>
@@ -6352,7 +6352,7 @@
         <v>9</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>882</v>
+        <v>843</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>9</v>
@@ -6360,47 +6360,47 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>640</v>
+        <v>602</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>641</v>
+        <v>603</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>685</v>
+        <v>647</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>883</v>
+        <v>844</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>860</v>
+        <v>821</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>498</v>
+        <v>463</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>732</v>
+        <v>694</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>933</v>
+        <v>894</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>818</v>
+        <v>779</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>896</v>
+        <v>857</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>9</v>
@@ -6412,7 +6412,7 @@
         <v>9</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>884</v>
+        <v>845</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>9</v>
@@ -6420,67 +6420,67 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>775</v>
+        <v>736</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>597</v>
+        <v>561</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>669</v>
+        <v>631</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>934</v>
+        <v>895</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>850</v>
+        <v>811</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>702</v>
+        <v>664</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>800</v>
+        <v>761</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>488</v>
+        <v>453</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>490</v>
+        <v>455</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>729</v>
+        <v>691</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>491</v>
+        <v>456</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>814</v>
+        <v>775</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>897</v>
+        <v>858</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>9</v>
@@ -6492,7 +6492,7 @@
         <v>9</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>885</v>
+        <v>846</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>9</v>
@@ -6500,116 +6500,116 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>898</v>
+        <v>859</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>886</v>
+        <v>847</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>893</v>
+        <v>854</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>887</v>
+        <v>848</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>805</v>
+        <v>766</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>711</v>
+        <v>673</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>888</v>
+        <v>849</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>808</v>
+        <v>769</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>579</v>
+        <v>543</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>580</v>
+        <v>544</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>889</v>
+        <v>850</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>662</v>
+        <v>624</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>844</v>
+        <v>805</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>691</v>
+        <v>653</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>890</v>
+        <v>851</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>692</v>
+        <v>654</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>891</v>
+        <v>852</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>932</v>
+        <v>893</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>700</v>
+        <v>662</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>892</v>
+        <v>853</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>798</v>
+        <v>759</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>913</v>
+        <v>874</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>899</v>
+        <v>860</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>900</v>
+        <v>861</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>908</v>
+        <v>869</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>9</v>
@@ -6620,7 +6620,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>914</v>
+        <v>875</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>9</v>
@@ -6640,16 +6640,16 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>915</v>
+        <v>876</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>902</v>
+        <v>863</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>909</v>
+        <v>870</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>9</v>
@@ -6660,16 +6660,16 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>916</v>
+        <v>877</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>673</v>
+        <v>635</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>9</v>
@@ -6680,16 +6680,16 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>917</v>
+        <v>878</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>903</v>
+        <v>864</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>904</v>
+        <v>865</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>910</v>
+        <v>871</v>
       </c>
       <c r="E173" s="5" t="s">
         <v>9</v>
@@ -6700,16 +6700,16 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>918</v>
+        <v>879</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>625</v>
+        <v>587</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>626</v>
+        <v>588</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>680</v>
+        <v>642</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>9</v>
@@ -6720,16 +6720,16 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>919</v>
+        <v>880</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>554</v>
+        <v>518</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>905</v>
+        <v>866</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>911</v>
+        <v>872</v>
       </c>
       <c r="E175" s="5" t="s">
         <v>9</v>
@@ -6740,7 +6740,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>920</v>
+        <v>881</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>9</v>
@@ -6760,7 +6760,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>921</v>
+        <v>882</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>9</v>
@@ -6780,16 +6780,16 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>922</v>
+        <v>883</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>906</v>
+        <v>867</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>907</v>
+        <v>868</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>912</v>
+        <v>873</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>9</v>
@@ -6800,16 +6800,16 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>923</v>
+        <v>884</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>650</v>
+        <v>612</v>
       </c>
       <c r="E179" s="5" t="s">
         <v>9</v>
@@ -6820,7 +6820,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>924</v>
+        <v>885</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>9</v>
@@ -6843,19 +6843,19 @@
         <v>9</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>701</v>
+        <v>663</v>
       </c>
       <c r="E181" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>799</v>
+        <v>760</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -6869,13 +6869,13 @@
         <v>9</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>925</v>
+        <v>886</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>936</v>
+        <v>897</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>938</v>
+        <v>899</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -6883,19 +6883,19 @@
         <v>9</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>714</v>
+        <v>676</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>937</v>
+        <v>898</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>810</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>

--- a/all.xlsx
+++ b/all.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C398D0-6E6E-4D6E-9E72-0CD0CCE719C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8654A6C6-9FE6-4C5D-9755-2C886A54D75F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2490" uniqueCount="951">
   <si>
     <t>Примечание</t>
   </si>
@@ -2645,42 +2645,6 @@
     <t>Сигов Григорий Олегович</t>
   </si>
   <si>
-    <t>БФ 1</t>
-  </si>
-  <si>
-    <t>БФ 2</t>
-  </si>
-  <si>
-    <t>БФ 3</t>
-  </si>
-  <si>
-    <t>БФ 4</t>
-  </si>
-  <si>
-    <t>БФ 5</t>
-  </si>
-  <si>
-    <t>БФ 6</t>
-  </si>
-  <si>
-    <t>БФ 7</t>
-  </si>
-  <si>
-    <t>БФ 8</t>
-  </si>
-  <si>
-    <t>БФ 9</t>
-  </si>
-  <si>
-    <t>БФ 10</t>
-  </si>
-  <si>
-    <t>БФ 11</t>
-  </si>
-  <si>
-    <t>БФ 12</t>
-  </si>
-  <si>
     <t>Рябов Юрий Николаевич</t>
   </si>
   <si>
@@ -2838,6 +2802,78 @@
   </si>
   <si>
     <t>Р 4160 Р АВН</t>
+  </si>
+  <si>
+    <t>Фольксваген</t>
+  </si>
+  <si>
+    <t>У 105 УУ 93</t>
+  </si>
+  <si>
+    <t>Без досмотра</t>
+  </si>
+  <si>
+    <t>Тойота Ленд Крузер</t>
+  </si>
+  <si>
+    <t>О 159 ОО 23</t>
+  </si>
+  <si>
+    <t>Лексус</t>
+  </si>
+  <si>
+    <t>О 007 РК 123</t>
+  </si>
+  <si>
+    <t>Мерседес</t>
+  </si>
+  <si>
+    <t xml:space="preserve">О 991 ОО 26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О 202 ХО 123</t>
+  </si>
+  <si>
+    <t>О 358 УС 93</t>
+  </si>
+  <si>
+    <t>С 777 ОХ 93</t>
+  </si>
+  <si>
+    <t>БФ 1 руководство</t>
+  </si>
+  <si>
+    <t>БФ 2 руководство</t>
+  </si>
+  <si>
+    <t>БФ 3 руководство</t>
+  </si>
+  <si>
+    <t>БФ 4 руководство</t>
+  </si>
+  <si>
+    <t>БФ 5 руководство</t>
+  </si>
+  <si>
+    <t>БФ 6 руководство</t>
+  </si>
+  <si>
+    <t>БФ 7 руководство</t>
+  </si>
+  <si>
+    <t>БФ 8 руководство</t>
+  </si>
+  <si>
+    <t>БФ 9 руководство</t>
+  </si>
+  <si>
+    <t>БФ 10 руководство</t>
+  </si>
+  <si>
+    <t>БФ 11 руководство</t>
+  </si>
+  <si>
+    <t>БФ 12 руководство</t>
   </si>
 </sst>
 </file>
@@ -3228,17 +3264,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F183"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="31.7109375" style="5"/>
+    <col min="1" max="1" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="31.7109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3278,7 +3320,7 @@
         <v>375</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3298,7 +3340,7 @@
         <v>378</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3338,7 +3380,7 @@
         <v>378</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3498,7 +3540,7 @@
         <v>409</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3678,7 +3720,7 @@
         <v>437</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3889,7 +3931,7 @@
         <v>467</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>695</v>
@@ -4629,7 +4671,7 @@
         <v>569</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>634</v>
@@ -4729,7 +4771,7 @@
         <v>582</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>639</v>
@@ -4978,7 +5020,7 @@
         <v>707</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -4998,7 +5040,7 @@
         <v>707</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -5138,7 +5180,7 @@
         <v>723</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -5149,13 +5191,13 @@
         <v>731</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>750</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -5626,7 +5668,7 @@
         <v>312</v>
       </c>
       <c r="C120" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>9</v>
@@ -5646,7 +5688,7 @@
         <v>369</v>
       </c>
       <c r="C121" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>9</v>
@@ -5666,7 +5708,7 @@
         <v>369</v>
       </c>
       <c r="C122" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>9</v>
@@ -5686,7 +5728,7 @@
         <v>314</v>
       </c>
       <c r="C123" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>9</v>
@@ -5706,7 +5748,7 @@
         <v>369</v>
       </c>
       <c r="C124" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>9</v>
@@ -5726,7 +5768,7 @@
         <v>369</v>
       </c>
       <c r="C125" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>9</v>
@@ -5746,7 +5788,7 @@
         <v>370</v>
       </c>
       <c r="C126" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>9</v>
@@ -5766,7 +5808,7 @@
         <v>350</v>
       </c>
       <c r="C127" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>9</v>
@@ -5786,7 +5828,7 @@
         <v>350</v>
       </c>
       <c r="C128" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>9</v>
@@ -5806,7 +5848,7 @@
         <v>350</v>
       </c>
       <c r="C129" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>9</v>
@@ -5826,7 +5868,7 @@
         <v>350</v>
       </c>
       <c r="C130" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>9</v>
@@ -5846,7 +5888,7 @@
         <v>351</v>
       </c>
       <c r="C131" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>9</v>
@@ -5866,7 +5908,7 @@
         <v>352</v>
       </c>
       <c r="C132" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>9</v>
@@ -5886,7 +5928,7 @@
         <v>353</v>
       </c>
       <c r="C133" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>9</v>
@@ -5906,7 +5948,7 @@
         <v>354</v>
       </c>
       <c r="C134" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>9</v>
@@ -5926,7 +5968,7 @@
         <v>355</v>
       </c>
       <c r="C135" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>9</v>
@@ -5946,7 +5988,7 @@
         <v>356</v>
       </c>
       <c r="C136" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>9</v>
@@ -5966,7 +6008,7 @@
         <v>357</v>
       </c>
       <c r="C137" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>9</v>
@@ -5986,7 +6028,7 @@
         <v>358</v>
       </c>
       <c r="C138" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>9</v>
@@ -6006,7 +6048,7 @@
         <v>359</v>
       </c>
       <c r="C139" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>9</v>
@@ -6026,7 +6068,7 @@
         <v>351</v>
       </c>
       <c r="C140" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>9</v>
@@ -6046,7 +6088,7 @@
         <v>360</v>
       </c>
       <c r="C141" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>9</v>
@@ -6066,7 +6108,7 @@
         <v>361</v>
       </c>
       <c r="C142" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>9</v>
@@ -6086,7 +6128,7 @@
         <v>362</v>
       </c>
       <c r="C143" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>9</v>
@@ -6106,7 +6148,7 @@
         <v>349</v>
       </c>
       <c r="C144" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>9</v>
@@ -6126,7 +6168,7 @@
         <v>363</v>
       </c>
       <c r="C145" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>9</v>
@@ -6146,7 +6188,7 @@
         <v>361</v>
       </c>
       <c r="C146" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>9</v>
@@ -6166,7 +6208,7 @@
         <v>364</v>
       </c>
       <c r="C147" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>9</v>
@@ -6186,7 +6228,7 @@
         <v>355</v>
       </c>
       <c r="C148" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>9</v>
@@ -6206,7 +6248,7 @@
         <v>363</v>
       </c>
       <c r="C149" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>9</v>
@@ -6226,7 +6268,7 @@
         <v>365</v>
       </c>
       <c r="C150" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>9</v>
@@ -6246,7 +6288,7 @@
         <v>366</v>
       </c>
       <c r="C151" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>9</v>
@@ -6266,7 +6308,7 @@
         <v>367</v>
       </c>
       <c r="C152" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>9</v>
@@ -6286,7 +6328,7 @@
         <v>368</v>
       </c>
       <c r="C153" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>9</v>
@@ -6306,7 +6348,7 @@
         <v>348</v>
       </c>
       <c r="C154" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>9</v>
@@ -6392,7 +6434,7 @@
         <v>694</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>779</v>
@@ -6432,7 +6474,7 @@
         <v>631</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>811</v>
@@ -6575,7 +6617,7 @@
         <v>852</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -6600,7 +6642,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>874</v>
+        <v>939</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>860</v>
@@ -6620,7 +6662,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>875</v>
+        <v>940</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>9</v>
@@ -6640,7 +6682,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>876</v>
+        <v>941</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>862</v>
@@ -6660,7 +6702,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>877</v>
+        <v>942</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>571</v>
@@ -6680,7 +6722,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>878</v>
+        <v>943</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>864</v>
@@ -6700,7 +6742,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>879</v>
+        <v>944</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>587</v>
@@ -6720,7 +6762,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>880</v>
+        <v>945</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>518</v>
@@ -6740,7 +6782,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>881</v>
+        <v>946</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>9</v>
@@ -6760,7 +6802,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>882</v>
+        <v>947</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>9</v>
@@ -6780,7 +6822,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>883</v>
+        <v>948</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>867</v>
@@ -6800,7 +6842,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>884</v>
+        <v>949</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>390</v>
@@ -6820,7 +6862,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>885</v>
+        <v>950</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>9</v>
@@ -6869,13 +6911,13 @@
         <v>9</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -6892,10 +6934,150 @@
         <v>676</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="F183" s="5" t="s">
         <v>771</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/all.xlsx
+++ b/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8654A6C6-9FE6-4C5D-9755-2C886A54D75F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479E2F06-7C13-45A9-B828-1E4D4C1C98C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,60 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Пользователь</author>
+  </authors>
+  <commentList>
+    <comment ref="E152" authorId="0" shapeId="0" xr:uid="{C89BD535-09CB-4FEC-B9EF-B7676DB2F29A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Инженер по пож. Безопасности</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E159" authorId="0" shapeId="0" xr:uid="{6388DA69-8E8E-48EB-8EAB-C12327B2E94F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Руководитель направления по работе с туристическими компаниями</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E160" authorId="0" shapeId="0" xr:uid="{033DAB00-8055-4CEC-8C55-4BC6D490B466}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ведущий менеджер по управлению номерным фондом</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2490" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="945">
   <si>
     <t>Примечание</t>
   </si>
@@ -1064,9 +1116,6 @@
     <t>K 986 BP 193</t>
   </si>
   <si>
-    <t>СФГ</t>
-  </si>
-  <si>
     <t xml:space="preserve"> LADA GRANTA</t>
   </si>
   <si>
@@ -1211,9 +1260,6 @@
     <t>О 960 РВ 174</t>
   </si>
   <si>
-    <t>Зам. рук. СПР</t>
-  </si>
-  <si>
     <t>ГК – БФ</t>
   </si>
   <si>
@@ -1280,18 +1326,12 @@
     <t>Старший администратор СПР</t>
   </si>
   <si>
-    <t xml:space="preserve">АБК 10 </t>
-  </si>
-  <si>
     <t>Хендэ Солярис</t>
   </si>
   <si>
     <t>Т 256 МХ 123</t>
   </si>
   <si>
-    <t>Спец.  отд. бронирования</t>
-  </si>
-  <si>
     <t>Мазда Просид Марве</t>
   </si>
   <si>
@@ -1319,9 +1359,6 @@
     <t>Т 763 УО 161</t>
   </si>
   <si>
-    <t>Зам. главного врача</t>
-  </si>
-  <si>
     <t>Хендэ Грета</t>
   </si>
   <si>
@@ -1421,9 +1458,6 @@
     <t>Т 718 ЕО 123</t>
   </si>
   <si>
-    <t>Рук. сан. – кур. Направления</t>
-  </si>
-  <si>
     <t>БМВ Мини</t>
   </si>
   <si>
@@ -1658,9 +1692,6 @@
     <t>КИА RIO</t>
   </si>
   <si>
-    <t>М 897 УУ 123</t>
-  </si>
-  <si>
     <t>Руководитель ОСК</t>
   </si>
   <si>
@@ -1712,9 +1743,6 @@
     <t>Н 017 СС 69</t>
   </si>
   <si>
-    <t>Инженер по пож. Безопасности</t>
-  </si>
-  <si>
     <t>Мерседес Бенц В 200</t>
   </si>
   <si>
@@ -1835,9 +1863,6 @@
     <t>О 595 РК 161</t>
   </si>
   <si>
-    <t>ОС руководитель</t>
-  </si>
-  <si>
     <t>Мицубиси Оутлендер</t>
   </si>
   <si>
@@ -2033,9 +2058,6 @@
     <t>Егорова Кристина Альбертовна</t>
   </si>
   <si>
-    <t>Сокурова Анастасия Эдуардовна</t>
-  </si>
-  <si>
     <t>Ксенофонтова Людмила Ивановна</t>
   </si>
   <si>
@@ -2483,9 +2505,6 @@
     <t>8-918-004-22-35</t>
   </si>
   <si>
-    <t>9-902-260-29-88</t>
-  </si>
-  <si>
     <t>8-977-700-09-99</t>
   </si>
   <si>
@@ -2549,24 +2568,15 @@
     <t>Государственный номер</t>
   </si>
   <si>
-    <t>Гл. инженер</t>
-  </si>
-  <si>
     <t>Руководитель ОП</t>
   </si>
   <si>
-    <t>Руководитель ОС</t>
-  </si>
-  <si>
     <t>Главный врач</t>
   </si>
   <si>
     <t>Менеджер по орг. мероприятий</t>
   </si>
   <si>
-    <t>Т 256 МХ</t>
-  </si>
-  <si>
     <t>Спец.отд. бронирования</t>
   </si>
   <si>
@@ -2576,15 +2586,6 @@
     <t>М 897 УУ123</t>
   </si>
   <si>
-    <t>Х 796 ООО 123</t>
-  </si>
-  <si>
-    <t>Руководитель направления по работе с туристическими компаниями</t>
-  </si>
-  <si>
-    <t>Ведущий менеджер по управлению номерным фондом</t>
-  </si>
-  <si>
     <t>Сокурова Анакстасия Эдуардовна</t>
   </si>
   <si>
@@ -2678,12 +2679,6 @@
     <t>8-918-359-96-98 Евгений  8-989-160-60-99 Юлия Парамок</t>
   </si>
   <si>
-    <t>Водитель</t>
-  </si>
-  <si>
-    <t>Сан. Врач</t>
-  </si>
-  <si>
     <t>8-928-666-99-39  8-918-111-26-61</t>
   </si>
   <si>
@@ -2874,13 +2869,52 @@
   </si>
   <si>
     <t>БФ 12 руководство</t>
+  </si>
+  <si>
+    <t>Не работает</t>
+  </si>
+  <si>
+    <t>Линия 4</t>
+  </si>
+  <si>
+    <t>Ниссан Ноут</t>
+  </si>
+  <si>
+    <t>А 071 ВЕ 164</t>
+  </si>
+  <si>
+    <t>Трушина Ольга Николаевна</t>
+  </si>
+  <si>
+    <t>ДОСУГ артист</t>
+  </si>
+  <si>
+    <t>8-927-124-60-26</t>
+  </si>
+  <si>
+    <t>Руководитель отдела снабжения</t>
+  </si>
+  <si>
+    <t>Главный инженер</t>
+  </si>
+  <si>
+    <t>Водитель руководства</t>
+  </si>
+  <si>
+    <t>СФГ ИП «Чистяков»</t>
+  </si>
+  <si>
+    <t>8-902-260-29-88</t>
+  </si>
+  <si>
+    <t>Зам рук СПР</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2910,6 +2944,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3260,16 +3301,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3285,62 +3326,42 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>372</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>881</v>
+        <v>744</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>378</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3348,19 +3369,19 @@
         <v>192</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>381</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3368,19 +3389,19 @@
         <v>192</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>879</v>
+        <v>862</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3388,239 +3409,239 @@
         <v>192</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>385</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>388</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>392</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>397</v>
+        <v>192</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>402</v>
+        <v>672</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>761</v>
+        <v>861</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>192</v>
+        <v>742</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>407</v>
+        <v>727</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>682</v>
+        <v>412</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>878</v>
+        <v>754</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>737</v>
+        <v>192</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>752</v>
+        <v>727</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>419</v>
+        <v>727</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3628,1379 +3649,1379 @@
         <v>192</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>767</v>
+        <v>860</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>737</v>
+        <v>433</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>429</v>
+        <v>727</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>192</v>
+        <v>727</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>877</v>
+        <v>821</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>438</v>
+        <v>192</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>441</v>
+        <v>231</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>450</v>
+        <v>231</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>832</v>
+        <v>768</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>192</v>
+        <v>743</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>452</v>
+        <v>907</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>453</v>
+        <v>932</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>454</v>
+        <v>399</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>737</v>
+        <v>192</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>428</v>
+        <v>466</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>462</v>
+        <v>671</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>231</v>
+        <v>470</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>463</v>
+        <v>727</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>753</v>
+        <v>727</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>926</v>
+        <v>475</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>695</v>
+        <v>677</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>198</v>
+        <v>476</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>752</v>
+        <v>192</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>401</v>
+        <v>477</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>192</v>
+        <v>730</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>697</v>
+        <v>674</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>681</v>
+        <v>486</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>699</v>
+        <v>673</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>192</v>
+        <v>727</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>737</v>
+        <v>192</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>700</v>
+        <v>604</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>683</v>
+        <v>605</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>737</v>
+        <v>508</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>701</v>
+        <v>606</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>792</v>
+        <v>822</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>701</v>
+        <v>607</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>737</v>
+        <v>515</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>702</v>
+        <v>608</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>504</v>
+        <v>731</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>192</v>
+        <v>727</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>703</v>
+        <v>609</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>833</v>
+        <v>792</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>521</v>
+        <v>192</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>741</v>
+        <v>536</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>737</v>
+        <v>192</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>737</v>
+        <v>192</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>532</v>
+        <v>732</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>533</v>
+        <v>192</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>802</v>
+        <v>733</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>539</v>
+        <v>734</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>192</v>
+        <v>727</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>542</v>
+        <v>735</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>543</v>
+        <v>192</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>192</v>
+        <v>736</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>549</v>
+        <v>737</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>192</v>
+        <v>736</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>551</v>
+        <v>869</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>552</v>
+        <v>738</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>738</v>
+        <v>562</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>742</v>
+        <v>565</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>192</v>
+        <v>727</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>834</v>
+        <v>568</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>744</v>
+        <v>571</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>809</v>
+        <v>825</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>745</v>
+        <v>573</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>810</v>
+        <v>826</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>562</v>
+        <v>870</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>563</v>
+        <v>738</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>811</v>
+        <v>827</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>192</v>
+        <v>670</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>566</v>
+        <v>739</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>746</v>
+        <v>670</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>567</v>
+        <v>399</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>746</v>
+        <v>578</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>888</v>
+        <v>580</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>748</v>
+        <v>581</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>570</v>
+        <v>729</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>835</v>
+        <v>943</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>737</v>
+        <v>192</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>889</v>
+        <v>597</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>639</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>748</v>
+        <v>598</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>838</v>
+        <v>811</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>680</v>
+        <v>727</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>583</v>
+        <v>378</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>640</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>749</v>
+        <v>584</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>680</v>
+        <v>727</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>401</v>
+        <v>600</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>641</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>749</v>
+        <v>602</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>586</v>
+        <v>933</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>587</v>
+        <v>934</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>588</v>
+        <v>935</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>642</v>
+        <v>936</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>589</v>
+        <v>937</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>818</v>
+        <v>938</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>739</v>
+        <v>9</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>590</v>
+        <v>694</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>591</v>
+        <v>695</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>643</v>
+        <v>696</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>592</v>
+        <v>697</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>819</v>
+        <v>867</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>737</v>
+        <v>9</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>593</v>
+        <v>698</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>594</v>
+        <v>699</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>644</v>
+        <v>696</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>595</v>
+        <v>697</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>820</v>
+        <v>867</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>737</v>
+        <v>9</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>596</v>
+        <v>700</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>597</v>
+        <v>701</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>645</v>
+        <v>702</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>598</v>
+        <v>703</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>839</v>
+        <v>814</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>192</v>
+        <v>9</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>599</v>
+        <v>440</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>600</v>
+        <v>704</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>646</v>
+        <v>705</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>601</v>
+        <v>703</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>840</v>
+        <v>815</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>602</v>
+        <v>9</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>553</v>
+        <v>706</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>603</v>
+        <v>707</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>647</v>
+        <v>708</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>604</v>
+        <v>709</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>737</v>
+        <v>9</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>605</v>
+        <v>710</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>606</v>
+        <v>711</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>648</v>
+        <v>712</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>607</v>
+        <v>713</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>737</v>
+        <v>9</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>379</v>
+        <v>714</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>608</v>
+        <v>715</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>649</v>
+        <v>716</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>592</v>
+        <v>713</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>737</v>
+        <v>9</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>609</v>
+        <v>717</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>610</v>
+        <v>718</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>650</v>
+        <v>719</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>611</v>
+        <v>713</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -5008,19 +5029,19 @@
         <v>9</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>706</v>
+        <v>740</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>884</v>
+        <v>858</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -5028,19 +5049,16 @@
         <v>9</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>709</v>
+        <v>871</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>707</v>
+        <v>740</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>884</v>
+        <v>859</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -5048,176 +5066,179 @@
         <v>9</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>714</v>
+      <c r="B90" t="s">
+        <v>309</v>
+      </c>
+      <c r="C90" t="s">
+        <v>325</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>715</v>
+        <v>9</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>713</v>
+        <v>942</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>826</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>717</v>
+      <c r="B91" t="s">
+        <v>310</v>
+      </c>
+      <c r="C91" t="s">
+        <v>326</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>718</v>
+        <v>9</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>719</v>
+        <v>942</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>827</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>721</v>
+      <c r="B92" t="s">
+        <v>311</v>
+      </c>
+      <c r="C92" t="s">
+        <v>327</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>722</v>
+        <v>9</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>723</v>
+        <v>942</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>828</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>725</v>
+      <c r="B93" t="s">
+        <v>312</v>
+      </c>
+      <c r="C93" t="s">
+        <v>328</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>726</v>
+        <v>9</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>723</v>
+        <v>942</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>829</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B94" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>728</v>
+      <c r="B94" t="s">
+        <v>313</v>
+      </c>
+      <c r="C94" t="s">
+        <v>329</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>729</v>
+        <v>9</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>723</v>
+        <v>942</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>830</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>730</v>
+      <c r="B95" t="s">
+        <v>310</v>
+      </c>
+      <c r="C95" t="s">
+        <v>330</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>750</v>
+        <v>9</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>723</v>
+        <v>942</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>875</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B96" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>890</v>
+      <c r="B96" t="s">
+        <v>314</v>
+      </c>
+      <c r="C96" t="s">
+        <v>331</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>750</v>
+        <v>9</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>942</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>876</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>733</v>
+      <c r="B97" t="s">
+        <v>314</v>
+      </c>
+      <c r="C97" t="s">
+        <v>332</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>734</v>
+        <v>9</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>735</v>
+        <v>942</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>831</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -5225,16 +5246,16 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C98" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>9</v>
@@ -5245,16 +5266,16 @@
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C99" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>9</v>
@@ -5265,16 +5286,16 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C100" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>9</v>
@@ -5285,16 +5306,16 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C101" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>9</v>
@@ -5305,16 +5326,16 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C102" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>9</v>
@@ -5325,16 +5346,16 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C103" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>9</v>
@@ -5345,16 +5366,16 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C104" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>9</v>
@@ -5365,16 +5386,16 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C105" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>9</v>
@@ -5385,16 +5406,16 @@
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C106" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>9</v>
@@ -5405,16 +5426,16 @@
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C107" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>9</v>
@@ -5425,16 +5446,16 @@
         <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C108" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>9</v>
@@ -5445,16 +5466,16 @@
         <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C109" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>9</v>
@@ -5465,16 +5486,16 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C110" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>9</v>
@@ -5485,16 +5506,16 @@
         <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C111" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>9</v>
@@ -5505,16 +5526,16 @@
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C112" t="s">
-        <v>339</v>
+        <v>872</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>9</v>
@@ -5525,16 +5546,16 @@
         <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="C113" t="s">
-        <v>340</v>
+        <v>873</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>9</v>
@@ -5545,16 +5566,16 @@
         <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="C114" t="s">
-        <v>341</v>
+        <v>874</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>9</v>
@@ -5565,16 +5586,16 @@
         <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C115" t="s">
-        <v>342</v>
+        <v>875</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>9</v>
@@ -5585,16 +5606,16 @@
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="C116" t="s">
-        <v>343</v>
+        <v>876</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>9</v>
@@ -5605,16 +5626,16 @@
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="C117" t="s">
-        <v>344</v>
+        <v>877</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>9</v>
@@ -5625,16 +5646,16 @@
         <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="C118" t="s">
-        <v>345</v>
+        <v>878</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>9</v>
@@ -5645,16 +5666,16 @@
         <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="C119" t="s">
-        <v>346</v>
+        <v>906</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>9</v>
@@ -5665,16 +5686,16 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="C120" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>9</v>
@@ -5685,16 +5706,16 @@
         <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="C121" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>9</v>
@@ -5705,16 +5726,16 @@
         <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="C122" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>9</v>
@@ -5725,16 +5746,16 @@
         <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="C123" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>9</v>
@@ -5745,16 +5766,16 @@
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="C124" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>9</v>
@@ -5765,16 +5786,16 @@
         <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="C125" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>9</v>
@@ -5785,16 +5806,16 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="C126" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>9</v>
@@ -5805,16 +5826,16 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C127" t="s">
-        <v>925</v>
+        <v>898</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>9</v>
@@ -5825,16 +5846,16 @@
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C128" t="s">
-        <v>924</v>
+        <v>897</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>9</v>
@@ -5845,16 +5866,16 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C129" t="s">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>9</v>
@@ -5865,16 +5886,16 @@
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C130" t="s">
-        <v>922</v>
+        <v>895</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>9</v>
@@ -5885,16 +5906,16 @@
         <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C131" t="s">
-        <v>921</v>
+        <v>894</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>9</v>
@@ -5905,16 +5926,16 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C132" t="s">
-        <v>920</v>
+        <v>893</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>9</v>
@@ -5925,16 +5946,16 @@
         <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C133" t="s">
-        <v>919</v>
+        <v>892</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>9</v>
@@ -5945,16 +5966,16 @@
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C134" t="s">
-        <v>918</v>
+        <v>891</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>9</v>
@@ -5965,16 +5986,16 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C135" t="s">
-        <v>917</v>
+        <v>890</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>9</v>
@@ -5985,16 +6006,16 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C136" t="s">
-        <v>916</v>
+        <v>889</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>9</v>
@@ -6005,16 +6026,16 @@
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C137" t="s">
-        <v>915</v>
+        <v>888</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>9</v>
@@ -6025,16 +6046,16 @@
         <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C138" t="s">
-        <v>914</v>
+        <v>886</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>9</v>
@@ -6045,16 +6066,16 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C139" t="s">
-        <v>913</v>
+        <v>885</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>9</v>
@@ -6065,16 +6086,16 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C140" t="s">
-        <v>912</v>
+        <v>887</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>9</v>
@@ -6085,16 +6106,16 @@
         <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C141" t="s">
-        <v>911</v>
+        <v>884</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>9</v>
@@ -6105,16 +6126,16 @@
         <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C142" t="s">
-        <v>910</v>
+        <v>883</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>9</v>
@@ -6125,16 +6146,16 @@
         <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C143" t="s">
-        <v>909</v>
+        <v>882</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>9</v>
@@ -6145,16 +6166,16 @@
         <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="C144" t="s">
-        <v>908</v>
+        <v>881</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>9</v>
@@ -6165,16 +6186,16 @@
         <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C145" t="s">
-        <v>907</v>
+        <v>880</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>9</v>
@@ -6185,16 +6206,16 @@
         <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="C146" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>347</v>
+        <v>942</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>9</v>
@@ -6202,19 +6223,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B147" t="s">
-        <v>364</v>
-      </c>
-      <c r="C147" t="s">
-        <v>904</v>
+        <v>838</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>347</v>
+        <v>940</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>9</v>
@@ -6222,19 +6243,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B148" t="s">
-        <v>355</v>
-      </c>
-      <c r="C148" t="s">
-        <v>906</v>
+        <v>839</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>347</v>
+        <v>831</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>9</v>
@@ -6242,59 +6263,59 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B149" t="s">
-        <v>363</v>
-      </c>
-      <c r="C149" t="s">
-        <v>903</v>
+        <v>594</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>595</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>9</v>
+        <v>638</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>347</v>
+        <v>939</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>9</v>
+        <v>810</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B150" t="s">
-        <v>365</v>
-      </c>
-      <c r="C150" t="s">
-        <v>902</v>
+        <v>458</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>460</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>9</v>
+        <v>684</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>347</v>
+        <v>865</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>9</v>
+        <v>769</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B151" t="s">
-        <v>366</v>
-      </c>
-      <c r="C151" t="s">
-        <v>901</v>
+        <v>840</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>347</v>
+        <v>832</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>9</v>
@@ -6302,67 +6323,67 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B152" t="s">
-        <v>367</v>
-      </c>
-      <c r="C152" t="s">
-        <v>900</v>
+        <v>726</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>9</v>
+        <v>622</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>347</v>
+        <v>866</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>9</v>
+        <v>801</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B153" t="s">
-        <v>368</v>
-      </c>
-      <c r="C153" t="s">
-        <v>899</v>
+        <v>398</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>400</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>9</v>
+        <v>655</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>347</v>
+        <v>401</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>9</v>
+        <v>751</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B154" t="s">
-        <v>348</v>
-      </c>
-      <c r="C154" t="s">
-        <v>898</v>
+        <v>448</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>450</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>9</v>
+        <v>681</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>347</v>
+        <v>451</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>9</v>
+        <v>765</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>9</v>
@@ -6374,7 +6395,7 @@
         <v>9</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>9</v>
@@ -6382,159 +6403,159 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>9</v>
+        <v>417</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>9</v>
+        <v>418</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>9</v>
+        <v>837</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>9</v>
+        <v>756</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>602</v>
+        <v>425</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>553</v>
+        <v>426</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>603</v>
+        <v>427</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>821</v>
+        <v>759</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>463</v>
+        <v>537</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>9</v>
+        <v>538</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>465</v>
+        <v>836</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>694</v>
+        <v>615</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>882</v>
+        <v>539</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>779</v>
+        <v>795</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>857</v>
+        <v>372</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>9</v>
+        <v>644</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>9</v>
+        <v>373</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>9</v>
+        <v>645</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>845</v>
+        <v>374</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>9</v>
+        <v>864</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>736</v>
+        <v>392</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>561</v>
+        <v>393</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>562</v>
+        <v>394</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>631</v>
+        <v>653</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>883</v>
+        <v>944</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>811</v>
+        <v>749</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>400</v>
+        <v>920</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>401</v>
+        <v>843</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>402</v>
+        <v>844</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>664</v>
+        <v>852</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>403</v>
+        <v>9</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>761</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>453</v>
+        <v>921</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>454</v>
+        <v>9</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>455</v>
+        <v>9</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>691</v>
+        <v>9</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>456</v>
+        <v>9</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>775</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>858</v>
+        <v>922</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>9</v>
+        <v>845</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>9</v>
+        <v>846</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>9</v>
+        <v>853</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>846</v>
+        <v>9</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>9</v>
@@ -6542,116 +6563,116 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>859</v>
+        <v>923</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>420</v>
+        <v>563</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>847</v>
+        <v>564</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>854</v>
+        <v>626</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>848</v>
+        <v>9</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>766</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>429</v>
+        <v>924</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>430</v>
+        <v>847</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>431</v>
+        <v>848</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>673</v>
+        <v>854</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>849</v>
+        <v>9</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>769</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>543</v>
+        <v>925</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>850</v>
+        <v>580</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>546</v>
+        <v>9</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>805</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>373</v>
+        <v>926</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>653</v>
+        <v>512</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>654</v>
+        <v>855</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>852</v>
+        <v>9</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>881</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>393</v>
+        <v>927</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>394</v>
+        <v>9</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>395</v>
+        <v>9</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>662</v>
+        <v>9</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>853</v>
+        <v>9</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>759</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>860</v>
+        <v>9</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>861</v>
+        <v>9</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>869</v>
+        <v>9</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>9</v>
@@ -6662,16 +6683,16 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>9</v>
+        <v>850</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>9</v>
+        <v>851</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>9</v>
+        <v>856</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>9</v>
@@ -6682,16 +6703,16 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>862</v>
+        <v>389</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>863</v>
+        <v>390</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>870</v>
+        <v>603</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>9</v>
@@ -6702,16 +6723,16 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>571</v>
+        <v>9</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>572</v>
+        <v>9</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>635</v>
+        <v>9</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>9</v>
@@ -6722,76 +6743,76 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>943</v>
+        <v>9</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>864</v>
+        <v>385</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>865</v>
+        <v>396</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>871</v>
+        <v>654</v>
       </c>
       <c r="E173" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>9</v>
+        <v>750</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>944</v>
+        <v>9</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>587</v>
+        <v>9</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>588</v>
+        <v>9</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>642</v>
+        <v>857</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>9</v>
+        <v>941</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>9</v>
+        <v>868</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>945</v>
+        <v>9</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>518</v>
+        <v>434</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>866</v>
+        <v>435</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>872</v>
+        <v>666</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>9</v>
+        <v>436</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>9</v>
+        <v>761</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>946</v>
+        <v>9</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>9</v>
+        <v>908</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>9</v>
+        <v>909</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>9</v>
+        <v>910</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>9</v>
@@ -6802,16 +6823,16 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>947</v>
+        <v>9</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>9</v>
+        <v>911</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>9</v>
+        <v>912</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>9</v>
+        <v>910</v>
       </c>
       <c r="E177" s="5" t="s">
         <v>9</v>
@@ -6822,16 +6843,16 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>948</v>
+        <v>9</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>867</v>
+        <v>913</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>868</v>
+        <v>914</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>873</v>
+        <v>910</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>9</v>
@@ -6842,16 +6863,16 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>949</v>
+        <v>9</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>390</v>
+        <v>915</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>391</v>
+        <v>916</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>612</v>
+        <v>910</v>
       </c>
       <c r="E179" s="5" t="s">
         <v>9</v>
@@ -6862,16 +6883,16 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>950</v>
+        <v>9</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>9</v>
+        <v>706</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>9</v>
+        <v>917</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>9</v>
+        <v>910</v>
       </c>
       <c r="E180" s="5" t="s">
         <v>9</v>
@@ -6885,19 +6906,19 @@
         <v>9</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>386</v>
+        <v>706</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>398</v>
+        <v>918</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>663</v>
+        <v>910</v>
       </c>
       <c r="E181" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>760</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -6905,178 +6926,18 @@
         <v>9</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>9</v>
+        <v>915</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>9</v>
+        <v>919</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>874</v>
+        <v>910</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>885</v>
+        <v>9</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="E183" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="F183" s="5" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>927</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>928</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>929</v>
-      </c>
-      <c r="E184" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F184" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>930</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>931</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>929</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F185" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>932</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>933</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>929</v>
-      </c>
-      <c r="E186" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F186" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>934</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>935</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>929</v>
-      </c>
-      <c r="E187" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F187" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>936</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>929</v>
-      </c>
-      <c r="E188" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F188" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>937</v>
-      </c>
-      <c r="D189" s="5" t="s">
-        <v>929</v>
-      </c>
-      <c r="E189" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F189" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>934</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>938</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>929</v>
-      </c>
-      <c r="E190" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F190" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7084,6 +6945,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/all.xlsx
+++ b/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479E2F06-7C13-45A9-B828-1E4D4C1C98C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8CABBF-47AB-4787-9018-0900D4F6092C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <author>Пользователь</author>
   </authors>
   <commentList>
-    <comment ref="E152" authorId="0" shapeId="0" xr:uid="{C89BD535-09CB-4FEC-B9EF-B7676DB2F29A}">
+    <comment ref="E150" authorId="0" shapeId="0" xr:uid="{C89BD535-09CB-4FEC-B9EF-B7676DB2F29A}">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E159" authorId="0" shapeId="0" xr:uid="{6388DA69-8E8E-48EB-8EAB-C12327B2E94F}">
+    <comment ref="E157" authorId="0" shapeId="0" xr:uid="{6388DA69-8E8E-48EB-8EAB-C12327B2E94F}">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E160" authorId="0" shapeId="0" xr:uid="{033DAB00-8055-4CEC-8C55-4BC6D490B466}">
+    <comment ref="E158" authorId="0" shapeId="0" xr:uid="{033DAB00-8055-4CEC-8C55-4BC6D490B466}">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="950">
   <si>
     <t>Примечание</t>
   </si>
@@ -2908,6 +2908,21 @@
   </si>
   <si>
     <t>Зам рук СПР</t>
+  </si>
+  <si>
+    <t>8-918-421-35-12</t>
+  </si>
+  <si>
+    <t>ДОСУГ концертмейстер</t>
+  </si>
+  <si>
+    <t>Мерседес Бенз</t>
+  </si>
+  <si>
+    <t>О 030 УВ 93</t>
+  </si>
+  <si>
+    <t>Гайворонская Анна Павловна, еще приезжает на ней Гольдберг</t>
   </si>
 </sst>
 </file>
@@ -3308,9 +3323,9 @@
   <dimension ref="A1:F182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3344,24 +3359,44 @@
         <v>744</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>863</v>
+      </c>
+    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>375</v>
+        <v>192</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>648</v>
+        <v>379</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>863</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3369,19 +3404,19 @@
         <v>192</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>378</v>
+        <v>649</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>745</v>
+        <v>862</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3389,219 +3424,219 @@
         <v>192</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>649</v>
+        <v>382</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>862</v>
+        <v>746</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>192</v>
+        <v>741</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>741</v>
+        <v>388</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>652</v>
+        <v>603</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>603</v>
+        <v>654</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>395</v>
+        <v>192</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>192</v>
+        <v>405</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>403</v>
+        <v>672</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>752</v>
+        <v>861</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>405</v>
+        <v>742</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>672</v>
+        <v>409</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>861</v>
+        <v>753</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>742</v>
+        <v>192</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>192</v>
+        <v>727</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3609,79 +3644,79 @@
         <v>727</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>727</v>
+        <v>192</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>428</v>
+        <v>385</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>760</v>
+        <v>860</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>192</v>
+        <v>433</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>860</v>
+        <v>761</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>433</v>
+        <v>727</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3689,19 +3724,19 @@
         <v>727</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3709,59 +3744,59 @@
         <v>727</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>763</v>
+        <v>821</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>727</v>
+        <v>192</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>445</v>
+        <v>231</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>821</v>
+        <v>764</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>192</v>
+        <v>727</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>231</v>
+        <v>424</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3769,19 +3804,19 @@
         <v>727</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3789,99 +3824,99 @@
         <v>727</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>456</v>
+        <v>231</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>457</v>
+        <v>907</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>743</v>
+        <v>192</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>907</v>
+        <v>465</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>198</v>
+        <v>466</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>932</v>
+        <v>727</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>399</v>
+        <v>467</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>192</v>
+        <v>727</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>465</v>
+        <v>671</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3889,19 +3924,19 @@
         <v>727</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3909,99 +3944,99 @@
         <v>727</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>671</v>
+        <v>475</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>727</v>
+        <v>192</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>192</v>
+        <v>727</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>479</v>
+        <v>442</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -4009,19 +4044,19 @@
         <v>727</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -4029,19 +4064,19 @@
         <v>727</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -4049,19 +4084,19 @@
         <v>727</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -4069,39 +4104,39 @@
         <v>727</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>727</v>
+        <v>192</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -4109,59 +4144,59 @@
         <v>727</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>692</v>
+        <v>604</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>192</v>
+        <v>727</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>693</v>
+        <v>605</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>727</v>
+        <v>508</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>785</v>
+        <v>822</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -4169,39 +4204,39 @@
         <v>727</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>511</v>
+        <v>731</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>822</v>
+        <v>788</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -4209,39 +4244,39 @@
         <v>727</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>515</v>
+        <v>727</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>731</v>
+        <v>523</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -4249,39 +4284,39 @@
         <v>727</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>727</v>
+        <v>527</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -4289,59 +4324,59 @@
         <v>727</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>527</v>
+        <v>192</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>727</v>
+        <v>192</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -4349,39 +4384,39 @@
         <v>192</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>192</v>
+        <v>728</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>542</v>
+        <v>732</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -4389,179 +4424,179 @@
         <v>192</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>797</v>
+        <v>733</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>192</v>
+        <v>727</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>823</v>
+        <v>735</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>727</v>
+        <v>192</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>734</v>
+        <v>558</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>192</v>
+        <v>736</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>557</v>
+        <v>869</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>558</v>
+        <v>738</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>736</v>
+        <v>562</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>737</v>
+        <v>565</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>869</v>
+        <v>567</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>738</v>
+        <v>568</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>804</v>
+        <v>824</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>562</v>
+        <v>727</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>805</v>
+        <v>825</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -4569,19 +4604,19 @@
         <v>727</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -4589,159 +4624,159 @@
         <v>727</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>570</v>
+        <v>870</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>571</v>
+        <v>738</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>727</v>
+        <v>670</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>573</v>
+        <v>739</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>826</v>
+        <v>806</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>727</v>
+        <v>670</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>574</v>
+        <v>399</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>870</v>
+        <v>577</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>827</v>
+        <v>807</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>670</v>
+        <v>578</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>739</v>
+        <v>581</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>670</v>
+        <v>729</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>399</v>
+        <v>582</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>739</v>
+        <v>584</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>578</v>
+        <v>727</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>808</v>
+        <v>943</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>809</v>
+        <v>828</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>727</v>
+        <v>192</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>943</v>
+        <v>829</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -4749,39 +4784,39 @@
         <v>727</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>828</v>
+        <v>811</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>192</v>
+        <v>727</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>591</v>
+        <v>378</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -4789,79 +4824,79 @@
         <v>727</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>727</v>
+        <v>933</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>378</v>
+        <v>934</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>599</v>
+        <v>935</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>640</v>
+        <v>936</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>584</v>
+        <v>937</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>812</v>
+        <v>938</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>727</v>
+        <v>9</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>600</v>
+        <v>694</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>601</v>
+        <v>695</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>641</v>
+        <v>696</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>602</v>
+        <v>697</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>813</v>
+        <v>867</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>933</v>
+        <v>9</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>934</v>
+        <v>698</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>935</v>
+        <v>699</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>936</v>
+        <v>696</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>937</v>
+        <v>697</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>938</v>
+        <v>867</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -4869,19 +4904,19 @@
         <v>9</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>867</v>
+        <v>814</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -4889,19 +4924,19 @@
         <v>9</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>698</v>
+        <v>440</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>867</v>
+        <v>815</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -4909,19 +4944,19 @@
         <v>9</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -4929,19 +4964,19 @@
         <v>9</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>440</v>
+        <v>710</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -4949,19 +4984,19 @@
         <v>9</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -4969,19 +5004,19 @@
         <v>9</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>713</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -4989,19 +5024,19 @@
         <v>9</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>716</v>
+        <v>740</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>713</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>818</v>
+        <v>858</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -5009,19 +5044,16 @@
         <v>9</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>718</v>
+        <v>871</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>713</v>
+        <v>740</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>819</v>
+        <v>859</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -5029,56 +5061,59 @@
         <v>9</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>858</v>
+        <v>820</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>871</v>
+      <c r="B88" t="s">
+        <v>309</v>
+      </c>
+      <c r="C88" t="s">
+        <v>325</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>740</v>
+        <v>9</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>942</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>859</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>723</v>
+      <c r="B89" t="s">
+        <v>310</v>
+      </c>
+      <c r="C89" t="s">
+        <v>326</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>724</v>
+        <v>9</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>725</v>
+        <v>942</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>820</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -5086,10 +5121,10 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C90" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>9</v>
@@ -5106,10 +5141,10 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C91" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>9</v>
@@ -5126,10 +5161,10 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C92" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>9</v>
@@ -5146,10 +5181,10 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C93" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>9</v>
@@ -5166,10 +5201,10 @@
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C94" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>9</v>
@@ -5186,10 +5221,10 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C95" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>9</v>
@@ -5206,10 +5241,10 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C96" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>9</v>
@@ -5226,10 +5261,10 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C97" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>9</v>
@@ -5246,10 +5281,10 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C98" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>9</v>
@@ -5266,10 +5301,10 @@
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C99" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>9</v>
@@ -5286,10 +5321,10 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C100" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>9</v>
@@ -5306,10 +5341,10 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C101" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>9</v>
@@ -5326,10 +5361,10 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C102" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>9</v>
@@ -5346,10 +5381,10 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C103" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>9</v>
@@ -5366,10 +5401,10 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C104" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>9</v>
@@ -5386,10 +5421,10 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C105" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>9</v>
@@ -5406,10 +5441,10 @@
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C106" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>9</v>
@@ -5426,10 +5461,10 @@
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C107" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>9</v>
@@ -5449,7 +5484,7 @@
         <v>323</v>
       </c>
       <c r="C108" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>9</v>
@@ -5466,10 +5501,10 @@
         <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C109" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>9</v>
@@ -5486,10 +5521,10 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C110" t="s">
-        <v>345</v>
+        <v>872</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>9</v>
@@ -5506,10 +5541,10 @@
         <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="C111" t="s">
-        <v>346</v>
+        <v>873</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>9</v>
@@ -5526,10 +5561,10 @@
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>312</v>
+        <v>368</v>
       </c>
       <c r="C112" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>9</v>
@@ -5546,10 +5581,10 @@
         <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="C113" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>9</v>
@@ -5569,7 +5604,7 @@
         <v>368</v>
       </c>
       <c r="C114" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>9</v>
@@ -5586,10 +5621,10 @@
         <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="C115" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>9</v>
@@ -5606,10 +5641,10 @@
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C116" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>9</v>
@@ -5626,10 +5661,10 @@
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="C117" t="s">
-        <v>877</v>
+        <v>906</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>9</v>
@@ -5646,10 +5681,10 @@
         <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="C118" t="s">
-        <v>878</v>
+        <v>905</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>9</v>
@@ -5669,7 +5704,7 @@
         <v>349</v>
       </c>
       <c r="C119" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>9</v>
@@ -5689,7 +5724,7 @@
         <v>349</v>
       </c>
       <c r="C120" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>9</v>
@@ -5706,10 +5741,10 @@
         <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C121" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>9</v>
@@ -5726,10 +5761,10 @@
         <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C122" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>9</v>
@@ -5746,10 +5781,10 @@
         <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C123" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>9</v>
@@ -5766,10 +5801,10 @@
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C124" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>9</v>
@@ -5786,10 +5821,10 @@
         <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C125" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>9</v>
@@ -5806,10 +5841,10 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C126" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>9</v>
@@ -5826,10 +5861,10 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C127" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>9</v>
@@ -5846,10 +5881,10 @@
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C128" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>9</v>
@@ -5866,10 +5901,10 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C129" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>9</v>
@@ -5886,10 +5921,10 @@
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C130" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>9</v>
@@ -5906,10 +5941,10 @@
         <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C131" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>9</v>
@@ -5926,10 +5961,10 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C132" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>9</v>
@@ -5946,10 +5981,10 @@
         <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C133" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>9</v>
@@ -5966,10 +6001,10 @@
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C134" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>9</v>
@@ -5986,10 +6021,10 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C135" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>9</v>
@@ -6006,10 +6041,10 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="C136" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>9</v>
@@ -6026,10 +6061,10 @@
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C137" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>9</v>
@@ -6046,10 +6081,10 @@
         <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C138" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>9</v>
@@ -6066,10 +6101,10 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C139" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>9</v>
@@ -6086,10 +6121,10 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C140" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>9</v>
@@ -6106,10 +6141,10 @@
         <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C141" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>9</v>
@@ -6126,10 +6161,10 @@
         <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C142" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>9</v>
@@ -6146,10 +6181,10 @@
         <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C143" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>9</v>
@@ -6166,10 +6201,10 @@
         <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="C144" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>9</v>
@@ -6183,19 +6218,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B145" t="s">
-        <v>367</v>
-      </c>
-      <c r="C145" t="s">
-        <v>880</v>
+        <v>838</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>9</v>
@@ -6203,19 +6238,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B146" t="s">
-        <v>347</v>
-      </c>
-      <c r="C146" t="s">
-        <v>879</v>
+        <v>839</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>942</v>
+        <v>831</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>9</v>
@@ -6223,296 +6258,296 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>838</v>
+        <v>594</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>9</v>
+        <v>546</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>9</v>
+        <v>595</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>9</v>
+        <v>638</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>9</v>
+        <v>810</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>839</v>
+        <v>458</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>9</v>
+        <v>459</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>9</v>
+        <v>460</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>9</v>
+        <v>684</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>831</v>
+        <v>865</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>9</v>
+        <v>769</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>594</v>
+        <v>840</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>546</v>
+        <v>9</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>595</v>
+        <v>9</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>638</v>
+        <v>9</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>939</v>
+        <v>832</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>810</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>458</v>
+        <v>726</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>459</v>
+        <v>554</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>460</v>
+        <v>555</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>684</v>
+        <v>622</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>769</v>
+        <v>801</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>840</v>
+        <v>398</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>9</v>
+        <v>399</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>9</v>
+        <v>655</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>832</v>
+        <v>401</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>9</v>
+        <v>751</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>726</v>
+        <v>448</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>554</v>
+        <v>449</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>555</v>
+        <v>450</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>622</v>
+        <v>681</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>866</v>
+        <v>451</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>801</v>
+        <v>765</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>398</v>
+        <v>841</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>399</v>
+        <v>9</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>400</v>
+        <v>9</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>655</v>
+        <v>9</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>401</v>
+        <v>833</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>751</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>448</v>
+        <v>842</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>681</v>
+        <v>837</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>451</v>
+        <v>834</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>841</v>
+        <v>425</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>9</v>
+        <v>426</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>9</v>
+        <v>427</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>9</v>
+        <v>663</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>9</v>
+        <v>759</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>842</v>
+        <v>537</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>417</v>
+        <v>538</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>418</v>
+        <v>836</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>837</v>
+        <v>615</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>834</v>
+        <v>539</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>756</v>
+        <v>795</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>425</v>
+        <v>372</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>426</v>
+        <v>644</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>427</v>
+        <v>373</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>835</v>
+        <v>374</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>759</v>
+        <v>864</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>537</v>
+        <v>392</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>538</v>
+        <v>393</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>836</v>
+        <v>394</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>615</v>
+        <v>653</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>539</v>
+        <v>944</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>372</v>
+        <v>920</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>644</v>
+        <v>843</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>373</v>
+        <v>844</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>645</v>
+        <v>852</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>374</v>
+        <v>9</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>864</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>392</v>
+        <v>921</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>393</v>
+        <v>9</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>394</v>
+        <v>9</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>653</v>
+        <v>9</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>944</v>
+        <v>9</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>749</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>9</v>
@@ -6523,16 +6558,16 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>9</v>
+        <v>563</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>9</v>
+        <v>626</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>9</v>
@@ -6543,16 +6578,16 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>9</v>
@@ -6563,16 +6598,16 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>9</v>
@@ -6583,16 +6618,16 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>847</v>
+        <v>512</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>9</v>
@@ -6603,16 +6638,16 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>579</v>
+        <v>9</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>580</v>
+        <v>9</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>633</v>
+        <v>9</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>9</v>
@@ -6623,16 +6658,16 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>512</v>
+        <v>9</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>849</v>
+        <v>9</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>855</v>
+        <v>9</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>9</v>
@@ -6643,16 +6678,16 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>9</v>
+        <v>850</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>9</v>
+        <v>851</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>9</v>
+        <v>856</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>9</v>
@@ -6663,16 +6698,16 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>9</v>
+        <v>389</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>9</v>
+        <v>390</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>9</v>
+        <v>603</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>9</v>
@@ -6683,16 +6718,16 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>850</v>
+        <v>9</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>851</v>
+        <v>9</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>856</v>
+        <v>9</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>9</v>
@@ -6703,27 +6738,27 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>930</v>
+        <v>9</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>603</v>
+        <v>654</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>9</v>
+        <v>750</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>931</v>
+        <v>9</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>9</v>
@@ -6732,13 +6767,13 @@
         <v>9</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>9</v>
+        <v>857</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>9</v>
+        <v>941</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>9</v>
+        <v>868</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -6746,19 +6781,19 @@
         <v>9</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>9</v>
+        <v>436</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -6766,19 +6801,19 @@
         <v>9</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>9</v>
+        <v>908</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>9</v>
+        <v>909</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>857</v>
+        <v>910</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>941</v>
+        <v>9</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>868</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -6786,19 +6821,19 @@
         <v>9</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>434</v>
+        <v>911</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>435</v>
+        <v>912</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>666</v>
+        <v>910</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>436</v>
+        <v>9</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>761</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -6806,10 +6841,10 @@
         <v>9</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>910</v>
@@ -6826,10 +6861,10 @@
         <v>9</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>910</v>
@@ -6846,10 +6881,10 @@
         <v>9</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>913</v>
+        <v>706</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>910</v>
@@ -6866,10 +6901,10 @@
         <v>9</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>915</v>
+        <v>706</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>910</v>
@@ -6886,10 +6921,10 @@
         <v>9</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>706</v>
+        <v>915</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>910</v>
@@ -6903,42 +6938,42 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>9</v>
+        <v>932</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>706</v>
+        <v>947</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>918</v>
+        <v>948</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>910</v>
+        <v>949</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>9</v>
+        <v>946</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>9</v>
+        <v>945</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>9</v>
+        <v>932</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>915</v>
+        <v>399</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>919</v>
+        <v>462</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>910</v>
+        <v>686</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>9</v>
+        <v>463</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>9</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>

--- a/all.xlsx
+++ b/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8CABBF-47AB-4787-9018-0900D4F6092C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21AD433-44A7-4E32-84B8-34DFCF0D2E5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2922,7 +2922,7 @@
     <t>О 030 УВ 93</t>
   </si>
   <si>
-    <t>Гайворонская Анна Павловна, еще приезжает на ней Гольдберг</t>
+    <t>Гайворонская Анна Павловна еще приезжает на ней Гольдберг</t>
   </si>
 </sst>
 </file>

--- a/all.xlsx
+++ b/all.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21AD433-44A7-4E32-84B8-34DFCF0D2E5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E3CEDB-AB4E-4742-9321-1B789776C8EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="950">
   <si>
     <t>Примечание</t>
   </si>
@@ -3323,9 +3323,9 @@
   <dimension ref="A1:F182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D181" sqref="D181"/>
+      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5051,6 +5051,9 @@
       </c>
       <c r="D86" s="5" t="s">
         <v>740</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>859</v>

--- a/all.xlsx
+++ b/all.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E3CEDB-AB4E-4742-9321-1B789776C8EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EFF99D-8D65-42E6-B747-0BF52E3AF9E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <author>Пользователь</author>
   </authors>
   <commentList>
-    <comment ref="E150" authorId="0" shapeId="0" xr:uid="{C89BD535-09CB-4FEC-B9EF-B7676DB2F29A}">
+    <comment ref="E149" authorId="0" shapeId="0" xr:uid="{C89BD535-09CB-4FEC-B9EF-B7676DB2F29A}">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E157" authorId="0" shapeId="0" xr:uid="{6388DA69-8E8E-48EB-8EAB-C12327B2E94F}">
+    <comment ref="E156" authorId="0" shapeId="0" xr:uid="{6388DA69-8E8E-48EB-8EAB-C12327B2E94F}">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E158" authorId="0" shapeId="0" xr:uid="{033DAB00-8055-4CEC-8C55-4BC6D490B466}">
+    <comment ref="E157" authorId="0" shapeId="0" xr:uid="{033DAB00-8055-4CEC-8C55-4BC6D490B466}">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="947">
   <si>
     <t>Примечание</t>
   </si>
@@ -1215,9 +1215,6 @@
     <t>О 944 ОТ 123</t>
   </si>
   <si>
-    <t>Старший смены</t>
-  </si>
-  <si>
     <t>К 203 СУ 123</t>
   </si>
   <si>
@@ -1761,9 +1758,6 @@
     <t>KIA SHUMA 11</t>
   </si>
   <si>
-    <t>ГК№4</t>
-  </si>
-  <si>
     <t>МАЗДА 3</t>
   </si>
   <si>
@@ -2490,9 +2484,6 @@
     <t>8-950-966-11-19</t>
   </si>
   <si>
-    <t>8-964-946-49-46</t>
-  </si>
-  <si>
     <t>8-960-019-18-19</t>
   </si>
   <si>
@@ -2826,9 +2817,6 @@
     <t xml:space="preserve">О 991 ОО 26 </t>
   </si>
   <si>
-    <t xml:space="preserve"> О 202 ХО 123</t>
-  </si>
-  <si>
     <t>О 358 УС 93</t>
   </si>
   <si>
@@ -2923,6 +2911,9 @@
   </si>
   <si>
     <t>Гайворонская Анна Павловна еще приезжает на ней Гольдберг</t>
+  </si>
+  <si>
+    <t>Начальник смены СВК</t>
   </si>
 </sst>
 </file>
@@ -3320,12 +3311,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F182"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
+      <selection pane="bottomLeft" activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3341,13 +3332,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>370</v>
@@ -3356,7 +3347,7 @@
         <v>371</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3367,16 +3358,16 @@
         <v>376</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>377</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3390,13 +3381,13 @@
         <v>379</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>380</v>
+        <v>946</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3404,19 +3395,19 @@
         <v>192</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>377</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3424,79 +3415,79 @@
         <v>192</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>384</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>387</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>391</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>397</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3504,99 +3495,99 @@
         <v>192</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>404</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="F10" s="5" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>410</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>413</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>416</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3604,59 +3595,59 @@
         <v>192</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>421</v>
-      </c>
       <c r="F14" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>424</v>
-      </c>
       <c r="F15" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3664,99 +3655,99 @@
         <v>192</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>432</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>436</v>
-      </c>
       <c r="F18" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>439</v>
-      </c>
       <c r="F19" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>442</v>
-      </c>
       <c r="F20" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>445</v>
-      </c>
       <c r="F21" s="5" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3764,99 +3755,99 @@
         <v>192</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>447</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>231</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>683</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>456</v>
-      </c>
       <c r="F24" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>231</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>198</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3864,99 +3855,99 @@
         <v>192</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>687</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>466</v>
-      </c>
       <c r="F27" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D28" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>470</v>
-      </c>
       <c r="F29" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>473</v>
-      </c>
       <c r="F30" s="5" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>476</v>
-      </c>
       <c r="F31" s="5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3964,159 +3955,159 @@
         <v>192</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>479</v>
-      </c>
       <c r="F32" s="5" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>482</v>
-      </c>
       <c r="F33" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>484</v>
-      </c>
       <c r="D34" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>487</v>
-      </c>
       <c r="F35" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>490</v>
-      </c>
       <c r="F36" s="5" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>493</v>
-      </c>
       <c r="F37" s="5" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>495</v>
-      </c>
       <c r="D38" s="5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>498</v>
-      </c>
       <c r="F39" s="5" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -4124,219 +4115,219 @@
         <v>192</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>501</v>
-      </c>
       <c r="F40" s="5" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>504</v>
-      </c>
       <c r="F41" s="5" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>507</v>
-      </c>
       <c r="F42" s="5" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>511</v>
-      </c>
       <c r="F43" s="5" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>514</v>
-      </c>
       <c r="F44" s="5" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>517</v>
-      </c>
       <c r="D45" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>520</v>
-      </c>
       <c r="F46" s="5" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D47" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>523</v>
-      </c>
       <c r="F47" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>526</v>
-      </c>
       <c r="F48" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="D49" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>530</v>
-      </c>
       <c r="F49" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="D50" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>533</v>
-      </c>
       <c r="F50" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -4344,19 +4335,19 @@
         <v>192</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="D51" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>536</v>
-      </c>
       <c r="F51" s="5" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -4364,19 +4355,19 @@
         <v>192</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="D52" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>542</v>
-      </c>
       <c r="F52" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -4384,39 +4375,39 @@
         <v>192</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="D53" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>545</v>
-      </c>
       <c r="F53" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>547</v>
-      </c>
       <c r="D54" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -4424,59 +4415,59 @@
         <v>192</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D55" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>551</v>
-      </c>
       <c r="D56" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>553</v>
-      </c>
       <c r="D57" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -4484,379 +4475,379 @@
         <v>192</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>558</v>
-      </c>
       <c r="F58" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>560</v>
-      </c>
       <c r="D59" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>738</v>
-      </c>
       <c r="F60" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>562</v>
+        <v>725</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>570</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>571</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>572</v>
+        <v>867</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>573</v>
+        <v>736</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>870</v>
-      </c>
       <c r="D65" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>827</v>
+        <v>803</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>576</v>
-      </c>
       <c r="D66" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>670</v>
+        <v>576</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>399</v>
+        <v>577</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>739</v>
+        <v>579</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>578</v>
+        <v>727</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>809</v>
+        <v>939</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>943</v>
+        <v>825</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>727</v>
+        <v>192</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>192</v>
+        <v>725</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>637</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>596</v>
+        <v>378</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>597</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>378</v>
+        <v>598</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>599</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>727</v>
+        <v>929</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>600</v>
+        <v>930</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>601</v>
+        <v>931</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>641</v>
+        <v>932</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>602</v>
+        <v>933</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>813</v>
+        <v>934</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>933</v>
+        <v>9</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>934</v>
+        <v>692</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>935</v>
+        <v>693</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>936</v>
+        <v>694</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>937</v>
+        <v>695</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>938</v>
+        <v>864</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -4864,19 +4855,19 @@
         <v>9</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="E77" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>697</v>
-      </c>
       <c r="F77" s="5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -4890,13 +4881,13 @@
         <v>699</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>867</v>
+        <v>811</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -4904,19 +4895,19 @@
         <v>9</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>700</v>
+        <v>439</v>
       </c>
       <c r="C79" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>703</v>
-      </c>
       <c r="F79" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -4924,19 +4915,19 @@
         <v>9</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>440</v>
+        <v>704</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -4944,19 +4935,19 @@
         <v>9</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -4964,19 +4955,19 @@
         <v>9</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C82" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>713</v>
-      </c>
       <c r="F82" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -4984,19 +4975,19 @@
         <v>9</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -5004,19 +4995,19 @@
         <v>9</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>718</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>719</v>
+        <v>738</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>819</v>
+        <v>855</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -5024,19 +5015,19 @@
         <v>9</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>720</v>
+        <v>868</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>713</v>
+        <v>9</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -5044,39 +5035,39 @@
         <v>9</v>
       </c>
       <c r="B86" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>871</v>
-      </c>
       <c r="D86" s="5" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>9</v>
+        <v>723</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>859</v>
+        <v>817</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>723</v>
+      <c r="B87" t="s">
+        <v>309</v>
+      </c>
+      <c r="C87" t="s">
+        <v>325</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>724</v>
+        <v>9</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>725</v>
+        <v>938</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>820</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -5084,16 +5075,16 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C88" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>9</v>
@@ -5104,16 +5095,16 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C89" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>9</v>
@@ -5124,16 +5115,16 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C90" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>9</v>
@@ -5144,16 +5135,16 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C91" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>9</v>
@@ -5164,16 +5155,16 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C92" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>9</v>
@@ -5184,16 +5175,16 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C93" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>9</v>
@@ -5207,13 +5198,13 @@
         <v>314</v>
       </c>
       <c r="C94" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>9</v>
@@ -5224,16 +5215,16 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C95" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>9</v>
@@ -5244,16 +5235,16 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C96" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>9</v>
@@ -5264,16 +5255,16 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C97" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>9</v>
@@ -5284,16 +5275,16 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C98" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>9</v>
@@ -5304,16 +5295,16 @@
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C99" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>9</v>
@@ -5324,16 +5315,16 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C100" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>9</v>
@@ -5344,16 +5335,16 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C101" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>9</v>
@@ -5367,13 +5358,13 @@
         <v>320</v>
       </c>
       <c r="C102" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>9</v>
@@ -5384,16 +5375,16 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C103" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>9</v>
@@ -5404,16 +5395,16 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C104" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>9</v>
@@ -5424,16 +5415,16 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C105" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>9</v>
@@ -5447,13 +5438,13 @@
         <v>323</v>
       </c>
       <c r="C106" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>9</v>
@@ -5467,13 +5458,13 @@
         <v>323</v>
       </c>
       <c r="C107" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>9</v>
@@ -5484,16 +5475,16 @@
         <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C108" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>9</v>
@@ -5504,16 +5495,16 @@
         <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C109" t="s">
-        <v>346</v>
+        <v>869</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>9</v>
@@ -5524,16 +5515,16 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>312</v>
+        <v>368</v>
       </c>
       <c r="C110" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>9</v>
@@ -5547,13 +5538,13 @@
         <v>368</v>
       </c>
       <c r="C111" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>9</v>
@@ -5564,16 +5555,16 @@
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="C112" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>9</v>
@@ -5584,16 +5575,16 @@
         <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="C113" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>9</v>
@@ -5607,13 +5598,13 @@
         <v>368</v>
       </c>
       <c r="C114" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>9</v>
@@ -5624,16 +5615,16 @@
         <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C115" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>9</v>
@@ -5644,16 +5635,16 @@
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="C116" t="s">
-        <v>878</v>
+        <v>903</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>9</v>
@@ -5667,13 +5658,13 @@
         <v>349</v>
       </c>
       <c r="C117" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>9</v>
@@ -5687,13 +5678,13 @@
         <v>349</v>
       </c>
       <c r="C118" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>9</v>
@@ -5707,13 +5698,13 @@
         <v>349</v>
       </c>
       <c r="C119" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>9</v>
@@ -5724,16 +5715,16 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C120" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>9</v>
@@ -5744,16 +5735,16 @@
         <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C121" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>9</v>
@@ -5764,16 +5755,16 @@
         <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C122" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>9</v>
@@ -5784,16 +5775,16 @@
         <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C123" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>9</v>
@@ -5804,16 +5795,16 @@
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C124" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>9</v>
@@ -5824,16 +5815,16 @@
         <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C125" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>9</v>
@@ -5844,16 +5835,16 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C126" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>9</v>
@@ -5864,16 +5855,16 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C127" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>9</v>
@@ -5884,16 +5875,16 @@
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C128" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>9</v>
@@ -5904,16 +5895,16 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C129" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>9</v>
@@ -5924,16 +5915,16 @@
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C130" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>9</v>
@@ -5944,16 +5935,16 @@
         <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C131" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>9</v>
@@ -5964,16 +5955,16 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C132" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>9</v>
@@ -5984,16 +5975,16 @@
         <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C133" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>9</v>
@@ -6004,16 +5995,16 @@
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="C134" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>9</v>
@@ -6024,16 +6015,16 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C135" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>9</v>
@@ -6044,16 +6035,16 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C136" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>9</v>
@@ -6064,16 +6055,16 @@
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C137" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>9</v>
@@ -6084,16 +6075,16 @@
         <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C138" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>9</v>
@@ -6104,16 +6095,16 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C139" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>9</v>
@@ -6124,16 +6115,16 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C140" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>9</v>
@@ -6144,16 +6135,16 @@
         <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C141" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>9</v>
@@ -6164,16 +6155,16 @@
         <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C142" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>9</v>
@@ -6184,16 +6175,16 @@
         <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="C143" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>9</v>
@@ -6201,19 +6192,19 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B144" t="s">
-        <v>347</v>
-      </c>
-      <c r="C144" t="s">
-        <v>879</v>
+        <v>835</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>9</v>
@@ -6221,7 +6212,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>9</v>
@@ -6233,7 +6224,7 @@
         <v>9</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>940</v>
+        <v>828</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>9</v>
@@ -6241,276 +6232,276 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>839</v>
+        <v>592</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>9</v>
+        <v>545</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>9</v>
+        <v>593</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>9</v>
+        <v>636</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>831</v>
+        <v>935</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>9</v>
+        <v>807</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>594</v>
+        <v>457</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>546</v>
+        <v>458</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>595</v>
+        <v>459</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>638</v>
+        <v>682</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>939</v>
+        <v>862</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>810</v>
+        <v>767</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>458</v>
+        <v>837</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>459</v>
+        <v>9</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>460</v>
+        <v>9</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>684</v>
+        <v>9</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>865</v>
+        <v>829</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>769</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>840</v>
+        <v>724</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>9</v>
+        <v>553</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>9</v>
+        <v>554</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>9</v>
+        <v>620</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>832</v>
+        <v>863</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>9</v>
+        <v>799</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>726</v>
+        <v>397</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>554</v>
+        <v>398</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>555</v>
+        <v>399</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>622</v>
+        <v>653</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>866</v>
+        <v>400</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>801</v>
+        <v>749</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>655</v>
+        <v>679</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>448</v>
+        <v>838</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>449</v>
+        <v>9</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>450</v>
+        <v>9</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>681</v>
+        <v>9</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>451</v>
+        <v>830</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>765</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>9</v>
+        <v>416</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>9</v>
+        <v>417</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>9</v>
+        <v>834</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>9</v>
+        <v>754</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>842</v>
+        <v>424</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>837</v>
+        <v>661</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>425</v>
+        <v>536</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>426</v>
+        <v>537</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>427</v>
+        <v>833</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>663</v>
+        <v>613</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>835</v>
+        <v>538</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>759</v>
+        <v>793</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>537</v>
+        <v>372</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>538</v>
+        <v>642</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>836</v>
+        <v>373</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>615</v>
+        <v>643</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>539</v>
+        <v>374</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>795</v>
+        <v>861</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>644</v>
+        <v>392</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>374</v>
+        <v>940</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>864</v>
+        <v>747</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>392</v>
+        <v>916</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>393</v>
+        <v>840</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>394</v>
+        <v>841</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>653</v>
+        <v>849</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>944</v>
+        <v>9</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>749</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>843</v>
+        <v>9</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>844</v>
+        <v>9</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>852</v>
+        <v>9</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>9</v>
@@ -6521,16 +6512,16 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>9</v>
+        <v>842</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>9</v>
+        <v>843</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>9</v>
+        <v>850</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>9</v>
@@ -6541,19 +6532,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>845</v>
+        <v>561</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>846</v>
+        <v>562</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>853</v>
+        <v>624</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>9</v>
+        <v>563</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>9</v>
@@ -6561,16 +6552,16 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>563</v>
+        <v>844</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>564</v>
+        <v>845</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>626</v>
+        <v>851</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>9</v>
@@ -6581,16 +6572,16 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>847</v>
+        <v>577</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>848</v>
+        <v>578</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>854</v>
+        <v>631</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>9</v>
@@ -6601,16 +6592,16 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>579</v>
+        <v>511</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>580</v>
+        <v>846</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>633</v>
+        <v>852</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>9</v>
@@ -6621,16 +6612,16 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>512</v>
+        <v>9</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>849</v>
+        <v>9</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>855</v>
+        <v>9</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>9</v>
@@ -6641,7 +6632,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>9</v>
@@ -6661,16 +6652,16 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>9</v>
+        <v>847</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>9</v>
+        <v>848</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>9</v>
+        <v>853</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>9</v>
@@ -6681,16 +6672,16 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>850</v>
+        <v>388</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>851</v>
+        <v>389</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>856</v>
+        <v>601</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>9</v>
@@ -6701,16 +6692,16 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>389</v>
+        <v>9</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>390</v>
+        <v>9</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>603</v>
+        <v>9</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>9</v>
@@ -6721,22 +6712,22 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>931</v>
+        <v>9</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>9</v>
+        <v>384</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>9</v>
+        <v>395</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>9</v>
+        <v>652</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>9</v>
+        <v>748</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -6744,19 +6735,19 @@
         <v>9</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>385</v>
+        <v>9</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>396</v>
+        <v>9</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>654</v>
+        <v>854</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>9</v>
+        <v>937</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>750</v>
+        <v>865</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -6764,19 +6755,19 @@
         <v>9</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>9</v>
+        <v>433</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>9</v>
+        <v>434</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>857</v>
+        <v>664</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>941</v>
+        <v>435</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>868</v>
+        <v>759</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -6784,19 +6775,19 @@
         <v>9</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>434</v>
+        <v>905</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>435</v>
+        <v>906</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>666</v>
+        <v>907</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>436</v>
+        <v>9</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>761</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -6810,7 +6801,7 @@
         <v>909</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>9</v>
@@ -6824,13 +6815,13 @@
         <v>9</v>
       </c>
       <c r="B175" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>911</v>
       </c>
-      <c r="C175" s="5" t="s">
-        <v>912</v>
-      </c>
       <c r="D175" s="5" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E175" s="5" t="s">
         <v>9</v>
@@ -6844,13 +6835,13 @@
         <v>9</v>
       </c>
       <c r="B176" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="C176" s="5" t="s">
         <v>913</v>
       </c>
-      <c r="C176" s="5" t="s">
-        <v>914</v>
-      </c>
       <c r="D176" s="5" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>9</v>
@@ -6864,13 +6855,13 @@
         <v>9</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>915</v>
+        <v>704</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E177" s="5" t="s">
         <v>9</v>
@@ -6884,13 +6875,13 @@
         <v>9</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>706</v>
+        <v>912</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>9</v>
@@ -6901,82 +6892,42 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>9</v>
+        <v>928</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>706</v>
+        <v>943</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>918</v>
+        <v>944</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>910</v>
+        <v>945</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>9</v>
+        <v>942</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>9</v>
+        <v>941</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>9</v>
+        <v>928</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>915</v>
+        <v>398</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>919</v>
+        <v>461</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>910</v>
+        <v>684</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>9</v>
+        <v>462</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="5" t="s">
-        <v>932</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>947</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>949</v>
-      </c>
-      <c r="E181" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="F181" s="5" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="5" t="s">
-        <v>932</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="E182" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="F182" s="5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
   </sheetData>

--- a/all.xlsx
+++ b/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EFF99D-8D65-42E6-B747-0BF52E3AF9E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854AA2C2-4DBF-425A-BF46-12DAA387DCC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1785,9 +1785,6 @@
     <t>Бухгалтер-калькулятор</t>
   </si>
   <si>
-    <t>М 851 ВН134</t>
-  </si>
-  <si>
     <t>Администратор пляжа</t>
   </si>
   <si>
@@ -1872,9 +1869,6 @@
     <t>Мицубиси Лансер</t>
   </si>
   <si>
-    <t>М 233 НУ134</t>
-  </si>
-  <si>
     <t>СООП-ресторан официант</t>
   </si>
   <si>
@@ -2914,6 +2908,12 @@
   </si>
   <si>
     <t>Начальник смены СВК</t>
+  </si>
+  <si>
+    <t>М 233 НУ 134</t>
+  </si>
+  <si>
+    <t>М 851 ВН 134</t>
   </si>
 </sst>
 </file>
@@ -3314,9 +3314,9 @@
   <dimension ref="A1:F180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D164" sqref="D164"/>
+      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3332,13 +3332,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>370</v>
@@ -3347,7 +3347,7 @@
         <v>371</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3358,16 +3358,16 @@
         <v>376</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>377</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3381,13 +3381,13 @@
         <v>379</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3395,19 +3395,19 @@
         <v>192</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>380</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>377</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3421,18 +3421,18 @@
         <v>382</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>383</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>384</v>
@@ -3441,13 +3441,13 @@
         <v>385</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>386</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3461,13 +3461,13 @@
         <v>389</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>390</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3481,13 +3481,13 @@
         <v>395</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>396</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3501,13 +3501,13 @@
         <v>402</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>403</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3518,21 +3518,21 @@
         <v>405</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>406</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>407</v>
@@ -3541,18 +3541,18 @@
         <v>408</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>409</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>410</v>
@@ -3561,18 +3561,18 @@
         <v>411</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>412</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>413</v>
@@ -3581,13 +3581,13 @@
         <v>414</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>415</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3601,18 +3601,18 @@
         <v>419</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>420</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>421</v>
@@ -3621,18 +3621,18 @@
         <v>422</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>423</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>427</v>
@@ -3641,13 +3641,13 @@
         <v>428</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>429</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3661,13 +3661,13 @@
         <v>430</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>431</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3681,18 +3681,18 @@
         <v>434</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>435</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>436</v>
@@ -3701,18 +3701,18 @@
         <v>437</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>438</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>439</v>
@@ -3721,18 +3721,18 @@
         <v>440</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>441</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>442</v>
@@ -3741,13 +3741,13 @@
         <v>443</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>444</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3761,18 +3761,18 @@
         <v>446</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>231</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>451</v>
@@ -3781,18 +3781,18 @@
         <v>452</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>423</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>453</v>
@@ -3801,18 +3801,18 @@
         <v>454</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>455</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>439</v>
@@ -3821,33 +3821,33 @@
         <v>456</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>231</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>460</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>198</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3861,18 +3861,18 @@
         <v>464</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>465</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>466</v>
@@ -3881,38 +3881,38 @@
         <v>467</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>441</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>468</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>469</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>470</v>
@@ -3921,18 +3921,18 @@
         <v>471</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>472</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>473</v>
@@ -3941,13 +3941,13 @@
         <v>474</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>475</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3961,18 +3961,18 @@
         <v>477</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>478</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>479</v>
@@ -3981,18 +3981,18 @@
         <v>480</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>481</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>482</v>
@@ -4001,18 +4001,18 @@
         <v>483</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>441</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>484</v>
@@ -4021,18 +4021,18 @@
         <v>485</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>486</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>487</v>
@@ -4041,18 +4041,18 @@
         <v>488</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>489</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>490</v>
@@ -4061,18 +4061,18 @@
         <v>491</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>492</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>493</v>
@@ -4081,18 +4081,18 @@
         <v>494</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>492</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>495</v>
@@ -4101,13 +4101,13 @@
         <v>496</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>497</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -4121,18 +4121,18 @@
         <v>499</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>500</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>501</v>
@@ -4141,18 +4141,18 @@
         <v>502</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>503</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>504</v>
@@ -4161,13 +4161,13 @@
         <v>505</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>506</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -4181,18 +4181,18 @@
         <v>509</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>510</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>511</v>
@@ -4201,13 +4201,13 @@
         <v>512</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>513</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -4221,18 +4221,18 @@
         <v>516</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>517</v>
@@ -4241,18 +4241,18 @@
         <v>518</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>519</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>520</v>
@@ -4261,18 +4261,18 @@
         <v>521</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>522</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>523</v>
@@ -4281,13 +4281,13 @@
         <v>524</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>525</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -4301,18 +4301,18 @@
         <v>528</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>529</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>530</v>
@@ -4321,13 +4321,13 @@
         <v>531</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>532</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -4341,13 +4341,13 @@
         <v>534</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>535</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -4361,13 +4361,13 @@
         <v>540</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>541</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -4381,18 +4381,18 @@
         <v>543</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>544</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>545</v>
@@ -4401,13 +4401,13 @@
         <v>546</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -4421,18 +4421,18 @@
         <v>548</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>549</v>
@@ -4441,18 +4441,18 @@
         <v>550</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>551</v>
@@ -4461,13 +4461,13 @@
         <v>552</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -4481,18 +4481,18 @@
         <v>556</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>557</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>558</v>
@@ -4501,38 +4501,38 @@
         <v>559</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>560</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>564</v>
@@ -4541,18 +4541,18 @@
         <v>565</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>566</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>567</v>
@@ -4561,173 +4561,173 @@
         <v>568</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>569</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>553</v>
       </c>
       <c r="C63" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>571</v>
-      </c>
       <c r="F63" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>574</v>
-      </c>
       <c r="D65" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>398</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="D67" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>579</v>
-      </c>
       <c r="F67" s="5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="D68" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>582</v>
-      </c>
       <c r="F68" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="D69" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>585</v>
-      </c>
       <c r="F69" s="5" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="D70" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>588</v>
-      </c>
       <c r="F70" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -4735,99 +4735,99 @@
         <v>192</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="D71" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>591</v>
-      </c>
       <c r="F71" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="D72" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>596</v>
-      </c>
       <c r="F72" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>378</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>600</v>
-      </c>
       <c r="F74" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>929</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>930</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="E75" s="5" t="s">
         <v>931</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="F75" s="5" t="s">
         <v>932</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>933</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -4835,19 +4835,19 @@
         <v>9</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>695</v>
-      </c>
       <c r="F76" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -4855,19 +4855,19 @@
         <v>9</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -4875,19 +4875,19 @@
         <v>9</v>
       </c>
       <c r="B78" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="E78" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>701</v>
-      </c>
       <c r="F78" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -4898,16 +4898,16 @@
         <v>439</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -4915,19 +4915,19 @@
         <v>9</v>
       </c>
       <c r="B80" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="E80" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>707</v>
-      </c>
       <c r="F80" s="5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -4935,19 +4935,19 @@
         <v>9</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="E81" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>711</v>
-      </c>
       <c r="F81" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -4955,19 +4955,19 @@
         <v>9</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>714</v>
-      </c>
       <c r="E82" s="5" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -4975,19 +4975,19 @@
         <v>9</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>717</v>
-      </c>
       <c r="E83" s="5" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -4995,19 +4995,19 @@
         <v>9</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -5015,19 +5015,19 @@
         <v>9</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -5035,19 +5035,19 @@
         <v>9</v>
       </c>
       <c r="B86" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="E86" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>723</v>
-      </c>
       <c r="F86" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -5064,7 +5064,7 @@
         <v>9</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>9</v>
@@ -5084,7 +5084,7 @@
         <v>9</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>9</v>
@@ -5104,7 +5104,7 @@
         <v>9</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>9</v>
@@ -5124,7 +5124,7 @@
         <v>9</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>9</v>
@@ -5144,7 +5144,7 @@
         <v>9</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>9</v>
@@ -5164,7 +5164,7 @@
         <v>9</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>9</v>
@@ -5184,7 +5184,7 @@
         <v>9</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>9</v>
@@ -5204,7 +5204,7 @@
         <v>9</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>9</v>
@@ -5224,7 +5224,7 @@
         <v>9</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>9</v>
@@ -5244,7 +5244,7 @@
         <v>9</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>9</v>
@@ -5264,7 +5264,7 @@
         <v>9</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>9</v>
@@ -5284,7 +5284,7 @@
         <v>9</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>9</v>
@@ -5304,7 +5304,7 @@
         <v>9</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>9</v>
@@ -5324,7 +5324,7 @@
         <v>9</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>9</v>
@@ -5344,7 +5344,7 @@
         <v>9</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>9</v>
@@ -5364,7 +5364,7 @@
         <v>9</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>9</v>
@@ -5384,7 +5384,7 @@
         <v>9</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>9</v>
@@ -5404,7 +5404,7 @@
         <v>9</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>9</v>
@@ -5424,7 +5424,7 @@
         <v>9</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>9</v>
@@ -5444,7 +5444,7 @@
         <v>9</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>9</v>
@@ -5464,7 +5464,7 @@
         <v>9</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>9</v>
@@ -5484,7 +5484,7 @@
         <v>9</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>9</v>
@@ -5498,13 +5498,13 @@
         <v>312</v>
       </c>
       <c r="C109" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>9</v>
@@ -5518,13 +5518,13 @@
         <v>368</v>
       </c>
       <c r="C110" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>9</v>
@@ -5538,13 +5538,13 @@
         <v>368</v>
       </c>
       <c r="C111" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>9</v>
@@ -5558,13 +5558,13 @@
         <v>314</v>
       </c>
       <c r="C112" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>9</v>
@@ -5578,13 +5578,13 @@
         <v>368</v>
       </c>
       <c r="C113" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>9</v>
@@ -5598,13 +5598,13 @@
         <v>368</v>
       </c>
       <c r="C114" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>9</v>
@@ -5618,13 +5618,13 @@
         <v>369</v>
       </c>
       <c r="C115" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>9</v>
@@ -5638,13 +5638,13 @@
         <v>349</v>
       </c>
       <c r="C116" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>9</v>
@@ -5658,13 +5658,13 @@
         <v>349</v>
       </c>
       <c r="C117" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>9</v>
@@ -5678,13 +5678,13 @@
         <v>349</v>
       </c>
       <c r="C118" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>9</v>
@@ -5698,13 +5698,13 @@
         <v>349</v>
       </c>
       <c r="C119" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>9</v>
@@ -5718,13 +5718,13 @@
         <v>350</v>
       </c>
       <c r="C120" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>9</v>
@@ -5738,13 +5738,13 @@
         <v>351</v>
       </c>
       <c r="C121" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>9</v>
@@ -5758,13 +5758,13 @@
         <v>352</v>
       </c>
       <c r="C122" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>9</v>
@@ -5778,13 +5778,13 @@
         <v>353</v>
       </c>
       <c r="C123" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>9</v>
@@ -5798,13 +5798,13 @@
         <v>354</v>
       </c>
       <c r="C124" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>9</v>
@@ -5818,13 +5818,13 @@
         <v>355</v>
       </c>
       <c r="C125" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>9</v>
@@ -5838,13 +5838,13 @@
         <v>356</v>
       </c>
       <c r="C126" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>9</v>
@@ -5858,13 +5858,13 @@
         <v>357</v>
       </c>
       <c r="C127" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>9</v>
@@ -5878,13 +5878,13 @@
         <v>358</v>
       </c>
       <c r="C128" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>9</v>
@@ -5898,13 +5898,13 @@
         <v>350</v>
       </c>
       <c r="C129" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>9</v>
@@ -5918,13 +5918,13 @@
         <v>359</v>
       </c>
       <c r="C130" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>9</v>
@@ -5938,13 +5938,13 @@
         <v>360</v>
       </c>
       <c r="C131" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>9</v>
@@ -5958,13 +5958,13 @@
         <v>361</v>
       </c>
       <c r="C132" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>9</v>
@@ -5978,13 +5978,13 @@
         <v>348</v>
       </c>
       <c r="C133" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>9</v>
@@ -5998,13 +5998,13 @@
         <v>362</v>
       </c>
       <c r="C134" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>9</v>
@@ -6018,13 +6018,13 @@
         <v>360</v>
       </c>
       <c r="C135" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>9</v>
@@ -6038,13 +6038,13 @@
         <v>363</v>
       </c>
       <c r="C136" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>9</v>
@@ -6058,13 +6058,13 @@
         <v>354</v>
       </c>
       <c r="C137" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>9</v>
@@ -6078,13 +6078,13 @@
         <v>362</v>
       </c>
       <c r="C138" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>9</v>
@@ -6098,13 +6098,13 @@
         <v>364</v>
       </c>
       <c r="C139" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>9</v>
@@ -6118,13 +6118,13 @@
         <v>365</v>
       </c>
       <c r="C140" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>9</v>
@@ -6138,13 +6138,13 @@
         <v>366</v>
       </c>
       <c r="C141" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>9</v>
@@ -6158,13 +6158,13 @@
         <v>367</v>
       </c>
       <c r="C142" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>9</v>
@@ -6178,13 +6178,13 @@
         <v>347</v>
       </c>
       <c r="C143" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>9</v>
@@ -6192,7 +6192,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>9</v>
@@ -6204,7 +6204,7 @@
         <v>9</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>9</v>
@@ -6212,7 +6212,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>9</v>
@@ -6224,7 +6224,7 @@
         <v>9</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>9</v>
@@ -6232,22 +6232,22 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>545</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -6261,18 +6261,18 @@
         <v>459</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>9</v>
@@ -6284,7 +6284,7 @@
         <v>9</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>9</v>
@@ -6292,7 +6292,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>553</v>
@@ -6301,13 +6301,13 @@
         <v>554</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -6321,13 +6321,13 @@
         <v>399</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>400</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -6341,18 +6341,18 @@
         <v>449</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>450</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>9</v>
@@ -6364,7 +6364,7 @@
         <v>9</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>9</v>
@@ -6372,7 +6372,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>416</v>
@@ -6381,13 +6381,13 @@
         <v>417</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -6401,13 +6401,13 @@
         <v>426</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -6418,16 +6418,16 @@
         <v>537</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>538</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -6435,19 +6435,19 @@
         <v>372</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>373</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>374</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -6461,27 +6461,27 @@
         <v>393</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>9</v>
@@ -6492,7 +6492,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>9</v>
@@ -6512,16 +6512,16 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>9</v>
@@ -6532,7 +6532,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>561</v>
@@ -6541,7 +6541,7 @@
         <v>562</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>563</v>
@@ -6552,16 +6552,16 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>9</v>
@@ -6572,16 +6572,16 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B163" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C163" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="C163" s="5" t="s">
-        <v>578</v>
-      </c>
       <c r="D163" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>9</v>
@@ -6592,16 +6592,16 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>511</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>9</v>
@@ -6612,7 +6612,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>9</v>
@@ -6632,7 +6632,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>9</v>
@@ -6652,16 +6652,16 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>9</v>
@@ -6672,7 +6672,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>388</v>
@@ -6681,7 +6681,7 @@
         <v>389</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>9</v>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>9</v>
@@ -6721,13 +6721,13 @@
         <v>395</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -6741,13 +6741,13 @@
         <v>9</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -6761,13 +6761,13 @@
         <v>434</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>435</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -6775,13 +6775,13 @@
         <v>9</v>
       </c>
       <c r="B173" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="D173" s="5" t="s">
         <v>905</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>906</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>907</v>
       </c>
       <c r="E173" s="5" t="s">
         <v>9</v>
@@ -6795,13 +6795,13 @@
         <v>9</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>9</v>
@@ -6815,13 +6815,13 @@
         <v>9</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E175" s="5" t="s">
         <v>9</v>
@@ -6835,13 +6835,13 @@
         <v>9</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>9</v>
@@ -6855,13 +6855,13 @@
         <v>9</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E177" s="5" t="s">
         <v>9</v>
@@ -6875,13 +6875,13 @@
         <v>9</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>9</v>
@@ -6892,27 +6892,27 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B179" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="D179" s="5" t="s">
         <v>943</v>
       </c>
-      <c r="C179" s="5" t="s">
-        <v>944</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>945</v>
-      </c>
       <c r="E179" s="5" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>398</v>
@@ -6921,13 +6921,13 @@
         <v>461</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E180" s="5" t="s">
         <v>462</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
   </sheetData>

--- a/all.xlsx
+++ b/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854AA2C2-4DBF-425A-BF46-12DAA387DCC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1494A43-0045-4F1B-ADCE-F948ACCE7456}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <author>Пользователь</author>
   </authors>
   <commentList>
-    <comment ref="E149" authorId="0" shapeId="0" xr:uid="{C89BD535-09CB-4FEC-B9EF-B7676DB2F29A}">
+    <comment ref="E144" authorId="0" shapeId="0" xr:uid="{C89BD535-09CB-4FEC-B9EF-B7676DB2F29A}">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E156" authorId="0" shapeId="0" xr:uid="{6388DA69-8E8E-48EB-8EAB-C12327B2E94F}">
+    <comment ref="E151" authorId="0" shapeId="0" xr:uid="{6388DA69-8E8E-48EB-8EAB-C12327B2E94F}">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E157" authorId="0" shapeId="0" xr:uid="{033DAB00-8055-4CEC-8C55-4BC6D490B466}">
+    <comment ref="E152" authorId="0" shapeId="0" xr:uid="{033DAB00-8055-4CEC-8C55-4BC6D490B466}">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="942">
   <si>
     <t>Примечание</t>
   </si>
@@ -1200,9 +1200,6 @@
     <t>Вед. мен. по продажам</t>
   </si>
   <si>
-    <t>За полем въезд КПП № 5</t>
-  </si>
-  <si>
     <t>Ниссан Террано</t>
   </si>
   <si>
@@ -1236,9 +1233,6 @@
     <t>Бригадир ИТС</t>
   </si>
   <si>
-    <t>БФ ГК</t>
-  </si>
-  <si>
     <t>ВАЗ 21144</t>
   </si>
   <si>
@@ -1257,9 +1251,6 @@
     <t>О 960 РВ 174</t>
   </si>
   <si>
-    <t>ГК – БФ</t>
-  </si>
-  <si>
     <t>У 848 ТА 123</t>
   </si>
   <si>
@@ -1371,9 +1362,6 @@
     <t>Шеф-повар</t>
   </si>
   <si>
-    <t>ГК-БФ</t>
-  </si>
-  <si>
     <t>Хундай Траджет</t>
   </si>
   <si>
@@ -1596,9 +1584,6 @@
     <t>Инспектор-контролер СВК</t>
   </si>
   <si>
-    <t>НОЧ-НОЙ</t>
-  </si>
-  <si>
     <t>Ссанг Енг Рекстон RJ4</t>
   </si>
   <si>
@@ -1617,9 +1602,6 @@
     <t>ДОСУГ администратор</t>
   </si>
   <si>
-    <t>ПОЛЕ</t>
-  </si>
-  <si>
     <t>Фольксваген Гольф</t>
   </si>
   <si>
@@ -1653,9 +1635,6 @@
     <t xml:space="preserve">ИТС кондиционер-щик </t>
   </si>
   <si>
-    <t>БФ и ПОЛЕ</t>
-  </si>
-  <si>
     <t>Мазда 3</t>
   </si>
   <si>
@@ -1764,9 +1743,6 @@
     <t>Р 202 ТО 123</t>
   </si>
   <si>
-    <t>СПиР руководитель</t>
-  </si>
-  <si>
     <t>ОПЕЛЬ АСТРА</t>
   </si>
   <si>
@@ -1800,9 +1776,6 @@
     <t>Р 204 СС 123</t>
   </si>
   <si>
-    <t>БФ№6</t>
-  </si>
-  <si>
     <t>KIA SPORTAGE</t>
   </si>
   <si>
@@ -2253,9 +2226,6 @@
     <t>Линия 3 сменный</t>
   </si>
   <si>
-    <t>поле. КПП № 5</t>
-  </si>
-  <si>
     <t>ИТС.телефонный оператор</t>
   </si>
   <si>
@@ -2271,9 +2241,6 @@
     <t>МЦ. врач</t>
   </si>
   <si>
-    <t>Линия 3. поле</t>
-  </si>
-  <si>
     <t>МЦ. мед. сестра по массажу</t>
   </si>
   <si>
@@ -2286,12 +2253,6 @@
     <t>Чеботаев Владимир Юрьевич. Чеботаева Наиля Фидаиловна</t>
   </si>
   <si>
-    <t xml:space="preserve">Въезд КПП 5 возле поля   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">КПП 5 возле поля   </t>
-  </si>
-  <si>
     <t xml:space="preserve">БФ   </t>
   </si>
   <si>
@@ -2307,9 +2268,6 @@
     <t>8-989-160-39-02</t>
   </si>
   <si>
-    <t>8-988-188-27-52</t>
-  </si>
-  <si>
     <t>8-928-259-78-28</t>
   </si>
   <si>
@@ -2622,9 +2580,6 @@
     <t>Ященко Ирина Иозовна</t>
   </si>
   <si>
-    <t>Забарянская Татьяна Николаевна</t>
-  </si>
-  <si>
     <t>Богатырева Ольга Александровна</t>
   </si>
   <si>
@@ -2856,9 +2811,6 @@
     <t>Не работает</t>
   </si>
   <si>
-    <t>Линия 4</t>
-  </si>
-  <si>
     <t>Ниссан Ноут</t>
   </si>
   <si>
@@ -2914,6 +2866,39 @@
   </si>
   <si>
     <t>М 851 ВН 134</t>
+  </si>
+  <si>
+    <t>Без досмотра - жена 159</t>
+  </si>
+  <si>
+    <t>Без досмотра Чермит Мгдин Мадинович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Без досмотра </t>
+  </si>
+  <si>
+    <t>Забарьянская Татьяна Николаевна</t>
+  </si>
+  <si>
+    <t>Руководитель финансового отдела</t>
+  </si>
+  <si>
+    <t>Директор по продажам и маркетингу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Руководитель СПиР </t>
+  </si>
+  <si>
+    <t>Генеральный менеджер</t>
+  </si>
+  <si>
+    <t>Руководитель ИОТ</t>
+  </si>
+  <si>
+    <t>БФ с торца</t>
+  </si>
+  <si>
+    <t>Поле КПП5</t>
   </si>
 </sst>
 </file>
@@ -3311,12 +3296,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F180"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3324,7 +3309,7 @@
     <col min="1" max="1" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.85546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="43.5703125" style="5" customWidth="1"/>
     <col min="6" max="6" width="52.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="31.7109375" style="5"/>
@@ -3332,13 +3317,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>370</v>
@@ -3347,27 +3332,27 @@
         <v>371</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>377</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3375,19 +3360,19 @@
         <v>192</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>379</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3395,19 +3380,19 @@
         <v>192</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>857</v>
+        <v>842</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3415,939 +3400,939 @@
         <v>192</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>383</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>737</v>
+        <v>941</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>386</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>387</v>
+        <v>192</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>599</v>
+        <v>643</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>395</v>
+        <v>659</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>746</v>
+        <v>841</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>192</v>
+        <v>941</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>404</v>
+        <v>714</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>668</v>
+        <v>408</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>856</v>
+        <v>736</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>738</v>
+        <v>941</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>723</v>
+        <v>192</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>738</v>
+        <v>714</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>192</v>
+        <v>714</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>723</v>
+        <v>192</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>754</v>
+        <v>840</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>192</v>
+        <v>714</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>855</v>
+        <v>745</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>432</v>
+        <v>714</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>757</v>
+        <v>802</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>723</v>
+        <v>192</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>438</v>
+        <v>231</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>816</v>
+        <v>749</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>192</v>
+        <v>714</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>231</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>452</v>
+        <v>887</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>423</v>
+        <v>198</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>723</v>
+        <v>192</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>665</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>231</v>
+        <v>437</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>739</v>
+        <v>714</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>902</v>
+        <v>658</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>198</v>
+        <v>465</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>192</v>
+        <v>714</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>723</v>
+        <v>192</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>667</v>
+        <v>473</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>723</v>
+        <v>941</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>475</v>
+        <v>437</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>192</v>
+        <v>714</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>441</v>
+        <v>488</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>723</v>
+        <v>192</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>687</v>
+        <v>591</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>688</v>
+        <v>592</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>192</v>
+        <v>714</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>689</v>
+        <v>593</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>780</v>
+        <v>803</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>723</v>
+        <v>941</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>506</v>
+        <v>717</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>507</v>
+        <v>714</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>817</v>
+        <v>771</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>514</v>
+        <v>714</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>727</v>
+        <v>519</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>723</v>
+        <v>941</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>723</v>
+        <v>192</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>526</v>
+        <v>192</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>723</v>
+        <v>192</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>192</v>
+        <v>715</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>535</v>
+        <v>718</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -4355,24 +4340,24 @@
         <v>192</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>792</v>
+        <v>719</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>192</v>
+        <v>714</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>542</v>
@@ -4381,33 +4366,33 @@
         <v>543</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>544</v>
+        <v>720</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>546</v>
-      </c>
       <c r="D54" s="5" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -4415,419 +4400,419 @@
         <v>192</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>729</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>818</v>
+        <v>550</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>723</v>
+        <v>941</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>731</v>
-      </c>
       <c r="F57" s="5" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>192</v>
+        <v>714</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>733</v>
+        <v>561</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>864</v>
+        <v>930</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>734</v>
+        <v>562</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>566</v>
-      </c>
       <c r="F61" s="5" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>723</v>
+        <v>657</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>569</v>
+        <v>724</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>820</v>
+        <v>787</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>723</v>
+        <v>657</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>553</v>
+        <v>395</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>946</v>
+        <v>566</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>570</v>
+        <v>724</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>821</v>
+        <v>788</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>865</v>
-      </c>
       <c r="D64" s="5" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>734</v>
+        <v>572</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>822</v>
+        <v>790</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>666</v>
+        <v>714</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>735</v>
+        <v>575</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>801</v>
+        <v>921</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>666</v>
+        <v>714</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>398</v>
+        <v>576</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>735</v>
+        <v>578</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>575</v>
+        <v>192</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>582</v>
+        <v>377</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>937</v>
+        <v>793</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>586</v>
+        <v>929</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>823</v>
+        <v>794</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>192</v>
+        <v>714</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>588</v>
+        <v>912</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>589</v>
+        <v>913</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>633</v>
+        <v>914</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>590</v>
+        <v>915</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>824</v>
+        <v>916</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>723</v>
+        <v>9</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>593</v>
+        <v>681</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>594</v>
+        <v>682</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>635</v>
+        <v>683</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>595</v>
+        <v>684</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>806</v>
+        <v>847</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>723</v>
+        <v>9</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>378</v>
+        <v>685</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>596</v>
+        <v>686</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>636</v>
+        <v>683</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>581</v>
+        <v>684</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>807</v>
+        <v>847</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>723</v>
+        <v>9</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>597</v>
+        <v>687</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>945</v>
+        <v>688</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>637</v>
+        <v>689</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>598</v>
+        <v>690</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>927</v>
+        <v>9</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>928</v>
+        <v>435</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>929</v>
+        <v>691</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>930</v>
+        <v>692</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>931</v>
+        <v>690</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>932</v>
+        <v>796</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -4835,19 +4820,19 @@
         <v>9</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>862</v>
+        <v>798</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -4855,19 +4840,19 @@
         <v>9</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>862</v>
+        <v>799</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -4875,19 +4860,19 @@
         <v>9</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -4895,19 +4880,19 @@
         <v>9</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>439</v>
+        <v>693</v>
       </c>
       <c r="C79" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>699</v>
-      </c>
       <c r="F79" s="5" t="s">
-        <v>810</v>
+        <v>838</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -4915,19 +4900,19 @@
         <v>9</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>703</v>
+        <v>851</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>705</v>
+        <v>9</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>811</v>
+        <v>839</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -4935,119 +4920,119 @@
         <v>9</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>711</v>
+      <c r="B82" t="s">
+        <v>309</v>
+      </c>
+      <c r="C82" t="s">
+        <v>325</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>712</v>
+        <v>9</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>709</v>
+        <v>920</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>813</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>714</v>
+      <c r="B83" t="s">
+        <v>310</v>
+      </c>
+      <c r="C83" t="s">
+        <v>326</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>715</v>
+        <v>9</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>709</v>
+        <v>920</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>814</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>716</v>
+      <c r="B84" t="s">
+        <v>311</v>
+      </c>
+      <c r="C84" t="s">
+        <v>327</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>736</v>
+        <v>9</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>709</v>
+        <v>920</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>853</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>866</v>
+      <c r="B85" t="s">
+        <v>312</v>
+      </c>
+      <c r="C85" t="s">
+        <v>328</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>736</v>
+        <v>9</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>9</v>
+        <v>920</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>854</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>719</v>
+      <c r="B86" t="s">
+        <v>313</v>
+      </c>
+      <c r="C86" t="s">
+        <v>329</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>720</v>
+        <v>9</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>721</v>
+        <v>920</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>815</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -5055,16 +5040,16 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C87" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>9</v>
@@ -5075,16 +5060,16 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C88" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>9</v>
@@ -5095,16 +5080,16 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C89" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>9</v>
@@ -5115,16 +5100,16 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C90" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>9</v>
@@ -5135,16 +5120,16 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C91" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>9</v>
@@ -5155,16 +5140,16 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C92" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>9</v>
@@ -5178,13 +5163,13 @@
         <v>314</v>
       </c>
       <c r="C93" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>9</v>
@@ -5195,16 +5180,16 @@
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C94" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>9</v>
@@ -5215,16 +5200,16 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C95" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>9</v>
@@ -5235,16 +5220,16 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C96" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>9</v>
@@ -5255,16 +5240,16 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C97" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>9</v>
@@ -5275,16 +5260,16 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C98" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>9</v>
@@ -5295,16 +5280,16 @@
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C99" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>9</v>
@@ -5315,16 +5300,16 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C100" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>9</v>
@@ -5335,16 +5320,16 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C101" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>9</v>
@@ -5355,16 +5340,16 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C102" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>9</v>
@@ -5375,16 +5360,16 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C103" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>9</v>
@@ -5395,16 +5380,16 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C104" t="s">
-        <v>342</v>
+        <v>852</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>9</v>
@@ -5415,16 +5400,16 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="C105" t="s">
-        <v>343</v>
+        <v>853</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>9</v>
@@ -5435,16 +5420,16 @@
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="C106" t="s">
-        <v>344</v>
+        <v>854</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>9</v>
@@ -5455,16 +5440,16 @@
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C107" t="s">
-        <v>345</v>
+        <v>855</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>9</v>
@@ -5475,16 +5460,16 @@
         <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="C108" t="s">
-        <v>346</v>
+        <v>856</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>9</v>
@@ -5495,16 +5480,16 @@
         <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>312</v>
+        <v>368</v>
       </c>
       <c r="C109" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>9</v>
@@ -5515,16 +5500,16 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C110" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>9</v>
@@ -5535,16 +5520,16 @@
         <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="C111" t="s">
-        <v>869</v>
+        <v>886</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>9</v>
@@ -5555,16 +5540,16 @@
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="C112" t="s">
-        <v>870</v>
+        <v>885</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>9</v>
@@ -5575,16 +5560,16 @@
         <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="C113" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>9</v>
@@ -5595,16 +5580,16 @@
         <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="C114" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>9</v>
@@ -5615,16 +5600,16 @@
         <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="C115" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>9</v>
@@ -5635,16 +5620,16 @@
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C116" t="s">
-        <v>901</v>
+        <v>881</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>9</v>
@@ -5655,16 +5640,16 @@
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C117" t="s">
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>9</v>
@@ -5675,16 +5660,16 @@
         <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C118" t="s">
-        <v>899</v>
+        <v>879</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>9</v>
@@ -5695,16 +5680,16 @@
         <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C119" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>9</v>
@@ -5715,16 +5700,16 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C120" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>9</v>
@@ -5735,16 +5720,16 @@
         <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C121" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>9</v>
@@ -5755,16 +5740,16 @@
         <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C122" t="s">
-        <v>895</v>
+        <v>875</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>9</v>
@@ -5775,16 +5760,16 @@
         <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C123" t="s">
-        <v>894</v>
+        <v>874</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>9</v>
@@ -5795,16 +5780,16 @@
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C124" t="s">
-        <v>893</v>
+        <v>873</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>9</v>
@@ -5815,16 +5800,16 @@
         <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C125" t="s">
-        <v>892</v>
+        <v>872</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>9</v>
@@ -5835,16 +5820,16 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C126" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>9</v>
@@ -5855,16 +5840,16 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C127" t="s">
-        <v>890</v>
+        <v>870</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>9</v>
@@ -5875,16 +5860,16 @@
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C128" t="s">
-        <v>889</v>
+        <v>869</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>9</v>
@@ -5895,16 +5880,16 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="C129" t="s">
-        <v>888</v>
+        <v>868</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>9</v>
@@ -5915,16 +5900,16 @@
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C130" t="s">
-        <v>887</v>
+        <v>866</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>9</v>
@@ -5935,16 +5920,16 @@
         <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C131" t="s">
-        <v>886</v>
+        <v>865</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>9</v>
@@ -5955,16 +5940,16 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C132" t="s">
-        <v>885</v>
+        <v>867</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>9</v>
@@ -5975,16 +5960,16 @@
         <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="C133" t="s">
-        <v>884</v>
+        <v>864</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>9</v>
@@ -5995,16 +5980,16 @@
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C134" t="s">
-        <v>883</v>
+        <v>863</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>9</v>
@@ -6015,16 +6000,16 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C135" t="s">
-        <v>881</v>
+        <v>862</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>9</v>
@@ -6035,16 +6020,16 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C136" t="s">
-        <v>880</v>
+        <v>861</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>9</v>
@@ -6055,16 +6040,16 @@
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="C137" t="s">
-        <v>882</v>
+        <v>860</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>9</v>
@@ -6075,16 +6060,16 @@
         <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="C138" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>9</v>
@@ -6092,19 +6077,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B139" t="s">
-        <v>364</v>
-      </c>
-      <c r="C139" t="s">
-        <v>878</v>
+        <v>819</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>936</v>
+        <v>918</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>9</v>
@@ -6112,19 +6097,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B140" t="s">
-        <v>365</v>
-      </c>
-      <c r="C140" t="s">
-        <v>877</v>
+        <v>820</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>936</v>
+        <v>812</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>9</v>
@@ -6132,59 +6117,59 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B141" t="s">
-        <v>366</v>
-      </c>
-      <c r="C141" t="s">
-        <v>876</v>
+        <v>582</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>583</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>9</v>
+        <v>625</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>936</v>
+        <v>917</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>9</v>
+        <v>791</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B142" t="s">
-        <v>367</v>
-      </c>
-      <c r="C142" t="s">
-        <v>875</v>
+        <v>453</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>455</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>9</v>
+        <v>671</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>936</v>
+        <v>845</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>9</v>
+        <v>751</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B143" t="s">
-        <v>347</v>
-      </c>
-      <c r="C143" t="s">
-        <v>874</v>
+        <v>821</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>936</v>
+        <v>813</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>9</v>
@@ -6192,319 +6177,319 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>833</v>
+        <v>713</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>9</v>
+        <v>546</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>9</v>
+        <v>547</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>9</v>
+        <v>609</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>934</v>
+        <v>846</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>9</v>
+        <v>783</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>834</v>
+        <v>394</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>9</v>
+        <v>395</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>9</v>
+        <v>396</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>9</v>
+        <v>642</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>826</v>
+        <v>397</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>9</v>
+        <v>733</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>591</v>
+        <v>443</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>545</v>
+        <v>444</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>592</v>
+        <v>445</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>634</v>
+        <v>668</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>933</v>
+        <v>446</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>805</v>
+        <v>747</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>457</v>
+        <v>822</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>458</v>
+        <v>9</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>459</v>
+        <v>9</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>680</v>
+        <v>9</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>860</v>
+        <v>814</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>765</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>9</v>
+        <v>413</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>9</v>
+        <v>414</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>9</v>
+        <v>818</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>9</v>
+        <v>738</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>722</v>
+        <v>421</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>553</v>
+        <v>422</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>554</v>
+        <v>423</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>618</v>
+        <v>650</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>861</v>
+        <v>816</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>797</v>
+        <v>741</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>397</v>
+        <v>529</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>398</v>
+        <v>530</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>399</v>
+        <v>817</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>651</v>
+        <v>602</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>400</v>
+        <v>531</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>747</v>
+        <v>777</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>447</v>
+        <v>372</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>448</v>
+        <v>631</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>449</v>
+        <v>373</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>677</v>
+        <v>632</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>450</v>
+        <v>374</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>761</v>
+        <v>844</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>836</v>
+        <v>389</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>9</v>
+        <v>390</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>9</v>
+        <v>391</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>9</v>
+        <v>640</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>828</v>
+        <v>922</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>9</v>
+        <v>731</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>837</v>
+        <v>899</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>416</v>
+        <v>824</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>417</v>
+        <v>825</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>829</v>
+        <v>9</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>752</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>424</v>
+        <v>900</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>425</v>
+        <v>9</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>426</v>
+        <v>9</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>659</v>
+        <v>9</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>830</v>
+        <v>9</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>755</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>536</v>
+        <v>901</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>537</v>
+        <v>826</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>611</v>
+        <v>834</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>538</v>
+        <v>938</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>791</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>372</v>
+        <v>902</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>640</v>
+        <v>554</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>373</v>
+        <v>555</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>641</v>
+        <v>613</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>374</v>
+        <v>937</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>859</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>391</v>
+        <v>903</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>392</v>
+        <v>828</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>393</v>
+        <v>829</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>649</v>
+        <v>934</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>745</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>838</v>
+        <v>567</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>839</v>
+        <v>568</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>847</v>
+        <v>620</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>9</v>
+        <v>569</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>9</v>
+        <v>789</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>9</v>
+        <v>506</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>9</v>
+        <v>830</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>9</v>
+        <v>835</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>9</v>
+        <v>935</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>9</v>
@@ -6512,16 +6497,16 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>840</v>
+        <v>9</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>841</v>
+        <v>9</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>848</v>
+        <v>9</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>9</v>
@@ -6532,19 +6517,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>561</v>
+        <v>9</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>562</v>
+        <v>9</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>622</v>
+        <v>9</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>563</v>
+        <v>9</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>9</v>
@@ -6552,19 +6537,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>9</v>
+        <v>939</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>9</v>
@@ -6572,19 +6557,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>576</v>
+        <v>386</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>577</v>
+        <v>387</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>629</v>
+        <v>590</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>9</v>
+        <v>388</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>9</v>
@@ -6592,16 +6577,16 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>511</v>
+        <v>9</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>844</v>
+        <v>9</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>850</v>
+        <v>9</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>9</v>
@@ -6612,27 +6597,27 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>921</v>
+        <v>940</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>9</v>
+        <v>383</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>9</v>
+        <v>392</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>9</v>
+        <v>641</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>9</v>
+        <v>393</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>9</v>
+        <v>732</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>9</v>
@@ -6641,47 +6626,47 @@
         <v>9</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>9</v>
+        <v>837</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>9</v>
+        <v>919</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>9</v>
+        <v>848</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>923</v>
+        <v>940</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>845</v>
+        <v>429</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>846</v>
+        <v>430</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>851</v>
+        <v>653</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>9</v>
+        <v>431</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>9</v>
+        <v>743</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>924</v>
+        <v>9</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>388</v>
+        <v>888</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>389</v>
+        <v>889</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>599</v>
+        <v>933</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>9</v>
@@ -6692,16 +6677,16 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>925</v>
+        <v>9</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>9</v>
+        <v>891</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>9</v>
+        <v>892</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>9</v>
+        <v>932</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>9</v>
@@ -6715,19 +6700,19 @@
         <v>9</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>384</v>
+        <v>893</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>395</v>
+        <v>894</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>650</v>
+        <v>890</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>746</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -6735,19 +6720,19 @@
         <v>9</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>9</v>
+        <v>895</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>9</v>
+        <v>896</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>852</v>
+        <v>890</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>935</v>
+        <v>9</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>863</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -6755,19 +6740,19 @@
         <v>9</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>433</v>
+        <v>693</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>434</v>
+        <v>897</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>662</v>
+        <v>890</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>435</v>
+        <v>9</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>757</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -6775,13 +6760,13 @@
         <v>9</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>905</v>
+        <v>931</v>
       </c>
       <c r="E173" s="5" t="s">
         <v>9</v>
@@ -6792,142 +6777,62 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>9</v>
+        <v>911</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>906</v>
+        <v>925</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>907</v>
+        <v>926</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>905</v>
+        <v>927</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>9</v>
+        <v>924</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>9</v>
+        <v>923</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>9</v>
+        <v>911</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>908</v>
+        <v>395</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>909</v>
+        <v>457</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>905</v>
+        <v>673</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>9</v>
+        <v>458</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>9</v>
+        <v>753</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>9</v>
+        <v>911</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>910</v>
+        <v>693</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>911</v>
+        <v>694</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>905</v>
+        <v>695</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>9</v>
+        <v>696</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>912</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>905</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F177" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>913</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>905</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F178" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="5" t="s">
-        <v>926</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>941</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>942</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>943</v>
-      </c>
-      <c r="E179" s="5" t="s">
-        <v>940</v>
-      </c>
-      <c r="F179" s="5" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="5" t="s">
-        <v>926</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="D180" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="E180" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="F180" s="5" t="s">
-        <v>767</v>
+        <v>797</v>
       </c>
     </row>
   </sheetData>

--- a/all.xlsx
+++ b/all.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1494A43-0045-4F1B-ADCE-F948ACCE7456}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CCF705-24BC-4868-B81C-62B0935E7123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="4" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -3299,9 +3300,9 @@
   <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64:XFD64"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3309,7 +3310,7 @@
     <col min="1" max="1" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="54.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="43.5703125" style="5" customWidth="1"/>
     <col min="6" max="6" width="52.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="31.7109375" style="5"/>
@@ -4909,7 +4910,7 @@
         <v>725</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>9</v>
+        <v>700</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>839</v>
@@ -6848,10 +6849,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D553DF85-882F-4747-9180-8DAB33B3FEDB}">
   <dimension ref="A1:G287"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A148" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/all.xlsx
+++ b/all.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CCF705-24BC-4868-B81C-62B0935E7123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2052E651-7E5E-413E-9AAD-02232BC0DDF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="943">
   <si>
     <t>Примечание</t>
   </si>
@@ -2900,6 +2900,9 @@
   </si>
   <si>
     <t>Поле КПП5</t>
+  </si>
+  <si>
+    <t>Молов</t>
   </si>
 </sst>
 </file>
@@ -3300,9 +3303,9 @@
   <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="E172" sqref="E172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6750,7 +6753,7 @@
         <v>890</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>9</v>
+        <v>942</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>9</v>

--- a/all.xlsx
+++ b/all.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2052E651-7E5E-413E-9AAD-02232BC0DDF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC268C3-5852-4370-B2B9-26A3A907112F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -3302,10 +3302,10 @@
   </sheetPr>
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E172" sqref="E172"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6852,14 +6852,59 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7480,7 +7525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>

--- a/all.xlsx
+++ b/all.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC268C3-5852-4370-B2B9-26A3A907112F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14358486-7930-4682-97DA-AE3B49D2CFDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="942">
   <si>
     <t>Примечание</t>
   </si>
@@ -1117,69 +1117,6 @@
     <t>K 986 BP 193</t>
   </si>
   <si>
-    <t xml:space="preserve"> LADA GRANTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HYUNDAI SOLARIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VOLKSWAGEN POLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MERCEDES - BENZ VITO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MERCEDES - BENZ S 400</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MERCEDES - BENZ S 350</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MERCEDES - BENZ E 250</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MERCEDES - BENZ E 200</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BMW Z4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FORD MUSTANG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MERCEDES SLK 200</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VORTEX ESTINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DODGE CHALLENGER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KIA RIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TOYOTA ALPHARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RENAULT LOGAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MERCEDES - BENZ ML 350</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TOYOTA ESTIMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> МОТОЦИКЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SKODA RAPID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MERCEDES - BENZ GLC 250</t>
-  </si>
-  <si>
     <t>LADA LARGUS</t>
   </si>
   <si>
@@ -2872,9 +2809,6 @@
     <t>Без досмотра - жена 159</t>
   </si>
   <si>
-    <t>Без досмотра Чермит Мгдин Мадинович</t>
-  </si>
-  <si>
     <t xml:space="preserve">Без досмотра </t>
   </si>
   <si>
@@ -2903,6 +2837,69 @@
   </si>
   <si>
     <t>Молов</t>
+  </si>
+  <si>
+    <t>Без досмотра Чермит Мугдин Мадинович</t>
+  </si>
+  <si>
+    <t>Шкода Актавиа</t>
+  </si>
+  <si>
+    <t>Т 664 ТХ 24</t>
+  </si>
+  <si>
+    <t>Хундай Солярис</t>
+  </si>
+  <si>
+    <t>А 024 ОУ 777</t>
+  </si>
+  <si>
+    <t>ООО ТТ-Тревел</t>
+  </si>
+  <si>
+    <t>Офис Рио</t>
+  </si>
+  <si>
+    <t>MERCEDES - BENZ VITO</t>
+  </si>
+  <si>
+    <t>MERCEDES - BENZ S 400</t>
+  </si>
+  <si>
+    <t>MERCEDES - BENZ S 350</t>
+  </si>
+  <si>
+    <t>MERCEDES - BENZ E 250</t>
+  </si>
+  <si>
+    <t>MERCEDES - BENZ E 200</t>
+  </si>
+  <si>
+    <t>BMW Z4</t>
+  </si>
+  <si>
+    <t>MERCEDES SLK 200</t>
+  </si>
+  <si>
+    <t>VORTEX ESTINA</t>
+  </si>
+  <si>
+    <t>DODGE CHALLENGER</t>
+  </si>
+  <si>
+    <t>MERCEDES - BENZ ML 350</t>
+  </si>
+  <si>
+    <t>TOYOTA ESTIMA</t>
+  </si>
+  <si>
+    <t>МОТОЦИКЛ</t>
+  </si>
+  <si>
+    <t>MERCEDES - BENZ GLC 250</t>
+  </si>
+  <si>
+    <t>Рио ресторан</t>
   </si>
 </sst>
 </file>
@@ -3300,12 +3297,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="F177" sqref="F177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3321,42 +3318,42 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>630</v>
+        <v>609</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>811</v>
+        <v>790</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>843</v>
+        <v>822</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3364,19 +3361,19 @@
         <v>192</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3384,19 +3381,19 @@
         <v>192</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>842</v>
+        <v>821</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3404,39 +3401,39 @@
         <v>192</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>729</v>
+        <v>708</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>730</v>
+        <v>709</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3444,99 +3441,99 @@
         <v>192</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>734</v>
+        <v>713</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>659</v>
+        <v>638</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>841</v>
+        <v>820</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3544,59 +3541,59 @@
         <v>192</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>742</v>
+        <v>721</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3604,79 +3601,79 @@
         <v>192</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>840</v>
+        <v>819</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>744</v>
+        <v>723</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>802</v>
+        <v>781</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3684,99 +3681,99 @@
         <v>192</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>231</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>231</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>726</v>
+        <v>705</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>887</v>
+        <v>866</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>198</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3784,99 +3781,99 @@
         <v>192</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>755</v>
+        <v>734</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>756</v>
+        <v>735</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>757</v>
+        <v>736</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3884,159 +3881,159 @@
         <v>192</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>759</v>
+        <v>738</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>661</v>
+        <v>640</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>760</v>
+        <v>739</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>761</v>
+        <v>740</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>762</v>
+        <v>741</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>660</v>
+        <v>639</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -4044,219 +4041,219 @@
         <v>192</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>803</v>
+        <v>782</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>771</v>
+        <v>750</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>772</v>
+        <v>751</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>775</v>
+        <v>754</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -4264,19 +4261,19 @@
         <v>192</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -4284,19 +4281,19 @@
         <v>192</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -4304,39 +4301,39 @@
         <v>192</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -4344,59 +4341,59 @@
         <v>192</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>804</v>
+        <v>783</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>782</v>
+        <v>761</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -4404,239 +4401,239 @@
         <v>192</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>611</v>
+        <v>590</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>785</v>
+        <v>764</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>805</v>
+        <v>784</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>806</v>
+        <v>785</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>930</v>
+        <v>909</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>616</v>
+        <v>595</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>807</v>
+        <v>786</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>850</v>
+        <v>829</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>787</v>
+        <v>766</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>790</v>
+        <v>769</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>809</v>
+        <v>788</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -4644,99 +4641,99 @@
         <v>192</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>810</v>
+        <v>789</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>793</v>
+        <v>772</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>929</v>
+        <v>908</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>794</v>
+        <v>773</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>912</v>
+        <v>891</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>914</v>
+        <v>893</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>915</v>
+        <v>894</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>916</v>
+        <v>895</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -4744,19 +4741,19 @@
         <v>9</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -4764,19 +4761,19 @@
         <v>9</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -4784,19 +4781,19 @@
         <v>9</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>795</v>
+        <v>774</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -4804,19 +4801,19 @@
         <v>9</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>796</v>
+        <v>775</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -4824,19 +4821,19 @@
         <v>9</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>798</v>
+        <v>777</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -4844,19 +4841,19 @@
         <v>9</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>703</v>
+        <v>682</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>799</v>
+        <v>778</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -4864,19 +4861,19 @@
         <v>9</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>706</v>
+        <v>685</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>800</v>
+        <v>779</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -4884,19 +4881,19 @@
         <v>9</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>838</v>
+        <v>817</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -4904,19 +4901,19 @@
         <v>9</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>708</v>
+        <v>687</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>851</v>
+        <v>830</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>839</v>
+        <v>818</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -4924,19 +4921,19 @@
         <v>9</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>801</v>
+        <v>780</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -4953,7 +4950,7 @@
         <v>9</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>9</v>
@@ -4973,7 +4970,7 @@
         <v>9</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>9</v>
@@ -4993,7 +4990,7 @@
         <v>9</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>9</v>
@@ -5013,7 +5010,7 @@
         <v>9</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>9</v>
@@ -5033,7 +5030,7 @@
         <v>9</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>9</v>
@@ -5053,7 +5050,7 @@
         <v>9</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>9</v>
@@ -5073,7 +5070,7 @@
         <v>9</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>9</v>
@@ -5093,7 +5090,7 @@
         <v>9</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>9</v>
@@ -5113,7 +5110,7 @@
         <v>9</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>9</v>
@@ -5133,7 +5130,7 @@
         <v>9</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>9</v>
@@ -5153,7 +5150,7 @@
         <v>9</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>9</v>
@@ -5173,7 +5170,7 @@
         <v>9</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>9</v>
@@ -5193,7 +5190,7 @@
         <v>9</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>9</v>
@@ -5213,7 +5210,7 @@
         <v>9</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>9</v>
@@ -5233,7 +5230,7 @@
         <v>9</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>9</v>
@@ -5253,7 +5250,7 @@
         <v>9</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>9</v>
@@ -5273,7 +5270,7 @@
         <v>9</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>9</v>
@@ -5293,7 +5290,7 @@
         <v>9</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>9</v>
@@ -5313,7 +5310,7 @@
         <v>9</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>9</v>
@@ -5333,7 +5330,7 @@
         <v>9</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>9</v>
@@ -5353,7 +5350,7 @@
         <v>9</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>9</v>
@@ -5373,7 +5370,7 @@
         <v>9</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>9</v>
@@ -5387,13 +5384,13 @@
         <v>312</v>
       </c>
       <c r="C104" t="s">
-        <v>852</v>
+        <v>831</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>9</v>
@@ -5404,16 +5401,16 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="C105" t="s">
-        <v>853</v>
+        <v>832</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>9</v>
@@ -5424,16 +5421,16 @@
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="C106" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>9</v>
@@ -5447,13 +5444,13 @@
         <v>314</v>
       </c>
       <c r="C107" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>9</v>
@@ -5464,16 +5461,16 @@
         <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="C108" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>9</v>
@@ -5484,16 +5481,16 @@
         <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="C109" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>9</v>
@@ -5504,16 +5501,16 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="C110" t="s">
-        <v>858</v>
+        <v>837</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>9</v>
@@ -5524,16 +5521,16 @@
         <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C111" t="s">
-        <v>886</v>
+        <v>865</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>9</v>
@@ -5544,16 +5541,16 @@
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C112" t="s">
-        <v>885</v>
+        <v>864</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>9</v>
@@ -5564,16 +5561,16 @@
         <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C113" t="s">
-        <v>884</v>
+        <v>863</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>9</v>
@@ -5584,16 +5581,16 @@
         <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C114" t="s">
-        <v>883</v>
+        <v>862</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>9</v>
@@ -5604,16 +5601,16 @@
         <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>350</v>
+        <v>928</v>
       </c>
       <c r="C115" t="s">
-        <v>882</v>
+        <v>861</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>9</v>
@@ -5624,16 +5621,16 @@
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>351</v>
+        <v>929</v>
       </c>
       <c r="C116" t="s">
-        <v>881</v>
+        <v>860</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>9</v>
@@ -5644,16 +5641,16 @@
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>352</v>
+        <v>930</v>
       </c>
       <c r="C117" t="s">
-        <v>880</v>
+        <v>859</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>9</v>
@@ -5664,16 +5661,16 @@
         <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>353</v>
+        <v>931</v>
       </c>
       <c r="C118" t="s">
-        <v>879</v>
+        <v>858</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>9</v>
@@ -5684,16 +5681,16 @@
         <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>354</v>
+        <v>932</v>
       </c>
       <c r="C119" t="s">
-        <v>878</v>
+        <v>857</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>9</v>
@@ -5704,16 +5701,16 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>355</v>
+        <v>933</v>
       </c>
       <c r="C120" t="s">
-        <v>877</v>
+        <v>856</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>9</v>
@@ -5724,16 +5721,16 @@
         <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="C121" t="s">
-        <v>876</v>
+        <v>855</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>9</v>
@@ -5744,16 +5741,16 @@
         <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>357</v>
+        <v>934</v>
       </c>
       <c r="C122" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>9</v>
@@ -5764,16 +5761,16 @@
         <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>358</v>
+        <v>935</v>
       </c>
       <c r="C123" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>9</v>
@@ -5784,16 +5781,16 @@
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>350</v>
+        <v>928</v>
       </c>
       <c r="C124" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>9</v>
@@ -5804,16 +5801,16 @@
         <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>359</v>
+        <v>936</v>
       </c>
       <c r="C125" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>9</v>
@@ -5824,16 +5821,16 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="C126" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>9</v>
@@ -5844,16 +5841,16 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="C127" t="s">
-        <v>870</v>
+        <v>849</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>9</v>
@@ -5864,16 +5861,16 @@
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="C128" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>9</v>
@@ -5884,16 +5881,16 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="C129" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>9</v>
@@ -5904,16 +5901,16 @@
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="C130" t="s">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>9</v>
@@ -5924,16 +5921,16 @@
         <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>363</v>
+        <v>937</v>
       </c>
       <c r="C131" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>9</v>
@@ -5944,16 +5941,16 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>354</v>
+        <v>932</v>
       </c>
       <c r="C132" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>9</v>
@@ -5964,16 +5961,16 @@
         <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="C133" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>9</v>
@@ -5984,16 +5981,16 @@
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>364</v>
+        <v>938</v>
       </c>
       <c r="C134" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>9</v>
@@ -6004,16 +6001,16 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>365</v>
+        <v>939</v>
       </c>
       <c r="C135" t="s">
-        <v>862</v>
+        <v>841</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>9</v>
@@ -6024,16 +6021,16 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="C136" t="s">
-        <v>861</v>
+        <v>840</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>9</v>
@@ -6044,16 +6041,16 @@
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>367</v>
+        <v>940</v>
       </c>
       <c r="C137" t="s">
-        <v>860</v>
+        <v>839</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>9</v>
@@ -6064,16 +6061,16 @@
         <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="C138" t="s">
-        <v>859</v>
+        <v>838</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>9</v>
@@ -6081,7 +6078,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>819</v>
+        <v>798</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>9</v>
@@ -6093,7 +6090,7 @@
         <v>9</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>918</v>
+        <v>897</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>9</v>
@@ -6101,7 +6098,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>820</v>
+        <v>799</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>9</v>
@@ -6113,7 +6110,7 @@
         <v>9</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>812</v>
+        <v>791</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>9</v>
@@ -6121,47 +6118,47 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>917</v>
+        <v>896</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>845</v>
+        <v>824</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>821</v>
+        <v>800</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>9</v>
@@ -6173,7 +6170,7 @@
         <v>9</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>813</v>
+        <v>792</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>9</v>
@@ -6181,67 +6178,67 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>846</v>
+        <v>825</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>733</v>
+        <v>712</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>822</v>
+        <v>801</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>9</v>
@@ -6253,7 +6250,7 @@
         <v>9</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>814</v>
+        <v>793</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>9</v>
@@ -6261,116 +6258,116 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>823</v>
+        <v>802</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>818</v>
+        <v>797</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>815</v>
+        <v>794</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>817</v>
+        <v>796</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>631</v>
+        <v>610</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>844</v>
+        <v>823</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>731</v>
+        <v>710</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>824</v>
+        <v>803</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>825</v>
+        <v>804</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>9</v>
@@ -6381,7 +6378,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>9</v>
@@ -6401,19 +6398,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>901</v>
+        <v>880</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>826</v>
+        <v>805</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>827</v>
+        <v>806</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>938</v>
+        <v>916</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>9</v>
@@ -6421,19 +6418,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>902</v>
+        <v>881</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>613</v>
+        <v>592</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>937</v>
+        <v>915</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>9</v>
@@ -6441,19 +6438,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>903</v>
+        <v>882</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>9</v>
@@ -6461,39 +6458,39 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>904</v>
+        <v>883</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>905</v>
+        <v>884</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>9</v>
@@ -6501,7 +6498,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>906</v>
+        <v>885</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>9</v>
@@ -6521,7 +6518,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>907</v>
+        <v>886</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>9</v>
@@ -6541,19 +6538,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>908</v>
+        <v>887</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>832</v>
+        <v>811</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>836</v>
+        <v>815</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>9</v>
@@ -6561,19 +6558,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>909</v>
+        <v>888</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>9</v>
@@ -6581,7 +6578,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>910</v>
+        <v>889</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>9</v>
@@ -6601,27 +6598,27 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>9</v>
@@ -6630,47 +6627,47 @@
         <v>9</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>919</v>
+        <v>898</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>9</v>
+        <v>927</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>888</v>
+        <v>867</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>889</v>
+        <v>868</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>9</v>
@@ -6681,16 +6678,16 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>9</v>
+        <v>927</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>891</v>
+        <v>870</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>892</v>
+        <v>871</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>9</v>
@@ -6704,13 +6701,13 @@
         <v>9</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>894</v>
+        <v>873</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>9</v>
@@ -6724,13 +6721,13 @@
         <v>9</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>896</v>
+        <v>875</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>9</v>
@@ -6741,19 +6738,19 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>9</v>
+        <v>927</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>942</v>
+        <v>920</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>9</v>
@@ -6761,16 +6758,16 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>9</v>
+        <v>927</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="E173" s="5" t="s">
         <v>9</v>
@@ -6781,62 +6778,102 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>925</v>
+        <v>904</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>926</v>
+        <v>905</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>927</v>
+        <v>906</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>924</v>
+        <v>903</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>923</v>
+        <v>902</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>694</v>
+        <v>673</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>696</v>
+        <v>675</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>797</v>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -6854,7 +6891,7 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>

--- a/all.xlsx
+++ b/all.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14358486-7930-4682-97DA-AE3B49D2CFDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA24044-7776-469D-8E0A-01D51D8DD482}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="2" sheetId="4" r:id="rId2"/>
-    <sheet name="Лист1" sheetId="5" r:id="rId3"/>
+    <sheet name="2" sheetId="5" r:id="rId2"/>
+    <sheet name="3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -1918,9 +1918,6 @@
     <t>Катричук Алексей Александрович</t>
   </si>
   <si>
-    <t>С 474 ВК 193</t>
-  </si>
-  <si>
     <t>Фольксваген Getta</t>
   </si>
   <si>
@@ -2900,6 +2897,9 @@
   </si>
   <si>
     <t>Рио ресторан</t>
+  </si>
+  <si>
+    <t>Т 335 ВК 193</t>
   </si>
 </sst>
 </file>
@@ -3300,9 +3300,9 @@
   <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F177" sqref="F177"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3324,7 +3324,7 @@
         <v>609</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>349</v>
@@ -3333,18 +3333,18 @@
         <v>350</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>354</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>614</v>
+        <v>941</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>612</v>
@@ -3353,7 +3353,7 @@
         <v>355</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3370,10 +3370,10 @@
         <v>613</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3381,19 +3381,19 @@
         <v>192</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>358</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>355</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3407,18 +3407,18 @@
         <v>360</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>361</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>362</v>
@@ -3427,13 +3427,13 @@
         <v>363</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>364</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3447,13 +3447,13 @@
         <v>378</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>379</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3464,21 +3464,21 @@
         <v>381</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>382</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>383</v>
@@ -3487,18 +3487,18 @@
         <v>384</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>385</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>386</v>
@@ -3507,18 +3507,18 @@
         <v>387</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>388</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>389</v>
@@ -3527,13 +3527,13 @@
         <v>390</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>391</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3547,18 +3547,18 @@
         <v>395</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>396</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>397</v>
@@ -3567,18 +3567,18 @@
         <v>398</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>399</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>403</v>
@@ -3587,13 +3587,13 @@
         <v>404</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>405</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3607,18 +3607,18 @@
         <v>406</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>407</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>411</v>
@@ -3627,18 +3627,18 @@
         <v>412</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>413</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>414</v>
@@ -3647,18 +3647,18 @@
         <v>415</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>416</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>417</v>
@@ -3667,13 +3667,13 @@
         <v>418</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>419</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3687,18 +3687,18 @@
         <v>421</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>231</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>426</v>
@@ -3707,18 +3707,18 @@
         <v>427</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>399</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>428</v>
@@ -3727,18 +3727,18 @@
         <v>429</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>430</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>414</v>
@@ -3747,33 +3747,33 @@
         <v>431</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>231</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>435</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>198</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3787,18 +3787,18 @@
         <v>439</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>440</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>441</v>
@@ -3807,38 +3807,38 @@
         <v>442</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>416</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>443</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>444</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>445</v>
@@ -3847,18 +3847,18 @@
         <v>446</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>447</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>448</v>
@@ -3867,13 +3867,13 @@
         <v>449</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>450</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3887,18 +3887,18 @@
         <v>452</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>453</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>454</v>
@@ -3907,18 +3907,18 @@
         <v>455</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>456</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>457</v>
@@ -3927,18 +3927,18 @@
         <v>458</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>416</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>459</v>
@@ -3947,18 +3947,18 @@
         <v>460</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>461</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>462</v>
@@ -3967,18 +3967,18 @@
         <v>463</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>464</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>465</v>
@@ -3987,18 +3987,18 @@
         <v>466</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>467</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>468</v>
@@ -4007,18 +4007,18 @@
         <v>469</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>467</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>470</v>
@@ -4027,13 +4027,13 @@
         <v>471</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>472</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -4047,18 +4047,18 @@
         <v>474</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>475</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>476</v>
@@ -4073,12 +4073,12 @@
         <v>478</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>479</v>
@@ -4093,12 +4093,12 @@
         <v>481</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>482</v>
@@ -4113,12 +4113,12 @@
         <v>484</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>485</v>
@@ -4133,12 +4133,12 @@
         <v>487</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>488</v>
@@ -4150,15 +4150,15 @@
         <v>574</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>490</v>
@@ -4173,12 +4173,12 @@
         <v>492</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>493</v>
@@ -4193,12 +4193,12 @@
         <v>495</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>496</v>
@@ -4213,12 +4213,12 @@
         <v>498</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>499</v>
@@ -4233,12 +4233,12 @@
         <v>501</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>502</v>
@@ -4253,7 +4253,7 @@
         <v>504</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -4273,7 +4273,7 @@
         <v>507</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -4293,7 +4293,7 @@
         <v>513</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -4313,12 +4313,12 @@
         <v>516</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>517</v>
@@ -4330,10 +4330,10 @@
         <v>584</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -4350,15 +4350,15 @@
         <v>585</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>521</v>
@@ -4370,15 +4370,15 @@
         <v>586</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>523</v>
@@ -4390,10 +4390,10 @@
         <v>587</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -4413,12 +4413,12 @@
         <v>529</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>530</v>
@@ -4430,35 +4430,35 @@
         <v>590</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>532</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>591</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>535</v>
@@ -4473,12 +4473,12 @@
         <v>537</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>538</v>
@@ -4493,18 +4493,18 @@
         <v>540</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>525</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>595</v>
@@ -4513,32 +4513,32 @@
         <v>541</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>542</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>596</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>543</v>
@@ -4550,15 +4550,15 @@
         <v>597</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>374</v>
@@ -4570,15 +4570,15 @@
         <v>598</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>549</v>
@@ -4593,12 +4593,12 @@
         <v>551</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>552</v>
@@ -4613,12 +4613,12 @@
         <v>554</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>555</v>
@@ -4633,7 +4633,7 @@
         <v>557</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -4653,12 +4653,12 @@
         <v>560</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>563</v>
@@ -4673,12 +4673,12 @@
         <v>565</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>356</v>
@@ -4693,18 +4693,18 @@
         <v>551</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>607</v>
@@ -4713,27 +4713,27 @@
         <v>568</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>891</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>892</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="E71" s="5" t="s">
         <v>893</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="F71" s="5" t="s">
         <v>894</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -4741,19 +4741,19 @@
         <v>9</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="E72" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>663</v>
-      </c>
       <c r="F72" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -4761,19 +4761,19 @@
         <v>9</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>665</v>
-      </c>
       <c r="D73" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>663</v>
-      </c>
       <c r="F73" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -4781,19 +4781,19 @@
         <v>9</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="D74" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="E74" s="5" t="s">
-        <v>669</v>
-      </c>
       <c r="F74" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -4804,16 +4804,16 @@
         <v>414</v>
       </c>
       <c r="C75" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>671</v>
-      </c>
       <c r="E75" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -4821,19 +4821,19 @@
         <v>9</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>679</v>
-      </c>
       <c r="F76" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -4841,19 +4841,19 @@
         <v>9</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>682</v>
-      </c>
       <c r="E77" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -4861,19 +4861,19 @@
         <v>9</v>
       </c>
       <c r="B78" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>685</v>
-      </c>
       <c r="E78" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -4881,19 +4881,19 @@
         <v>9</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -4901,19 +4901,19 @@
         <v>9</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -4921,19 +4921,19 @@
         <v>9</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="E81" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="E81" s="5" t="s">
-        <v>691</v>
-      </c>
       <c r="F81" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -4950,7 +4950,7 @@
         <v>9</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>9</v>
@@ -4970,7 +4970,7 @@
         <v>9</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>9</v>
@@ -4990,7 +4990,7 @@
         <v>9</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>9</v>
@@ -5010,7 +5010,7 @@
         <v>9</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>9</v>
@@ -5030,7 +5030,7 @@
         <v>9</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>9</v>
@@ -5050,7 +5050,7 @@
         <v>9</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>9</v>
@@ -5070,7 +5070,7 @@
         <v>9</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>9</v>
@@ -5090,7 +5090,7 @@
         <v>9</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>9</v>
@@ -5110,7 +5110,7 @@
         <v>9</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>9</v>
@@ -5130,7 +5130,7 @@
         <v>9</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>9</v>
@@ -5150,7 +5150,7 @@
         <v>9</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>9</v>
@@ -5170,7 +5170,7 @@
         <v>9</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>9</v>
@@ -5190,7 +5190,7 @@
         <v>9</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>9</v>
@@ -5210,7 +5210,7 @@
         <v>9</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>9</v>
@@ -5230,7 +5230,7 @@
         <v>9</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>9</v>
@@ -5250,7 +5250,7 @@
         <v>9</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>9</v>
@@ -5270,7 +5270,7 @@
         <v>9</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>9</v>
@@ -5290,7 +5290,7 @@
         <v>9</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>9</v>
@@ -5310,7 +5310,7 @@
         <v>9</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>9</v>
@@ -5330,7 +5330,7 @@
         <v>9</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>9</v>
@@ -5350,7 +5350,7 @@
         <v>9</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>9</v>
@@ -5370,7 +5370,7 @@
         <v>9</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>9</v>
@@ -5384,13 +5384,13 @@
         <v>312</v>
       </c>
       <c r="C104" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>9</v>
@@ -5404,13 +5404,13 @@
         <v>347</v>
       </c>
       <c r="C105" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>9</v>
@@ -5424,13 +5424,13 @@
         <v>347</v>
       </c>
       <c r="C106" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>9</v>
@@ -5444,13 +5444,13 @@
         <v>314</v>
       </c>
       <c r="C107" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>9</v>
@@ -5464,13 +5464,13 @@
         <v>347</v>
       </c>
       <c r="C108" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>9</v>
@@ -5484,13 +5484,13 @@
         <v>347</v>
       </c>
       <c r="C109" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>9</v>
@@ -5504,13 +5504,13 @@
         <v>348</v>
       </c>
       <c r="C110" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>9</v>
@@ -5524,13 +5524,13 @@
         <v>348</v>
       </c>
       <c r="C111" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>9</v>
@@ -5544,13 +5544,13 @@
         <v>348</v>
       </c>
       <c r="C112" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>9</v>
@@ -5564,13 +5564,13 @@
         <v>348</v>
       </c>
       <c r="C113" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>9</v>
@@ -5584,13 +5584,13 @@
         <v>348</v>
       </c>
       <c r="C114" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>9</v>
@@ -5601,16 +5601,16 @@
         <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C115" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>9</v>
@@ -5621,16 +5621,16 @@
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C116" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>9</v>
@@ -5641,16 +5641,16 @@
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C117" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>9</v>
@@ -5661,16 +5661,16 @@
         <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C118" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>9</v>
@@ -5681,16 +5681,16 @@
         <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C119" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>9</v>
@@ -5701,16 +5701,16 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C120" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>9</v>
@@ -5724,13 +5724,13 @@
         <v>323</v>
       </c>
       <c r="C121" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>9</v>
@@ -5741,16 +5741,16 @@
         <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C122" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>9</v>
@@ -5761,16 +5761,16 @@
         <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C123" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>9</v>
@@ -5781,16 +5781,16 @@
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C124" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>9</v>
@@ -5801,16 +5801,16 @@
         <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C125" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>9</v>
@@ -5824,13 +5824,13 @@
         <v>319</v>
       </c>
       <c r="C126" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>9</v>
@@ -5844,13 +5844,13 @@
         <v>320</v>
       </c>
       <c r="C127" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>9</v>
@@ -5864,13 +5864,13 @@
         <v>314</v>
       </c>
       <c r="C128" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>9</v>
@@ -5884,13 +5884,13 @@
         <v>316</v>
       </c>
       <c r="C129" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>9</v>
@@ -5904,13 +5904,13 @@
         <v>319</v>
       </c>
       <c r="C130" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>9</v>
@@ -5921,16 +5921,16 @@
         <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C131" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>9</v>
@@ -5941,16 +5941,16 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C132" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>9</v>
@@ -5964,13 +5964,13 @@
         <v>316</v>
       </c>
       <c r="C133" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>9</v>
@@ -5981,16 +5981,16 @@
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C134" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>9</v>
@@ -6001,16 +6001,16 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C135" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>9</v>
@@ -6024,13 +6024,13 @@
         <v>310</v>
       </c>
       <c r="C136" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>9</v>
@@ -6041,16 +6041,16 @@
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C137" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>9</v>
@@ -6064,13 +6064,13 @@
         <v>312</v>
       </c>
       <c r="C138" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>9</v>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>9</v>
@@ -6090,7 +6090,7 @@
         <v>9</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>9</v>
@@ -6098,7 +6098,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>9</v>
@@ -6110,7 +6110,7 @@
         <v>9</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>9</v>
@@ -6130,10 +6130,10 @@
         <v>604</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -6147,18 +6147,18 @@
         <v>434</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>9</v>
@@ -6170,7 +6170,7 @@
         <v>9</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>9</v>
@@ -6178,7 +6178,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>525</v>
@@ -6190,10 +6190,10 @@
         <v>588</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -6207,13 +6207,13 @@
         <v>375</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>376</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -6227,18 +6227,18 @@
         <v>424</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>425</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>9</v>
@@ -6250,7 +6250,7 @@
         <v>9</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>9</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>392</v>
@@ -6267,13 +6267,13 @@
         <v>393</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -6287,13 +6287,13 @@
         <v>402</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -6304,7 +6304,7 @@
         <v>509</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>581</v>
@@ -6313,7 +6313,7 @@
         <v>510</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -6333,7 +6333,7 @@
         <v>353</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -6347,27 +6347,27 @@
         <v>370</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B153" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="C153" s="5" t="s">
-        <v>804</v>
-      </c>
       <c r="D153" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>9</v>
@@ -6378,7 +6378,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>9</v>
@@ -6398,19 +6398,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B155" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="C155" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>806</v>
-      </c>
       <c r="D155" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>9</v>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>533</v>
@@ -6430,7 +6430,7 @@
         <v>592</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>9</v>
@@ -6438,19 +6438,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B157" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="C157" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="C157" s="5" t="s">
-        <v>808</v>
-      </c>
       <c r="D157" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>9</v>
@@ -6458,7 +6458,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>546</v>
@@ -6473,24 +6473,24 @@
         <v>548</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>485</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>9</v>
@@ -6498,7 +6498,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>9</v>
@@ -6518,7 +6518,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>9</v>
@@ -6538,19 +6538,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B162" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="C162" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="C162" s="5" t="s">
-        <v>811</v>
-      </c>
       <c r="D162" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>9</v>
@@ -6558,7 +6558,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>365</v>
@@ -6578,7 +6578,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>9</v>
@@ -6598,7 +6598,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>362</v>
@@ -6607,18 +6607,18 @@
         <v>371</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>372</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>9</v>
@@ -6627,18 +6627,18 @@
         <v>9</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>408</v>
@@ -6647,27 +6647,27 @@
         <v>409</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>410</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B168" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C168" s="5" t="s">
         <v>867</v>
       </c>
-      <c r="C168" s="5" t="s">
-        <v>868</v>
-      </c>
       <c r="D168" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>9</v>
@@ -6678,16 +6678,16 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B169" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="C169" s="5" t="s">
         <v>870</v>
       </c>
-      <c r="C169" s="5" t="s">
-        <v>871</v>
-      </c>
       <c r="D169" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>9</v>
@@ -6701,13 +6701,13 @@
         <v>9</v>
       </c>
       <c r="B170" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>872</v>
       </c>
-      <c r="C170" s="5" t="s">
-        <v>873</v>
-      </c>
       <c r="D170" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>9</v>
@@ -6721,13 +6721,13 @@
         <v>9</v>
       </c>
       <c r="B171" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>874</v>
       </c>
-      <c r="C171" s="5" t="s">
-        <v>875</v>
-      </c>
       <c r="D171" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>9</v>
@@ -6738,19 +6738,19 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>9</v>
@@ -6758,16 +6758,16 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E173" s="5" t="s">
         <v>9</v>
@@ -6778,27 +6778,27 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B174" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="C174" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="D174" s="5" t="s">
         <v>905</v>
       </c>
-      <c r="D174" s="5" t="s">
-        <v>906</v>
-      </c>
       <c r="E174" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>374</v>
@@ -6807,50 +6807,50 @@
         <v>436</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E175" s="5" t="s">
         <v>437</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B176" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C176" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="D176" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="E176" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="E176" s="5" t="s">
-        <v>675</v>
-      </c>
       <c r="F176" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B177" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="C177" s="5" t="s">
         <v>922</v>
       </c>
-      <c r="C177" s="5" t="s">
-        <v>923</v>
-      </c>
       <c r="D177" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F177" s="5" t="s">
         <v>9</v>
@@ -6858,19 +6858,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B178" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="C178" s="5" t="s">
         <v>924</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="D178" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" s="5" t="s">
         <v>925</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>926</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>9</v>
@@ -6885,68 +6885,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D553DF85-882F-4747-9180-8DAB33B3FEDB}">
   <dimension ref="A1:G287"/>
   <sheetViews>
@@ -7562,7 +7500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -13473,4 +13411,66 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>